--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Alaska</t>
   </si>
@@ -681,6 +681,42 @@
   <si>
     <t>15 07 2020</t>
   </si>
+  <si>
+    <t>16 07 2020</t>
+  </si>
+  <si>
+    <t>17 07 2020</t>
+  </si>
+  <si>
+    <t>18 07 2020</t>
+  </si>
+  <si>
+    <t>19 07 2020</t>
+  </si>
+  <si>
+    <t>20 07 2020</t>
+  </si>
+  <si>
+    <t>21 07 2020</t>
+  </si>
+  <si>
+    <t>22 07 2020</t>
+  </si>
+  <si>
+    <t>23 07 2020</t>
+  </si>
+  <si>
+    <t>24 07 2020</t>
+  </si>
+  <si>
+    <t>25 07 2020</t>
+  </si>
+  <si>
+    <t>26 07 2020</t>
+  </si>
+  <si>
+    <t>27 07 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1011,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE167"/>
+  <dimension ref="A1:BE179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13310,6 +13346,9 @@
       <c r="D72">
         <v>0.020768279276858</v>
       </c>
+      <c r="E72">
+        <v>0.125</v>
+      </c>
       <c r="F72">
         <v>0.026898681262793</v>
       </c>
@@ -13480,6 +13519,9 @@
       <c r="D73">
         <v>0.019211309887616</v>
       </c>
+      <c r="E73">
+        <v>0.066666666666667</v>
+      </c>
       <c r="F73">
         <v>0.025294561796359</v>
       </c>
@@ -13650,6 +13692,9 @@
       <c r="D74">
         <v>0.041061762657554</v>
       </c>
+      <c r="E74">
+        <v>0.16666666666667</v>
+      </c>
       <c r="F74">
         <v>0.035775679111306</v>
       </c>
@@ -13820,6 +13865,9 @@
       <c r="D75">
         <v>0.045041688054167</v>
       </c>
+      <c r="E75">
+        <v>0.13392857142857</v>
+      </c>
       <c r="F75">
         <v>0.048057756463263</v>
       </c>
@@ -13990,6 +14038,9 @@
       <c r="D76">
         <v>0.043012865195885</v>
       </c>
+      <c r="E76">
+        <v>0.20261437908497</v>
+      </c>
       <c r="F76">
         <v>0.04034102080393</v>
       </c>
@@ -14160,6 +14211,9 @@
       <c r="D77">
         <v>0.044123246282306</v>
       </c>
+      <c r="E77">
+        <v>0.12521043771044</v>
+      </c>
       <c r="F77">
         <v>0.03763638791296</v>
       </c>
@@ -14330,6 +14384,9 @@
       <c r="D78">
         <v>0.043216583892622</v>
       </c>
+      <c r="E78">
+        <v>0.087121212121212</v>
+      </c>
       <c r="F78">
         <v>0.048352882491275</v>
       </c>
@@ -14500,6 +14557,9 @@
       <c r="D79">
         <v>0.025645474834161</v>
       </c>
+      <c r="E79">
+        <v>0.10714285714286</v>
+      </c>
       <c r="F79">
         <v>0.033433996667959</v>
       </c>
@@ -14670,6 +14730,9 @@
       <c r="D80">
         <v>0.024501089009365</v>
       </c>
+      <c r="E80">
+        <v>0.12222222222222</v>
+      </c>
       <c r="F80">
         <v>0.025715324005533</v>
       </c>
@@ -28771,25 +28834,2065 @@
       <c r="A163" t="s">
         <v>217</v>
       </c>
+      <c r="B163">
+        <v>0.053315626407326</v>
+      </c>
+      <c r="C163">
+        <v>0.033103637438572</v>
+      </c>
+      <c r="D163">
+        <v>0.026925690529018</v>
+      </c>
+      <c r="F163">
+        <v>0.034432507085274</v>
+      </c>
+      <c r="G163">
+        <v>0.039003633347367</v>
+      </c>
+      <c r="H163">
+        <v>0.034021239968046</v>
+      </c>
+      <c r="I163">
+        <v>0.026109572232459</v>
+      </c>
+      <c r="J163">
+        <v>0.037380641760044</v>
+      </c>
+      <c r="K163">
+        <v>0.024800411617081</v>
+      </c>
+      <c r="L163">
+        <v>0.020894756544883</v>
+      </c>
+      <c r="M163">
+        <v>0.019671799731417</v>
+      </c>
+      <c r="N163">
+        <v>0.057507699478226</v>
+      </c>
+      <c r="O163">
+        <v>0.022966362241003</v>
+      </c>
+      <c r="P163">
+        <v>0.025554590995906</v>
+      </c>
+      <c r="Q163">
+        <v>0.028642613142178</v>
+      </c>
+      <c r="R163">
+        <v>0.025651140212887</v>
+      </c>
+      <c r="S163">
+        <v>0.025009090403654</v>
+      </c>
+      <c r="T163">
+        <v>0.026734049229278</v>
+      </c>
+      <c r="U163">
+        <v>0.025978618819456</v>
+      </c>
+      <c r="V163">
+        <v>0.030458627862135</v>
+      </c>
+      <c r="W163">
+        <v>0.034033726082623</v>
+      </c>
+      <c r="X163">
+        <v>0.028231483774343</v>
+      </c>
+      <c r="Y163">
+        <v>0.033623535101382</v>
+      </c>
+      <c r="Z163">
+        <v>0.032452094668806</v>
+      </c>
+      <c r="AA163">
+        <v>0.031072206721679</v>
+      </c>
+      <c r="AB163">
+        <v>0.032807799723155</v>
+      </c>
+      <c r="AC163">
+        <v>0.12720859387526</v>
+      </c>
+      <c r="AD163">
+        <v>0.031049851676475</v>
+      </c>
+      <c r="AE163">
+        <v>0.047778895387117</v>
+      </c>
+      <c r="AF163">
+        <v>0.024842163475041</v>
+      </c>
+      <c r="AG163">
+        <v>0.028657761274845</v>
+      </c>
+      <c r="AH163">
+        <v>0.031806644815966</v>
+      </c>
+      <c r="AI163">
+        <v>0.031420548559455</v>
+      </c>
+      <c r="AJ163">
+        <v>0.032144418128699</v>
+      </c>
+      <c r="AK163">
+        <v>0.042252331703566</v>
+      </c>
+      <c r="AL163">
+        <v>0.038832100823048</v>
+      </c>
+      <c r="AM163">
+        <v>0.03512611467008</v>
+      </c>
+      <c r="AN163">
+        <v>0.028627988022299</v>
+      </c>
+      <c r="AO163">
+        <v>0.025814923480207</v>
+      </c>
+      <c r="AP163">
+        <v>0.034185084865334</v>
+      </c>
+      <c r="AQ163">
+        <v>0.031332990512808</v>
+      </c>
+      <c r="AR163">
+        <v>0.038771453693251</v>
+      </c>
+      <c r="AS163">
+        <v>0.034980301331743</v>
+      </c>
+      <c r="AT163">
+        <v>0.027302632298688</v>
+      </c>
+      <c r="AU163">
+        <v>0.030246988638318</v>
+      </c>
+      <c r="AV163">
+        <v>0.025339055209383</v>
+      </c>
+      <c r="AW163">
+        <v>0.025177269875475</v>
+      </c>
+      <c r="AX163">
+        <v>0.033705815250432</v>
+      </c>
+      <c r="AY163">
+        <v>0.02813003098919</v>
+      </c>
+      <c r="AZ163">
+        <v>0.06885552952823901</v>
+      </c>
+      <c r="BA163">
+        <v>0.035039091910308</v>
+      </c>
+      <c r="BB163">
+        <v>0.03125603919077</v>
+      </c>
+      <c r="BC163">
+        <v>0.027764008596926</v>
+      </c>
+      <c r="BD163">
+        <v>0.030767012194024</v>
+      </c>
+      <c r="BE163">
+        <v>0.034461290400947</v>
+      </c>
     </row>
     <row r="164" spans="1:57">
       <c r="A164" t="s">
         <v>218</v>
       </c>
+      <c r="B164">
+        <v>0.036342422615585</v>
+      </c>
+      <c r="C164">
+        <v>0.01777207575359</v>
+      </c>
+      <c r="D164">
+        <v>0.018151747642088</v>
+      </c>
+      <c r="F164">
+        <v>0.024769407408391</v>
+      </c>
+      <c r="G164">
+        <v>0.032592975410974</v>
+      </c>
+      <c r="H164">
+        <v>0.033323462438247</v>
+      </c>
+      <c r="I164">
+        <v>0.031119967165413</v>
+      </c>
+      <c r="J164">
+        <v>0.047074074954616</v>
+      </c>
+      <c r="K164">
+        <v>0.029250560440923</v>
+      </c>
+      <c r="L164">
+        <v>0.023756189320907</v>
+      </c>
+      <c r="M164">
+        <v>0.02046568721187</v>
+      </c>
+      <c r="N164">
+        <v>0.053063454975073</v>
+      </c>
+      <c r="O164">
+        <v>0.024461949916946</v>
+      </c>
+      <c r="P164">
+        <v>0.023720433990972</v>
+      </c>
+      <c r="Q164">
+        <v>0.028614404213821</v>
+      </c>
+      <c r="R164">
+        <v>0.026760623578489</v>
+      </c>
+      <c r="S164">
+        <v>0.024123664734399</v>
+      </c>
+      <c r="T164">
+        <v>0.024259482219999</v>
+      </c>
+      <c r="U164">
+        <v>0.023573124444993</v>
+      </c>
+      <c r="V164">
+        <v>0.026991558756898</v>
+      </c>
+      <c r="W164">
+        <v>0.031933688275251</v>
+      </c>
+      <c r="X164">
+        <v>0.026422433718832</v>
+      </c>
+      <c r="Y164">
+        <v>0.031519378955648</v>
+      </c>
+      <c r="Z164">
+        <v>0.026747878006097</v>
+      </c>
+      <c r="AA164">
+        <v>0.023665014034923</v>
+      </c>
+      <c r="AB164">
+        <v>0.022980294092305</v>
+      </c>
+      <c r="AC164">
+        <v>0.13610500610501</v>
+      </c>
+      <c r="AD164">
+        <v>0.021006584414129</v>
+      </c>
+      <c r="AE164">
+        <v>0.03306416909084</v>
+      </c>
+      <c r="AF164">
+        <v>0.020507406770782</v>
+      </c>
+      <c r="AG164">
+        <v>0.023429627580148</v>
+      </c>
+      <c r="AH164">
+        <v>0.022256960594169</v>
+      </c>
+      <c r="AI164">
+        <v>0.024145983628469</v>
+      </c>
+      <c r="AJ164">
+        <v>0.023773731388463</v>
+      </c>
+      <c r="AK164">
+        <v>0.031970565327531</v>
+      </c>
+      <c r="AL164">
+        <v>0.026724815308143</v>
+      </c>
+      <c r="AM164">
+        <v>0.029996288273485</v>
+      </c>
+      <c r="AN164">
+        <v>0.02449395509443</v>
+      </c>
+      <c r="AO164">
+        <v>0.020127005037637</v>
+      </c>
+      <c r="AP164">
+        <v>0.026438187356164</v>
+      </c>
+      <c r="AQ164">
+        <v>0.027118466196563</v>
+      </c>
+      <c r="AR164">
+        <v>0.035564126123571</v>
+      </c>
+      <c r="AS164">
+        <v>0.033250790833313</v>
+      </c>
+      <c r="AT164">
+        <v>0.021941489138898</v>
+      </c>
+      <c r="AU164">
+        <v>0.027664057138183</v>
+      </c>
+      <c r="AV164">
+        <v>0.020826131010051</v>
+      </c>
+      <c r="AW164">
+        <v>0.021469763150592</v>
+      </c>
+      <c r="AX164">
+        <v>0.027695236256239</v>
+      </c>
+      <c r="AY164">
+        <v>0.025856690322989</v>
+      </c>
+      <c r="AZ164">
+        <v>0.065747625164348</v>
+      </c>
+      <c r="BA164">
+        <v>0.035666471980827</v>
+      </c>
+      <c r="BB164">
+        <v>0.027732249037736</v>
+      </c>
+      <c r="BC164">
+        <v>0.026425131637908</v>
+      </c>
+      <c r="BD164">
+        <v>0.029150885064494</v>
+      </c>
+      <c r="BE164">
+        <v>0.028735076442882</v>
+      </c>
     </row>
     <row r="165" spans="1:57">
       <c r="A165" t="s">
         <v>219</v>
       </c>
+      <c r="B165">
+        <v>0.062399279714928</v>
+      </c>
+      <c r="C165">
+        <v>0.062272735223772</v>
+      </c>
+      <c r="D165">
+        <v>0.062283743823451</v>
+      </c>
+      <c r="F165">
+        <v>0.058130141644342</v>
+      </c>
+      <c r="G165">
+        <v>0.05180150068784</v>
+      </c>
+      <c r="H165">
+        <v>0.049997216393182</v>
+      </c>
+      <c r="I165">
+        <v>0.04676917590371</v>
+      </c>
+      <c r="J165">
+        <v>0.044680018269202</v>
+      </c>
+      <c r="K165">
+        <v>0.046048251416154</v>
+      </c>
+      <c r="L165">
+        <v>0.046042581966218</v>
+      </c>
+      <c r="M165">
+        <v>0.044065454363475</v>
+      </c>
+      <c r="N165">
+        <v>0.050312745491121</v>
+      </c>
+      <c r="O165">
+        <v>0.027631611238664</v>
+      </c>
+      <c r="P165">
+        <v>0.041694828387392</v>
+      </c>
+      <c r="Q165">
+        <v>0.050191024089409</v>
+      </c>
+      <c r="R165">
+        <v>0.039639729773057</v>
+      </c>
+      <c r="S165">
+        <v>0.040329865977972</v>
+      </c>
+      <c r="T165">
+        <v>0.041178539291487</v>
+      </c>
+      <c r="U165">
+        <v>0.041141348575197</v>
+      </c>
+      <c r="V165">
+        <v>0.04710559045711</v>
+      </c>
+      <c r="W165">
+        <v>0.039956142671223</v>
+      </c>
+      <c r="X165">
+        <v>0.038432211041075</v>
+      </c>
+      <c r="Y165">
+        <v>0.041441115405944</v>
+      </c>
+      <c r="Z165">
+        <v>0.042835861304026</v>
+      </c>
+      <c r="AA165">
+        <v>0.038558004173819</v>
+      </c>
+      <c r="AB165">
+        <v>0.047348725121245</v>
+      </c>
+      <c r="AC165">
+        <v>0.12113095238095</v>
+      </c>
+      <c r="AD165">
+        <v>0.048058745188838</v>
+      </c>
+      <c r="AE165">
+        <v>0.051019811315484</v>
+      </c>
+      <c r="AF165">
+        <v>0.043577943379548</v>
+      </c>
+      <c r="AG165">
+        <v>0.042516199947964</v>
+      </c>
+      <c r="AH165">
+        <v>0.045336703244321</v>
+      </c>
+      <c r="AI165">
+        <v>0.043413526269391</v>
+      </c>
+      <c r="AJ165">
+        <v>0.040914695162416</v>
+      </c>
+      <c r="AK165">
+        <v>0.043503878694813</v>
+      </c>
+      <c r="AL165">
+        <v>0.040456044293527</v>
+      </c>
+      <c r="AM165">
+        <v>0.042838061093843</v>
+      </c>
+      <c r="AN165">
+        <v>0.045257804386961</v>
+      </c>
+      <c r="AO165">
+        <v>0.046297937388149</v>
+      </c>
+      <c r="AP165">
+        <v>0.044638785383881</v>
+      </c>
+      <c r="AQ165">
+        <v>0.049655932747295</v>
+      </c>
+      <c r="AR165">
+        <v>0.045659674505609</v>
+      </c>
+      <c r="AS165">
+        <v>0.051963209403558</v>
+      </c>
+      <c r="AT165">
+        <v>0.051222472510278</v>
+      </c>
+      <c r="AU165">
+        <v>0.050537788431818</v>
+      </c>
+      <c r="AV165">
+        <v>0.049267496181416</v>
+      </c>
+      <c r="AW165">
+        <v>0.042425057358563</v>
+      </c>
+      <c r="AX165">
+        <v>0.051364061263983</v>
+      </c>
+      <c r="AY165">
+        <v>0.04486181985976</v>
+      </c>
+      <c r="AZ165">
+        <v>0.077511517920337</v>
+      </c>
+      <c r="BA165">
+        <v>0.050893786109659</v>
+      </c>
+      <c r="BB165">
+        <v>0.041763335049749</v>
+      </c>
+      <c r="BC165">
+        <v>0.045744136629842</v>
+      </c>
+      <c r="BD165">
+        <v>0.045894486825509</v>
+      </c>
+      <c r="BE165">
+        <v>0.044641661216025</v>
+      </c>
     </row>
     <row r="166" spans="1:57">
       <c r="A166" t="s">
         <v>220</v>
       </c>
+      <c r="B166">
+        <v>0.07766702361984899</v>
+      </c>
+      <c r="C166">
+        <v>0.074684798811203</v>
+      </c>
+      <c r="D166">
+        <v>0.052067664061198</v>
+      </c>
+      <c r="F166">
+        <v>0.054033631296791</v>
+      </c>
+      <c r="G166">
+        <v>0.045674037413007</v>
+      </c>
+      <c r="H166">
+        <v>0.04969391218129</v>
+      </c>
+      <c r="I166">
+        <v>0.044724047039503</v>
+      </c>
+      <c r="J166">
+        <v>0.041972387914857</v>
+      </c>
+      <c r="K166">
+        <v>0.045522363855674</v>
+      </c>
+      <c r="L166">
+        <v>0.045721081810435</v>
+      </c>
+      <c r="M166">
+        <v>0.045859082154489</v>
+      </c>
+      <c r="N166">
+        <v>0.051352892550516</v>
+      </c>
+      <c r="O166">
+        <v>0.030433036403729</v>
+      </c>
+      <c r="P166">
+        <v>0.042601118607901</v>
+      </c>
+      <c r="Q166">
+        <v>0.052578934357626</v>
+      </c>
+      <c r="R166">
+        <v>0.045265307407139</v>
+      </c>
+      <c r="S166">
+        <v>0.04413786894727</v>
+      </c>
+      <c r="T166">
+        <v>0.042411347099144</v>
+      </c>
+      <c r="U166">
+        <v>0.04278611608179</v>
+      </c>
+      <c r="V166">
+        <v>0.049059274620354</v>
+      </c>
+      <c r="W166">
+        <v>0.043226413686145</v>
+      </c>
+      <c r="X166">
+        <v>0.040656940778302</v>
+      </c>
+      <c r="Y166">
+        <v>0.04549158311423</v>
+      </c>
+      <c r="Z166">
+        <v>0.046165200445319</v>
+      </c>
+      <c r="AA166">
+        <v>0.042153679531529</v>
+      </c>
+      <c r="AB166">
+        <v>0.049681708483486</v>
+      </c>
+      <c r="AC166">
+        <v>0.12606272812155</v>
+      </c>
+      <c r="AD166">
+        <v>0.051544973511202</v>
+      </c>
+      <c r="AE166">
+        <v>0.054976611902366</v>
+      </c>
+      <c r="AF166">
+        <v>0.046843205462167</v>
+      </c>
+      <c r="AG166">
+        <v>0.046880761413038</v>
+      </c>
+      <c r="AH166">
+        <v>0.047310759702586</v>
+      </c>
+      <c r="AI166">
+        <v>0.045568819975168</v>
+      </c>
+      <c r="AJ166">
+        <v>0.042779021839427</v>
+      </c>
+      <c r="AK166">
+        <v>0.044290925917439</v>
+      </c>
+      <c r="AL166">
+        <v>0.042597110347417</v>
+      </c>
+      <c r="AM166">
+        <v>0.044795916589177</v>
+      </c>
+      <c r="AN166">
+        <v>0.049342025824753</v>
+      </c>
+      <c r="AO166">
+        <v>0.050827453966072</v>
+      </c>
+      <c r="AP166">
+        <v>0.04885186713209</v>
+      </c>
+      <c r="AQ166">
+        <v>0.051074548669952</v>
+      </c>
+      <c r="AR166">
+        <v>0.048013039773406</v>
+      </c>
+      <c r="AS166">
+        <v>0.048665506879922</v>
+      </c>
+      <c r="AT166">
+        <v>0.05032423144337</v>
+      </c>
+      <c r="AU166">
+        <v>0.047844766830231</v>
+      </c>
+      <c r="AV166">
+        <v>0.047995040040702</v>
+      </c>
+      <c r="AW166">
+        <v>0.040437454359361</v>
+      </c>
+      <c r="AX166">
+        <v>0.049301161233694</v>
+      </c>
+      <c r="AY166">
+        <v>0.044792585107726</v>
+      </c>
+      <c r="AZ166">
+        <v>0.07824012611624601</v>
+      </c>
+      <c r="BA166">
+        <v>0.047888207588158</v>
+      </c>
+      <c r="BB166">
+        <v>0.043267276543494</v>
+      </c>
+      <c r="BC166">
+        <v>0.045970310733924</v>
+      </c>
+      <c r="BD166">
+        <v>0.050275064893952</v>
+      </c>
+      <c r="BE166">
+        <v>0.047204044871437</v>
+      </c>
     </row>
     <row r="167" spans="1:57">
       <c r="A167" t="s">
         <v>221</v>
+      </c>
+      <c r="B167">
+        <v>0.04499743005167</v>
+      </c>
+      <c r="C167">
+        <v>0.049119108624683</v>
+      </c>
+      <c r="D167">
+        <v>0.045594234427723</v>
+      </c>
+      <c r="F167">
+        <v>0.039511434532505</v>
+      </c>
+      <c r="G167">
+        <v>0.04715060415309</v>
+      </c>
+      <c r="H167">
+        <v>0.050681283365216</v>
+      </c>
+      <c r="I167">
+        <v>0.046544188732451</v>
+      </c>
+      <c r="J167">
+        <v>0.0436034605932</v>
+      </c>
+      <c r="K167">
+        <v>0.047511158296303</v>
+      </c>
+      <c r="L167">
+        <v>0.044588453204632</v>
+      </c>
+      <c r="M167">
+        <v>0.044782551363861</v>
+      </c>
+      <c r="N167">
+        <v>0.06026092777394</v>
+      </c>
+      <c r="O167">
+        <v>0.029041227737141</v>
+      </c>
+      <c r="P167">
+        <v>0.043915717732083</v>
+      </c>
+      <c r="Q167">
+        <v>0.052103215391109</v>
+      </c>
+      <c r="R167">
+        <v>0.044423939333761</v>
+      </c>
+      <c r="S167">
+        <v>0.044291599177624</v>
+      </c>
+      <c r="T167">
+        <v>0.043560470860456</v>
+      </c>
+      <c r="U167">
+        <v>0.045166304195587</v>
+      </c>
+      <c r="V167">
+        <v>0.050525692076779</v>
+      </c>
+      <c r="W167">
+        <v>0.046746155868183</v>
+      </c>
+      <c r="X167">
+        <v>0.043979221519732</v>
+      </c>
+      <c r="Y167">
+        <v>0.046977566548131</v>
+      </c>
+      <c r="Z167">
+        <v>0.046709781995654</v>
+      </c>
+      <c r="AA167">
+        <v>0.042189335316629</v>
+      </c>
+      <c r="AB167">
+        <v>0.047753079573607</v>
+      </c>
+      <c r="AC167">
+        <v>0.11618506493506</v>
+      </c>
+      <c r="AD167">
+        <v>0.049291637685003</v>
+      </c>
+      <c r="AE167">
+        <v>0.052227833416988</v>
+      </c>
+      <c r="AF167">
+        <v>0.045819402124729</v>
+      </c>
+      <c r="AG167">
+        <v>0.048835847759624</v>
+      </c>
+      <c r="AH167">
+        <v>0.043935767944196</v>
+      </c>
+      <c r="AI167">
+        <v>0.041706803769868</v>
+      </c>
+      <c r="AJ167">
+        <v>0.040148497164631</v>
+      </c>
+      <c r="AK167">
+        <v>0.040718177298639</v>
+      </c>
+      <c r="AL167">
+        <v>0.039843379041716</v>
+      </c>
+      <c r="AM167">
+        <v>0.044462674236805</v>
+      </c>
+      <c r="AN167">
+        <v>0.04625724833811</v>
+      </c>
+      <c r="AO167">
+        <v>0.047714595007801</v>
+      </c>
+      <c r="AP167">
+        <v>0.044886085463286</v>
+      </c>
+      <c r="AQ167">
+        <v>0.04693140288814</v>
+      </c>
+      <c r="AR167">
+        <v>0.053394917655711</v>
+      </c>
+      <c r="AS167">
+        <v>0.04759183358511</v>
+      </c>
+      <c r="AT167">
+        <v>0.049243327285661</v>
+      </c>
+      <c r="AU167">
+        <v>0.04956849462407</v>
+      </c>
+      <c r="AV167">
+        <v>0.047474236818537</v>
+      </c>
+      <c r="AW167">
+        <v>0.042591777727441</v>
+      </c>
+      <c r="AX167">
+        <v>0.054927400496184</v>
+      </c>
+      <c r="AY167">
+        <v>0.047152390541741</v>
+      </c>
+      <c r="AZ167">
+        <v>0.09391301980147</v>
+      </c>
+      <c r="BA167">
+        <v>0.055326381404078</v>
+      </c>
+      <c r="BB167">
+        <v>0.046307109870834</v>
+      </c>
+      <c r="BC167">
+        <v>0.048580389229436</v>
+      </c>
+      <c r="BD167">
+        <v>0.052123371912275</v>
+      </c>
+      <c r="BE167">
+        <v>0.048451154648721</v>
+      </c>
+    </row>
+    <row r="168" spans="1:57">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168">
+        <v>0.06827496396503201</v>
+      </c>
+      <c r="C168">
+        <v>0.069319290679414</v>
+      </c>
+      <c r="D168">
+        <v>0.058814805049162</v>
+      </c>
+      <c r="F168">
+        <v>0.05267086722027</v>
+      </c>
+      <c r="G168">
+        <v>0.058016116327797</v>
+      </c>
+      <c r="H168">
+        <v>0.048945040882552</v>
+      </c>
+      <c r="I168">
+        <v>0.044023440519328</v>
+      </c>
+      <c r="J168">
+        <v>0.041907476326996</v>
+      </c>
+      <c r="K168">
+        <v>0.042062475607129</v>
+      </c>
+      <c r="L168">
+        <v>0.043635454994709</v>
+      </c>
+      <c r="M168">
+        <v>0.041874232429872</v>
+      </c>
+      <c r="N168">
+        <v>0.054149073376589</v>
+      </c>
+      <c r="O168">
+        <v>0.027548647716616</v>
+      </c>
+      <c r="P168">
+        <v>0.044188025542977</v>
+      </c>
+      <c r="Q168">
+        <v>0.045809962508884</v>
+      </c>
+      <c r="R168">
+        <v>0.039877782898921</v>
+      </c>
+      <c r="S168">
+        <v>0.041305995649659</v>
+      </c>
+      <c r="T168">
+        <v>0.043313838835875</v>
+      </c>
+      <c r="U168">
+        <v>0.044425188650145</v>
+      </c>
+      <c r="V168">
+        <v>0.051617611164421</v>
+      </c>
+      <c r="W168">
+        <v>0.045025927984361</v>
+      </c>
+      <c r="X168">
+        <v>0.042486451072683</v>
+      </c>
+      <c r="Y168">
+        <v>0.048282758175515</v>
+      </c>
+      <c r="Z168">
+        <v>0.043665907265781</v>
+      </c>
+      <c r="AA168">
+        <v>0.03884782483686</v>
+      </c>
+      <c r="AB168">
+        <v>0.045045320200679</v>
+      </c>
+      <c r="AC168">
+        <v>0.14634822248459</v>
+      </c>
+      <c r="AD168">
+        <v>0.047409375621222</v>
+      </c>
+      <c r="AE168">
+        <v>0.050171752021172</v>
+      </c>
+      <c r="AF168">
+        <v>0.043886834077953</v>
+      </c>
+      <c r="AG168">
+        <v>0.044151645021552</v>
+      </c>
+      <c r="AH168">
+        <v>0.044535740178306</v>
+      </c>
+      <c r="AI168">
+        <v>0.045682184854542</v>
+      </c>
+      <c r="AJ168">
+        <v>0.042153905021048</v>
+      </c>
+      <c r="AK168">
+        <v>0.047510849391346</v>
+      </c>
+      <c r="AL168">
+        <v>0.040860882251754</v>
+      </c>
+      <c r="AM168">
+        <v>0.04604939663953</v>
+      </c>
+      <c r="AN168">
+        <v>0.042862401833907</v>
+      </c>
+      <c r="AO168">
+        <v>0.0428008801252</v>
+      </c>
+      <c r="AP168">
+        <v>0.040174487767231</v>
+      </c>
+      <c r="AQ168">
+        <v>0.042057323959723</v>
+      </c>
+      <c r="AR168">
+        <v>0.047043659050877</v>
+      </c>
+      <c r="AS168">
+        <v>0.042058333282491</v>
+      </c>
+      <c r="AT168">
+        <v>0.044844832757257</v>
+      </c>
+      <c r="AU168">
+        <v>0.045537450219593</v>
+      </c>
+      <c r="AV168">
+        <v>0.043290090765201</v>
+      </c>
+      <c r="AW168">
+        <v>0.038976505193865</v>
+      </c>
+      <c r="AX168">
+        <v>0.051098912165167</v>
+      </c>
+      <c r="AY168">
+        <v>0.043031442356307</v>
+      </c>
+      <c r="AZ168">
+        <v>0.067825438626373</v>
+      </c>
+      <c r="BA168">
+        <v>0.048541394678121</v>
+      </c>
+      <c r="BB168">
+        <v>0.04248104136513</v>
+      </c>
+      <c r="BC168">
+        <v>0.045656560519008</v>
+      </c>
+      <c r="BD168">
+        <v>0.04641919256477</v>
+      </c>
+      <c r="BE168">
+        <v>0.04652364885071</v>
+      </c>
+    </row>
+    <row r="169" spans="1:57">
+      <c r="A169" t="s">
+        <v>223</v>
+      </c>
+      <c r="B169">
+        <v>0.038671647421494</v>
+      </c>
+      <c r="C169">
+        <v>0.03689750061931</v>
+      </c>
+      <c r="D169">
+        <v>0.041069900443084</v>
+      </c>
+      <c r="F169">
+        <v>0.032345298091179</v>
+      </c>
+      <c r="G169">
+        <v>0.044191242973099</v>
+      </c>
+      <c r="H169">
+        <v>0.040751883586324</v>
+      </c>
+      <c r="I169">
+        <v>0.038445646842077</v>
+      </c>
+      <c r="J169">
+        <v>0.041450898141975</v>
+      </c>
+      <c r="K169">
+        <v>0.037005155242926</v>
+      </c>
+      <c r="L169">
+        <v>0.03901788410793</v>
+      </c>
+      <c r="M169">
+        <v>0.036652351903297</v>
+      </c>
+      <c r="N169">
+        <v>0.079551403574707</v>
+      </c>
+      <c r="O169">
+        <v>0.028093756360857</v>
+      </c>
+      <c r="P169">
+        <v>0.036815171894017</v>
+      </c>
+      <c r="Q169">
+        <v>0.040753301786727</v>
+      </c>
+      <c r="R169">
+        <v>0.035533941126215</v>
+      </c>
+      <c r="S169">
+        <v>0.035261850408966</v>
+      </c>
+      <c r="T169">
+        <v>0.038347481640937</v>
+      </c>
+      <c r="U169">
+        <v>0.040298162774355</v>
+      </c>
+      <c r="V169">
+        <v>0.047414336921698</v>
+      </c>
+      <c r="W169">
+        <v>0.051050130438179</v>
+      </c>
+      <c r="X169">
+        <v>0.044079993992125</v>
+      </c>
+      <c r="Y169">
+        <v>0.046302536652031</v>
+      </c>
+      <c r="Z169">
+        <v>0.050430037910833</v>
+      </c>
+      <c r="AA169">
+        <v>0.041913511320236</v>
+      </c>
+      <c r="AB169">
+        <v>0.049336191340496</v>
+      </c>
+      <c r="AC169">
+        <v>0.10784372793875</v>
+      </c>
+      <c r="AD169">
+        <v>0.048619166290376</v>
+      </c>
+      <c r="AE169">
+        <v>0.055353528496425</v>
+      </c>
+      <c r="AF169">
+        <v>0.043171627941833</v>
+      </c>
+      <c r="AG169">
+        <v>0.039805492803086</v>
+      </c>
+      <c r="AH169">
+        <v>0.047134929823631</v>
+      </c>
+      <c r="AI169">
+        <v>0.049297859959867</v>
+      </c>
+      <c r="AJ169">
+        <v>0.045759143044469</v>
+      </c>
+      <c r="AK169">
+        <v>0.049192950878634</v>
+      </c>
+      <c r="AL169">
+        <v>0.045923908274617</v>
+      </c>
+      <c r="AM169">
+        <v>0.050352787294061</v>
+      </c>
+      <c r="AN169">
+        <v>0.045036848608983</v>
+      </c>
+      <c r="AO169">
+        <v>0.043969140678609</v>
+      </c>
+      <c r="AP169">
+        <v>0.043276469588518</v>
+      </c>
+      <c r="AQ169">
+        <v>0.044843594963097</v>
+      </c>
+      <c r="AR169">
+        <v>0.046728980072005</v>
+      </c>
+      <c r="AS169">
+        <v>0.047550436861414</v>
+      </c>
+      <c r="AT169">
+        <v>0.041801083179587</v>
+      </c>
+      <c r="AU169">
+        <v>0.043875675913937</v>
+      </c>
+      <c r="AV169">
+        <v>0.042550175393573</v>
+      </c>
+      <c r="AW169">
+        <v>0.037302146099223</v>
+      </c>
+      <c r="AX169">
+        <v>0.047396746617618</v>
+      </c>
+      <c r="AY169">
+        <v>0.041150153167812</v>
+      </c>
+      <c r="AZ169">
+        <v>0.077890056080059</v>
+      </c>
+      <c r="BA169">
+        <v>0.050351208891763</v>
+      </c>
+      <c r="BB169">
+        <v>0.041063189597083</v>
+      </c>
+      <c r="BC169">
+        <v>0.040361937513352</v>
+      </c>
+      <c r="BD169">
+        <v>0.045479086006608</v>
+      </c>
+      <c r="BE169">
+        <v>0.043509049495994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:57">
+      <c r="A170" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170">
+        <v>0.04077348823519</v>
+      </c>
+      <c r="C170">
+        <v>0.028758560964908</v>
+      </c>
+      <c r="D170">
+        <v>0.020032375430506</v>
+      </c>
+      <c r="F170">
+        <v>0.025364839174746</v>
+      </c>
+      <c r="G170">
+        <v>0.034918050508703</v>
+      </c>
+      <c r="H170">
+        <v>0.031928214399974</v>
+      </c>
+      <c r="I170">
+        <v>0.027335807286066</v>
+      </c>
+      <c r="J170">
+        <v>0.037369691087669</v>
+      </c>
+      <c r="K170">
+        <v>0.02422875257537</v>
+      </c>
+      <c r="L170">
+        <v>0.022272844597998</v>
+      </c>
+      <c r="M170">
+        <v>0.022138566435848</v>
+      </c>
+      <c r="N170">
+        <v>0.07004431740554801</v>
+      </c>
+      <c r="O170">
+        <v>0.025428218517425</v>
+      </c>
+      <c r="P170">
+        <v>0.026093886081264</v>
+      </c>
+      <c r="Q170">
+        <v>0.032258522091969</v>
+      </c>
+      <c r="R170">
+        <v>0.027877404774388</v>
+      </c>
+      <c r="S170">
+        <v>0.025898501072763</v>
+      </c>
+      <c r="T170">
+        <v>0.027332105925362</v>
+      </c>
+      <c r="U170">
+        <v>0.028751186624985</v>
+      </c>
+      <c r="V170">
+        <v>0.033671559111076</v>
+      </c>
+      <c r="W170">
+        <v>0.040896571718836</v>
+      </c>
+      <c r="X170">
+        <v>0.03453747410023</v>
+      </c>
+      <c r="Y170">
+        <v>0.038940907149846</v>
+      </c>
+      <c r="Z170">
+        <v>0.033896660895651</v>
+      </c>
+      <c r="AA170">
+        <v>0.026971617070006</v>
+      </c>
+      <c r="AB170">
+        <v>0.028013229383353</v>
+      </c>
+      <c r="AC170">
+        <v>0.11343076514795</v>
+      </c>
+      <c r="AD170">
+        <v>0.027753146635226</v>
+      </c>
+      <c r="AE170">
+        <v>0.039588163179507</v>
+      </c>
+      <c r="AF170">
+        <v>0.026345456565412</v>
+      </c>
+      <c r="AG170">
+        <v>0.027780539359295</v>
+      </c>
+      <c r="AH170">
+        <v>0.02677325050813</v>
+      </c>
+      <c r="AI170">
+        <v>0.028190991433364</v>
+      </c>
+      <c r="AJ170">
+        <v>0.028705731094278</v>
+      </c>
+      <c r="AK170">
+        <v>0.038515417222761</v>
+      </c>
+      <c r="AL170">
+        <v>0.032551590264998</v>
+      </c>
+      <c r="AM170">
+        <v>0.036353881248275</v>
+      </c>
+      <c r="AN170">
+        <v>0.030156420220222</v>
+      </c>
+      <c r="AO170">
+        <v>0.026832801835406</v>
+      </c>
+      <c r="AP170">
+        <v>0.033763530295421</v>
+      </c>
+      <c r="AQ170">
+        <v>0.032177065204521</v>
+      </c>
+      <c r="AR170">
+        <v>0.046661253994481</v>
+      </c>
+      <c r="AS170">
+        <v>0.036197361276154</v>
+      </c>
+      <c r="AT170">
+        <v>0.025947599845785</v>
+      </c>
+      <c r="AU170">
+        <v>0.030475196553033</v>
+      </c>
+      <c r="AV170">
+        <v>0.025719573207788</v>
+      </c>
+      <c r="AW170">
+        <v>0.024563463628686</v>
+      </c>
+      <c r="AX170">
+        <v>0.034572742089161</v>
+      </c>
+      <c r="AY170">
+        <v>0.028945277765165</v>
+      </c>
+      <c r="AZ170">
+        <v>0.085650692730452</v>
+      </c>
+      <c r="BA170">
+        <v>0.038221973462148</v>
+      </c>
+      <c r="BB170">
+        <v>0.033337684730795</v>
+      </c>
+      <c r="BC170">
+        <v>0.030202124011827</v>
+      </c>
+      <c r="BD170">
+        <v>0.035178577222985</v>
+      </c>
+      <c r="BE170">
+        <v>0.038465359576804</v>
+      </c>
+    </row>
+    <row r="171" spans="1:57">
+      <c r="A171" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171">
+        <v>0.038891694086581</v>
+      </c>
+      <c r="C171">
+        <v>0.020815300488007</v>
+      </c>
+      <c r="D171">
+        <v>0.018511024413846</v>
+      </c>
+      <c r="F171">
+        <v>0.025609578925255</v>
+      </c>
+      <c r="G171">
+        <v>0.033385603136232</v>
+      </c>
+      <c r="H171">
+        <v>0.03369413185344</v>
+      </c>
+      <c r="I171">
+        <v>0.03021535707044</v>
+      </c>
+      <c r="J171">
+        <v>0.043673210578155</v>
+      </c>
+      <c r="K171">
+        <v>0.027711576715471</v>
+      </c>
+      <c r="L171">
+        <v>0.022387147793427</v>
+      </c>
+      <c r="M171">
+        <v>0.018831975468463</v>
+      </c>
+      <c r="N171">
+        <v>0.059280680842934</v>
+      </c>
+      <c r="O171">
+        <v>0.023445485471187</v>
+      </c>
+      <c r="P171">
+        <v>0.020070588070841</v>
+      </c>
+      <c r="Q171">
+        <v>0.026318534142446</v>
+      </c>
+      <c r="R171">
+        <v>0.022984499412696</v>
+      </c>
+      <c r="S171">
+        <v>0.020484559389996</v>
+      </c>
+      <c r="T171">
+        <v>0.020124080882402</v>
+      </c>
+      <c r="U171">
+        <v>0.021370535918264</v>
+      </c>
+      <c r="V171">
+        <v>0.024826200861866</v>
+      </c>
+      <c r="W171">
+        <v>0.030640590629501</v>
+      </c>
+      <c r="X171">
+        <v>0.024220825285659</v>
+      </c>
+      <c r="Y171">
+        <v>0.02907535620197</v>
+      </c>
+      <c r="Z171">
+        <v>0.025354316645672</v>
+      </c>
+      <c r="AA171">
+        <v>0.02309852551842</v>
+      </c>
+      <c r="AB171">
+        <v>0.022586239575509</v>
+      </c>
+      <c r="AC171">
+        <v>0.085191866408449</v>
+      </c>
+      <c r="AD171">
+        <v>0.021461244441684</v>
+      </c>
+      <c r="AE171">
+        <v>0.033603292722481</v>
+      </c>
+      <c r="AF171">
+        <v>0.023143047037603</v>
+      </c>
+      <c r="AG171">
+        <v>0.028094195056754</v>
+      </c>
+      <c r="AH171">
+        <v>0.021742395832975</v>
+      </c>
+      <c r="AI171">
+        <v>0.025140766148329</v>
+      </c>
+      <c r="AJ171">
+        <v>0.024640996696129</v>
+      </c>
+      <c r="AK171">
+        <v>0.032778046014042</v>
+      </c>
+      <c r="AL171">
+        <v>0.027872115255392</v>
+      </c>
+      <c r="AM171">
+        <v>0.032774207442067</v>
+      </c>
+      <c r="AN171">
+        <v>0.029269702600951</v>
+      </c>
+      <c r="AO171">
+        <v>0.026262293970782</v>
+      </c>
+      <c r="AP171">
+        <v>0.032663831093736</v>
+      </c>
+      <c r="AQ171">
+        <v>0.031609557971098</v>
+      </c>
+      <c r="AR171">
+        <v>0.036983578195274</v>
+      </c>
+      <c r="AS171">
+        <v>0.03639026041104</v>
+      </c>
+      <c r="AT171">
+        <v>0.024051212305814</v>
+      </c>
+      <c r="AU171">
+        <v>0.027756033168146</v>
+      </c>
+      <c r="AV171">
+        <v>0.022392305422196</v>
+      </c>
+      <c r="AW171">
+        <v>0.022352470059311</v>
+      </c>
+      <c r="AX171">
+        <v>0.028999333545331</v>
+      </c>
+      <c r="AY171">
+        <v>0.026558607641039</v>
+      </c>
+      <c r="AZ171">
+        <v>0.057375942877386</v>
+      </c>
+      <c r="BA171">
+        <v>0.037778219247686</v>
+      </c>
+      <c r="BB171">
+        <v>0.029467804731216</v>
+      </c>
+      <c r="BC171">
+        <v>0.025876017307543</v>
+      </c>
+      <c r="BD171">
+        <v>0.031249024754486</v>
+      </c>
+      <c r="BE171">
+        <v>0.028935351399418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:57">
+      <c r="A172" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172">
+        <v>0.044800602767984</v>
+      </c>
+      <c r="C172">
+        <v>0.047587441326562</v>
+      </c>
+      <c r="D172">
+        <v>0.049548773065235</v>
+      </c>
+      <c r="F172">
+        <v>0.042154335220313</v>
+      </c>
+      <c r="G172">
+        <v>0.04787719030955</v>
+      </c>
+      <c r="H172">
+        <v>0.052435543508933</v>
+      </c>
+      <c r="I172">
+        <v>0.047433710539404</v>
+      </c>
+      <c r="J172">
+        <v>0.04550325751198</v>
+      </c>
+      <c r="K172">
+        <v>0.045791545011135</v>
+      </c>
+      <c r="L172">
+        <v>0.046387414963927</v>
+      </c>
+      <c r="M172">
+        <v>0.046608633887019</v>
+      </c>
+      <c r="N172">
+        <v>0.053576004551009</v>
+      </c>
+      <c r="O172">
+        <v>0.030404066445234</v>
+      </c>
+      <c r="P172">
+        <v>0.053495914431127</v>
+      </c>
+      <c r="Q172">
+        <v>0.053121930295639</v>
+      </c>
+      <c r="R172">
+        <v>0.047109809808495</v>
+      </c>
+      <c r="S172">
+        <v>0.050617668141547</v>
+      </c>
+      <c r="T172">
+        <v>0.050598282625759</v>
+      </c>
+      <c r="U172">
+        <v>0.053013940660348</v>
+      </c>
+      <c r="V172">
+        <v>0.05899622497939</v>
+      </c>
+      <c r="W172">
+        <v>0.051344377665691</v>
+      </c>
+      <c r="X172">
+        <v>0.050044695935142</v>
+      </c>
+      <c r="Y172">
+        <v>0.054786724608089</v>
+      </c>
+      <c r="Z172">
+        <v>0.050019321834527</v>
+      </c>
+      <c r="AA172">
+        <v>0.045188764467053</v>
+      </c>
+      <c r="AB172">
+        <v>0.049500579608272</v>
+      </c>
+      <c r="AC172">
+        <v>0.087587799343063</v>
+      </c>
+      <c r="AD172">
+        <v>0.051280734108976</v>
+      </c>
+      <c r="AE172">
+        <v>0.053994722054023</v>
+      </c>
+      <c r="AF172">
+        <v>0.044365843267301</v>
+      </c>
+      <c r="AG172">
+        <v>0.043696645552268</v>
+      </c>
+      <c r="AH172">
+        <v>0.048360027285765</v>
+      </c>
+      <c r="AI172">
+        <v>0.04751592037885</v>
+      </c>
+      <c r="AJ172">
+        <v>0.043762240625094</v>
+      </c>
+      <c r="AK172">
+        <v>0.046592838044033</v>
+      </c>
+      <c r="AL172">
+        <v>0.043448057156759</v>
+      </c>
+      <c r="AM172">
+        <v>0.045435988237431</v>
+      </c>
+      <c r="AN172">
+        <v>0.044014202942768</v>
+      </c>
+      <c r="AO172">
+        <v>0.045955325147736</v>
+      </c>
+      <c r="AP172">
+        <v>0.043211612144747</v>
+      </c>
+      <c r="AQ172">
+        <v>0.045275104570739</v>
+      </c>
+      <c r="AR172">
+        <v>0.04665725921445</v>
+      </c>
+      <c r="AS172">
+        <v>0.046805800077404</v>
+      </c>
+      <c r="AT172">
+        <v>0.047805587247448</v>
+      </c>
+      <c r="AU172">
+        <v>0.05149694268521</v>
+      </c>
+      <c r="AV172">
+        <v>0.046726250574066</v>
+      </c>
+      <c r="AW172">
+        <v>0.040095216725078</v>
+      </c>
+      <c r="AX172">
+        <v>0.051352873939885</v>
+      </c>
+      <c r="AY172">
+        <v>0.042961570374037</v>
+      </c>
+      <c r="AZ172">
+        <v>0.079962522780815</v>
+      </c>
+      <c r="BA172">
+        <v>0.047626765347433</v>
+      </c>
+      <c r="BB172">
+        <v>0.041451088869218</v>
+      </c>
+      <c r="BC172">
+        <v>0.046932233587565</v>
+      </c>
+      <c r="BD172">
+        <v>0.048759393520144</v>
+      </c>
+      <c r="BE172">
+        <v>0.046959308819528</v>
+      </c>
+    </row>
+    <row r="173" spans="1:57">
+      <c r="A173" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173">
+        <v>0.040831665116648</v>
+      </c>
+      <c r="C173">
+        <v>0.048850869501011</v>
+      </c>
+      <c r="D173">
+        <v>0.049790253282869</v>
+      </c>
+      <c r="F173">
+        <v>0.036656342032423</v>
+      </c>
+      <c r="G173">
+        <v>0.056069434172606</v>
+      </c>
+      <c r="H173">
+        <v>0.052146588133089</v>
+      </c>
+      <c r="I173">
+        <v>0.045412040854086</v>
+      </c>
+      <c r="J173">
+        <v>0.040493188956938</v>
+      </c>
+      <c r="K173">
+        <v>0.044318817467775</v>
+      </c>
+      <c r="L173">
+        <v>0.044550710684817</v>
+      </c>
+      <c r="M173">
+        <v>0.043629940134752</v>
+      </c>
+      <c r="N173">
+        <v>0.06123510935004</v>
+      </c>
+      <c r="O173">
+        <v>0.028919451318481</v>
+      </c>
+      <c r="P173">
+        <v>0.050513825173179</v>
+      </c>
+      <c r="Q173">
+        <v>0.051759648956077</v>
+      </c>
+      <c r="R173">
+        <v>0.044396747866021</v>
+      </c>
+      <c r="S173">
+        <v>0.046911084850346</v>
+      </c>
+      <c r="T173">
+        <v>0.047837920747637</v>
+      </c>
+      <c r="U173">
+        <v>0.048816059506067</v>
+      </c>
+      <c r="V173">
+        <v>0.05497245157976</v>
+      </c>
+      <c r="W173">
+        <v>0.048076236935674</v>
+      </c>
+      <c r="X173">
+        <v>0.045601538625436</v>
+      </c>
+      <c r="Y173">
+        <v>0.052073508268304</v>
+      </c>
+      <c r="Z173">
+        <v>0.04686403855179</v>
+      </c>
+      <c r="AA173">
+        <v>0.043757617675038</v>
+      </c>
+      <c r="AB173">
+        <v>0.049408683369501</v>
+      </c>
+      <c r="AC173">
+        <v>0.099019022607862</v>
+      </c>
+      <c r="AD173">
+        <v>0.051542905088245</v>
+      </c>
+      <c r="AE173">
+        <v>0.056770302873424</v>
+      </c>
+      <c r="AF173">
+        <v>0.04743258400587</v>
+      </c>
+      <c r="AG173">
+        <v>0.050491210039976</v>
+      </c>
+      <c r="AH173">
+        <v>0.048615584068325</v>
+      </c>
+      <c r="AI173">
+        <v>0.04886098014514</v>
+      </c>
+      <c r="AJ173">
+        <v>0.04595160557419</v>
+      </c>
+      <c r="AK173">
+        <v>0.049908017216717</v>
+      </c>
+      <c r="AL173">
+        <v>0.044358103282212</v>
+      </c>
+      <c r="AM173">
+        <v>0.048139120493056</v>
+      </c>
+      <c r="AN173">
+        <v>0.049223965214855</v>
+      </c>
+      <c r="AO173">
+        <v>0.050266685232001</v>
+      </c>
+      <c r="AP173">
+        <v>0.050484734214896</v>
+      </c>
+      <c r="AQ173">
+        <v>0.0514507048426</v>
+      </c>
+      <c r="AR173">
+        <v>0.056426385144313</v>
+      </c>
+      <c r="AS173">
+        <v>0.05263398545777</v>
+      </c>
+      <c r="AT173">
+        <v>0.05239620815657</v>
+      </c>
+      <c r="AU173">
+        <v>0.054718083263888</v>
+      </c>
+      <c r="AV173">
+        <v>0.049754676326401</v>
+      </c>
+      <c r="AW173">
+        <v>0.044240610737999</v>
+      </c>
+      <c r="AX173">
+        <v>0.057280338725973</v>
+      </c>
+      <c r="AY173">
+        <v>0.048940456810621</v>
+      </c>
+      <c r="AZ173">
+        <v>0.08586720413896599</v>
+      </c>
+      <c r="BA173">
+        <v>0.058369646155433</v>
+      </c>
+      <c r="BB173">
+        <v>0.049142443082534</v>
+      </c>
+      <c r="BC173">
+        <v>0.054554546836842</v>
+      </c>
+      <c r="BD173">
+        <v>0.055829330067692</v>
+      </c>
+      <c r="BE173">
+        <v>0.056140068352261</v>
+      </c>
+    </row>
+    <row r="174" spans="1:57">
+      <c r="A174" t="s">
+        <v>228</v>
+      </c>
+      <c r="B174">
+        <v>0.044862995247066</v>
+      </c>
+      <c r="C174">
+        <v>0.046344114959684</v>
+      </c>
+      <c r="D174">
+        <v>0.049320951880529</v>
+      </c>
+      <c r="F174">
+        <v>0.041204183931491</v>
+      </c>
+      <c r="G174">
+        <v>0.050173271766548</v>
+      </c>
+      <c r="H174">
+        <v>0.048593400919487</v>
+      </c>
+      <c r="I174">
+        <v>0.043696131368605</v>
+      </c>
+      <c r="J174">
+        <v>0.039656879036635</v>
+      </c>
+      <c r="K174">
+        <v>0.045455728814211</v>
+      </c>
+      <c r="L174">
+        <v>0.045420359337395</v>
+      </c>
+      <c r="M174">
+        <v>0.04398500775123</v>
+      </c>
+      <c r="N174">
+        <v>0.058815605699914</v>
+      </c>
+      <c r="O174">
+        <v>0.030132786107217</v>
+      </c>
+      <c r="P174">
+        <v>0.051262790860277</v>
+      </c>
+      <c r="Q174">
+        <v>0.052113331201876</v>
+      </c>
+      <c r="R174">
+        <v>0.045537548914404</v>
+      </c>
+      <c r="S174">
+        <v>0.048025448870287</v>
+      </c>
+      <c r="T174">
+        <v>0.05030697396533</v>
+      </c>
+      <c r="U174">
+        <v>0.050014328714752</v>
+      </c>
+      <c r="V174">
+        <v>0.055390588324819</v>
+      </c>
+      <c r="W174">
+        <v>0.045054936083565</v>
+      </c>
+      <c r="X174">
+        <v>0.044118024915891</v>
+      </c>
+      <c r="Y174">
+        <v>0.051273529017595</v>
+      </c>
+      <c r="Z174">
+        <v>0.044546928606962</v>
+      </c>
+      <c r="AA174">
+        <v>0.044201376817627</v>
+      </c>
+      <c r="AB174">
+        <v>0.050804671745426</v>
+      </c>
+      <c r="AC174">
+        <v>0.081097735629075</v>
+      </c>
+      <c r="AD174">
+        <v>0.05065023058134</v>
+      </c>
+      <c r="AE174">
+        <v>0.057076790846615</v>
+      </c>
+      <c r="AF174">
+        <v>0.044890794860946</v>
+      </c>
+      <c r="AG174">
+        <v>0.04277838162488</v>
+      </c>
+      <c r="AH174">
+        <v>0.04985957046073</v>
+      </c>
+      <c r="AI174">
+        <v>0.050991138615907</v>
+      </c>
+      <c r="AJ174">
+        <v>0.046756149777239</v>
+      </c>
+      <c r="AK174">
+        <v>0.049404381043882</v>
+      </c>
+      <c r="AL174">
+        <v>0.045046807518873</v>
+      </c>
+      <c r="AM174">
+        <v>0.048147566662118</v>
+      </c>
+      <c r="AN174">
+        <v>0.043980289616872</v>
+      </c>
+      <c r="AO174">
+        <v>0.044250087520451</v>
+      </c>
+      <c r="AP174">
+        <v>0.040991385682075</v>
+      </c>
+      <c r="AQ174">
+        <v>0.043566158353704</v>
+      </c>
+      <c r="AR174">
+        <v>0.0525832054397</v>
+      </c>
+      <c r="AS174">
+        <v>0.043732940792471</v>
+      </c>
+      <c r="AT174">
+        <v>0.045748219888887</v>
+      </c>
+      <c r="AU174">
+        <v>0.046561983765076</v>
+      </c>
+      <c r="AV174">
+        <v>0.044487770097722</v>
+      </c>
+      <c r="AW174">
+        <v>0.039607703719918</v>
+      </c>
+      <c r="AX174">
+        <v>0.049865616253175</v>
+      </c>
+      <c r="AY174">
+        <v>0.041914984146508</v>
+      </c>
+      <c r="AZ174">
+        <v>0.08390929492149</v>
+      </c>
+      <c r="BA174">
+        <v>0.047392409862628</v>
+      </c>
+      <c r="BB174">
+        <v>0.040750399622241</v>
+      </c>
+      <c r="BC174">
+        <v>0.045662407663058</v>
+      </c>
+      <c r="BD174">
+        <v>0.045125924056249</v>
+      </c>
+      <c r="BE174">
+        <v>0.044376562438984</v>
+      </c>
+    </row>
+    <row r="175" spans="1:57">
+      <c r="A175" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:57">
+      <c r="A176" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Alaska</t>
   </si>
@@ -717,6 +717,33 @@
   <si>
     <t>27 07 2020</t>
   </si>
+  <si>
+    <t>28 07 2020</t>
+  </si>
+  <si>
+    <t>29 07 2020</t>
+  </si>
+  <si>
+    <t>30 07 2020</t>
+  </si>
+  <si>
+    <t>31 07 2020</t>
+  </si>
+  <si>
+    <t>01 08 2020</t>
+  </si>
+  <si>
+    <t>02 08 2020</t>
+  </si>
+  <si>
+    <t>03 08 2020</t>
+  </si>
+  <si>
+    <t>04 08 2020</t>
+  </si>
+  <si>
+    <t>05 08 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1047,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE179"/>
+  <dimension ref="A1:BE188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14903,6 +14930,9 @@
       <c r="D81">
         <v>0.039832504425335</v>
       </c>
+      <c r="E81">
+        <v>0.087037037037037</v>
+      </c>
       <c r="F81">
         <v>0.037670920755456</v>
       </c>
@@ -15073,6 +15103,9 @@
       <c r="D82">
         <v>0.0457586958507</v>
       </c>
+      <c r="E82">
+        <v>0.13244047619048</v>
+      </c>
       <c r="F82">
         <v>0.038366935303689</v>
       </c>
@@ -15243,6 +15276,9 @@
       <c r="D83">
         <v>0.034752480568002</v>
       </c>
+      <c r="E83">
+        <v>0.10355616605617</v>
+      </c>
       <c r="F83">
         <v>0.030564204041974</v>
       </c>
@@ -15413,6 +15449,9 @@
       <c r="D84">
         <v>0.042849852793225</v>
       </c>
+      <c r="E84">
+        <v>0.12984848484848</v>
+      </c>
       <c r="F84">
         <v>0.048526405429756</v>
       </c>
@@ -15583,6 +15622,9 @@
       <c r="D85">
         <v>0.040833905001161</v>
       </c>
+      <c r="E85">
+        <v>0.12301587301587</v>
+      </c>
       <c r="F85">
         <v>0.041781944019001</v>
       </c>
@@ -15753,6 +15795,9 @@
       <c r="D86">
         <v>0.028168313874496</v>
       </c>
+      <c r="E86">
+        <v>0.12917756846328</v>
+      </c>
       <c r="F86">
         <v>0.029131229341568</v>
       </c>
@@ -15923,6 +15968,9 @@
       <c r="D87">
         <v>0.02029214241068</v>
       </c>
+      <c r="E87">
+        <v>0.10284391534392</v>
+      </c>
       <c r="F87">
         <v>0.02905068830368</v>
       </c>
@@ -16093,6 +16141,9 @@
       <c r="D88">
         <v>0.045589236254</v>
       </c>
+      <c r="E88">
+        <v>0.12818662818663</v>
+      </c>
       <c r="F88">
         <v>0.041264689818047</v>
       </c>
@@ -16263,6 +16314,9 @@
       <c r="D89">
         <v>0.041717846017718</v>
       </c>
+      <c r="E89">
+        <v>0.14166666666667</v>
+      </c>
       <c r="F89">
         <v>0.036025969411425</v>
       </c>
@@ -30874,25 +30928,1555 @@
       <c r="A175" t="s">
         <v>229</v>
       </c>
+      <c r="B175">
+        <v>0.056357784175538</v>
+      </c>
+      <c r="C175">
+        <v>0.048092245160039</v>
+      </c>
+      <c r="D175">
+        <v>0.04580194241076</v>
+      </c>
+      <c r="F175">
+        <v>0.045399806458862</v>
+      </c>
+      <c r="G175">
+        <v>0.042101870013431</v>
+      </c>
+      <c r="H175">
+        <v>0.050800414674206</v>
+      </c>
+      <c r="I175">
+        <v>0.046328647150995</v>
+      </c>
+      <c r="J175">
+        <v>0.04544306661211</v>
+      </c>
+      <c r="K175">
+        <v>0.045261932632209</v>
+      </c>
+      <c r="L175">
+        <v>0.04814364096929</v>
+      </c>
+      <c r="M175">
+        <v>0.047864493215667</v>
+      </c>
+      <c r="N175">
+        <v>0.049459659256611</v>
+      </c>
+      <c r="O175">
+        <v>0.032993430612588</v>
+      </c>
+      <c r="P175">
+        <v>0.049587475357464</v>
+      </c>
+      <c r="Q175">
+        <v>0.055347723627899</v>
+      </c>
+      <c r="R175">
+        <v>0.048053057923521</v>
+      </c>
+      <c r="S175">
+        <v>0.048984639716973</v>
+      </c>
+      <c r="T175">
+        <v>0.04831610258137</v>
+      </c>
+      <c r="U175">
+        <v>0.047990123812215</v>
+      </c>
+      <c r="V175">
+        <v>0.051760814800827</v>
+      </c>
+      <c r="W175">
+        <v>0.045021770606413</v>
+      </c>
+      <c r="X175">
+        <v>0.043323915861377</v>
+      </c>
+      <c r="Y175">
+        <v>0.04828035852445</v>
+      </c>
+      <c r="Z175">
+        <v>0.046981519750925</v>
+      </c>
+      <c r="AA175">
+        <v>0.046479875294472</v>
+      </c>
+      <c r="AB175">
+        <v>0.052971214258609</v>
+      </c>
+      <c r="AC175">
+        <v>0.08003605401321</v>
+      </c>
+      <c r="AD175">
+        <v>0.054593599604826</v>
+      </c>
+      <c r="AE175">
+        <v>0.057436696007258</v>
+      </c>
+      <c r="AF175">
+        <v>0.04495388919082</v>
+      </c>
+      <c r="AG175">
+        <v>0.043791210263412</v>
+      </c>
+      <c r="AH175">
+        <v>0.052546387541853</v>
+      </c>
+      <c r="AI175">
+        <v>0.052500044697113</v>
+      </c>
+      <c r="AJ175">
+        <v>0.047672702490945</v>
+      </c>
+      <c r="AK175">
+        <v>0.049805732646784</v>
+      </c>
+      <c r="AL175">
+        <v>0.047906081897891</v>
+      </c>
+      <c r="AM175">
+        <v>0.047688153421698</v>
+      </c>
+      <c r="AN175">
+        <v>0.044291053628577</v>
+      </c>
+      <c r="AO175">
+        <v>0.045215659804065</v>
+      </c>
+      <c r="AP175">
+        <v>0.042013963149039</v>
+      </c>
+      <c r="AQ175">
+        <v>0.043533652722517</v>
+      </c>
+      <c r="AR175">
+        <v>0.051876900954677</v>
+      </c>
+      <c r="AS175">
+        <v>0.045636990141521</v>
+      </c>
+      <c r="AT175">
+        <v>0.046642522339971</v>
+      </c>
+      <c r="AU175">
+        <v>0.047126034104325</v>
+      </c>
+      <c r="AV175">
+        <v>0.046056821873294</v>
+      </c>
+      <c r="AW175">
+        <v>0.040749848139355</v>
+      </c>
+      <c r="AX175">
+        <v>0.049495351656221</v>
+      </c>
+      <c r="AY175">
+        <v>0.041679895550888</v>
+      </c>
+      <c r="AZ175">
+        <v>0.06900773940602099</v>
+      </c>
+      <c r="BA175">
+        <v>0.046403274345504</v>
+      </c>
+      <c r="BB175">
+        <v>0.039968071829487</v>
+      </c>
+      <c r="BC175">
+        <v>0.044024060619709</v>
+      </c>
+      <c r="BD175">
+        <v>0.045459152709906</v>
+      </c>
+      <c r="BE175">
+        <v>0.045540469108271</v>
+      </c>
     </row>
     <row r="176" spans="1:57">
       <c r="A176" t="s">
         <v>230</v>
       </c>
+      <c r="B176">
+        <v>0.049453953223773</v>
+      </c>
+      <c r="C176">
+        <v>0.03864773010997</v>
+      </c>
+      <c r="D176">
+        <v>0.056368382396543</v>
+      </c>
+      <c r="F176">
+        <v>0.047744752260772</v>
+      </c>
+      <c r="G176">
+        <v>0.047370216284988</v>
+      </c>
+      <c r="H176">
+        <v>0.038962282227089</v>
+      </c>
+      <c r="I176">
+        <v>0.037051169551284</v>
+      </c>
+      <c r="J176">
+        <v>0.042911283207996</v>
+      </c>
+      <c r="K176">
+        <v>0.03681426590934</v>
+      </c>
+      <c r="L176">
+        <v>0.041469022353686</v>
+      </c>
+      <c r="M176">
+        <v>0.040138717086857</v>
+      </c>
+      <c r="N176">
+        <v>0.058747988098812</v>
+      </c>
+      <c r="O176">
+        <v>0.029469767889572</v>
+      </c>
+      <c r="P176">
+        <v>0.04253420636581</v>
+      </c>
+      <c r="Q176">
+        <v>0.044034859938302</v>
+      </c>
+      <c r="R176">
+        <v>0.040491605122659</v>
+      </c>
+      <c r="S176">
+        <v>0.041336565721505</v>
+      </c>
+      <c r="T176">
+        <v>0.041417186209646</v>
+      </c>
+      <c r="U176">
+        <v>0.040547225301745</v>
+      </c>
+      <c r="V176">
+        <v>0.044712189927009</v>
+      </c>
+      <c r="W176">
+        <v>0.040103135225188</v>
+      </c>
+      <c r="X176">
+        <v>0.037673261019838</v>
+      </c>
+      <c r="Y176">
+        <v>0.043012810797568</v>
+      </c>
+      <c r="Z176">
+        <v>0.038853732610979</v>
+      </c>
+      <c r="AA176">
+        <v>0.035426280913356</v>
+      </c>
+      <c r="AB176">
+        <v>0.04204017659716</v>
+      </c>
+      <c r="AC176">
+        <v>0.078517110684168</v>
+      </c>
+      <c r="AD176">
+        <v>0.041788359288478</v>
+      </c>
+      <c r="AE176">
+        <v>0.045946373520395</v>
+      </c>
+      <c r="AF176">
+        <v>0.041656364794439</v>
+      </c>
+      <c r="AG176">
+        <v>0.040510638361269</v>
+      </c>
+      <c r="AH176">
+        <v>0.041541711841998</v>
+      </c>
+      <c r="AI176">
+        <v>0.042179818739742</v>
+      </c>
+      <c r="AJ176">
+        <v>0.0418987056576</v>
+      </c>
+      <c r="AK176">
+        <v>0.045887679519546</v>
+      </c>
+      <c r="AL176">
+        <v>0.041037504047148</v>
+      </c>
+      <c r="AM176">
+        <v>0.04782363459572</v>
+      </c>
+      <c r="AN176">
+        <v>0.044413058485818</v>
+      </c>
+      <c r="AO176">
+        <v>0.043293456955779</v>
+      </c>
+      <c r="AP176">
+        <v>0.043872940732201</v>
+      </c>
+      <c r="AQ176">
+        <v>0.045159050872179</v>
+      </c>
+      <c r="AR176">
+        <v>0.058788578588876</v>
+      </c>
+      <c r="AS176">
+        <v>0.047329110490299</v>
+      </c>
+      <c r="AT176">
+        <v>0.042469927429916</v>
+      </c>
+      <c r="AU176">
+        <v>0.045475459165719</v>
+      </c>
+      <c r="AV176">
+        <v>0.043508099863111</v>
+      </c>
+      <c r="AW176">
+        <v>0.037922437303093</v>
+      </c>
+      <c r="AX176">
+        <v>0.039038063810653</v>
+      </c>
+      <c r="AY176">
+        <v>0.042403840335918</v>
+      </c>
+      <c r="AZ176">
+        <v>0.09334611006051299</v>
+      </c>
+      <c r="BA176">
+        <v>0.051913627080401</v>
+      </c>
+      <c r="BB176">
+        <v>0.043206228982322</v>
+      </c>
+      <c r="BC176">
+        <v>0.045264029858671</v>
+      </c>
+      <c r="BD176">
+        <v>0.048674203855055</v>
+      </c>
+      <c r="BE176">
+        <v>0.047138738140669</v>
+      </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:57">
       <c r="A177" t="s">
         <v>231</v>
       </c>
+      <c r="B177">
+        <v>0.037289133619481</v>
+      </c>
+      <c r="C177">
+        <v>0.02126280682195</v>
+      </c>
+      <c r="D177">
+        <v>0.031462259221663</v>
+      </c>
+      <c r="F177">
+        <v>0.0329167986585</v>
+      </c>
+      <c r="G177">
+        <v>0.038423573953559</v>
+      </c>
+      <c r="H177">
+        <v>0.039284068258442</v>
+      </c>
+      <c r="I177">
+        <v>0.031796438109248</v>
+      </c>
+      <c r="J177">
+        <v>0.042754027103513</v>
+      </c>
+      <c r="K177">
+        <v>0.029018952995419</v>
+      </c>
+      <c r="L177">
+        <v>0.025268053634369</v>
+      </c>
+      <c r="M177">
+        <v>0.022050335389337</v>
+      </c>
+      <c r="N177">
+        <v>0.054140021788856</v>
+      </c>
+      <c r="O177">
+        <v>0.022043554756099</v>
+      </c>
+      <c r="P177">
+        <v>0.02276055954521</v>
+      </c>
+      <c r="Q177">
+        <v>0.031638168453418</v>
+      </c>
+      <c r="R177">
+        <v>0.026265096689333</v>
+      </c>
+      <c r="S177">
+        <v>0.022770430626112</v>
+      </c>
+      <c r="T177">
+        <v>0.023173826451228</v>
+      </c>
+      <c r="U177">
+        <v>0.023326048320921</v>
+      </c>
+      <c r="V177">
+        <v>0.026978427567316</v>
+      </c>
+      <c r="W177">
+        <v>0.03332420509803</v>
+      </c>
+      <c r="X177">
+        <v>0.02723170313035</v>
+      </c>
+      <c r="Y177">
+        <v>0.03123033042342</v>
+      </c>
+      <c r="Z177">
+        <v>0.029261811260464</v>
+      </c>
+      <c r="AA177">
+        <v>0.026284488525614</v>
+      </c>
+      <c r="AB177">
+        <v>0.027047370036314</v>
+      </c>
+      <c r="AC177">
+        <v>0.07221468029155099</v>
+      </c>
+      <c r="AD177">
+        <v>0.02557553801793</v>
+      </c>
+      <c r="AE177">
+        <v>0.040464507221381</v>
+      </c>
+      <c r="AF177">
+        <v>0.026244979527148</v>
+      </c>
+      <c r="AG177">
+        <v>0.028752672719218</v>
+      </c>
+      <c r="AH177">
+        <v>0.026564745064108</v>
+      </c>
+      <c r="AI177">
+        <v>0.028561668511429</v>
+      </c>
+      <c r="AJ177">
+        <v>0.028684159580715</v>
+      </c>
+      <c r="AK177">
+        <v>0.038060109243442</v>
+      </c>
+      <c r="AL177">
+        <v>0.031777727038979</v>
+      </c>
+      <c r="AM177">
+        <v>0.035808339882925</v>
+      </c>
+      <c r="AN177">
+        <v>0.029519658256666</v>
+      </c>
+      <c r="AO177">
+        <v>0.026067800630149</v>
+      </c>
+      <c r="AP177">
+        <v>0.032732933062024</v>
+      </c>
+      <c r="AQ177">
+        <v>0.03002761369271</v>
+      </c>
+      <c r="AR177">
+        <v>0.047725114065187</v>
+      </c>
+      <c r="AS177">
+        <v>0.034849626172148</v>
+      </c>
+      <c r="AT177">
+        <v>0.025376487654863</v>
+      </c>
+      <c r="AU177">
+        <v>0.029316050413484</v>
+      </c>
+      <c r="AV177">
+        <v>0.024821660555603</v>
+      </c>
+      <c r="AW177">
+        <v>0.02310147279192</v>
+      </c>
+      <c r="AX177">
+        <v>0.03204117055816</v>
+      </c>
+      <c r="AY177">
+        <v>0.02563469707602</v>
+      </c>
+      <c r="AZ177">
+        <v>0.063995733235966</v>
+      </c>
+      <c r="BA177">
+        <v>0.034661346857115</v>
+      </c>
+      <c r="BB177">
+        <v>0.028538017095825</v>
+      </c>
+      <c r="BC177">
+        <v>0.026296350361398</v>
+      </c>
+      <c r="BD177">
+        <v>0.028105772692608</v>
+      </c>
+      <c r="BE177">
+        <v>0.031819775000278</v>
+      </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:57">
       <c r="A178" t="s">
         <v>232</v>
       </c>
+      <c r="B178">
+        <v>0.036050003821567</v>
+      </c>
+      <c r="C178">
+        <v>0.018023933336497</v>
+      </c>
+      <c r="D178">
+        <v>0.018920216676742</v>
+      </c>
+      <c r="F178">
+        <v>0.024339473877494</v>
+      </c>
+      <c r="G178">
+        <v>0.02938328935588</v>
+      </c>
+      <c r="H178">
+        <v>0.032037362581411</v>
+      </c>
+      <c r="I178">
+        <v>0.030092181945227</v>
+      </c>
+      <c r="J178">
+        <v>0.043752455333295</v>
+      </c>
+      <c r="K178">
+        <v>0.028613568666435</v>
+      </c>
+      <c r="L178">
+        <v>0.023833522474637</v>
+      </c>
+      <c r="M178">
+        <v>0.021177042660634</v>
+      </c>
+      <c r="N178">
+        <v>0.054700747152757</v>
+      </c>
+      <c r="O178">
+        <v>0.025260965755545</v>
+      </c>
+      <c r="P178">
+        <v>0.02299763632768</v>
+      </c>
+      <c r="Q178">
+        <v>0.032614356843872</v>
+      </c>
+      <c r="R178">
+        <v>0.027914174042125</v>
+      </c>
+      <c r="S178">
+        <v>0.023823343829689</v>
+      </c>
+      <c r="T178">
+        <v>0.023169350997517</v>
+      </c>
+      <c r="U178">
+        <v>0.023337159505599</v>
+      </c>
+      <c r="V178">
+        <v>0.026622058663816</v>
+      </c>
+      <c r="W178">
+        <v>0.034385430286524</v>
+      </c>
+      <c r="X178">
+        <v>0.02680507557297</v>
+      </c>
+      <c r="Y178">
+        <v>0.032951440180942</v>
+      </c>
+      <c r="Z178">
+        <v>0.030401920608422</v>
+      </c>
+      <c r="AA178">
+        <v>0.027495576799445</v>
+      </c>
+      <c r="AB178">
+        <v>0.026843393688245</v>
+      </c>
+      <c r="AC178">
+        <v>0.07005538964647499</v>
+      </c>
+      <c r="AD178">
+        <v>0.024093818787841</v>
+      </c>
+      <c r="AE178">
+        <v>0.039286530700321</v>
+      </c>
+      <c r="AF178">
+        <v>0.02049261150991</v>
+      </c>
+      <c r="AG178">
+        <v>0.024540500113758</v>
+      </c>
+      <c r="AH178">
+        <v>0.025789782466348</v>
+      </c>
+      <c r="AI178">
+        <v>0.028272337249378</v>
+      </c>
+      <c r="AJ178">
+        <v>0.02697832359075</v>
+      </c>
+      <c r="AK178">
+        <v>0.03520501354851</v>
+      </c>
+      <c r="AL178">
+        <v>0.030393853472777</v>
+      </c>
+      <c r="AM178">
+        <v>0.031810089641761</v>
+      </c>
+      <c r="AN178">
+        <v>0.024845823340054</v>
+      </c>
+      <c r="AO178">
+        <v>0.021900954843017</v>
+      </c>
+      <c r="AP178">
+        <v>0.028584674349292</v>
+      </c>
+      <c r="AQ178">
+        <v>0.028570106476718</v>
+      </c>
+      <c r="AR178">
+        <v>0.046260876984708</v>
+      </c>
+      <c r="AS178">
+        <v>0.032943983946783</v>
+      </c>
+      <c r="AT178">
+        <v>0.022743933993224</v>
+      </c>
+      <c r="AU178">
+        <v>0.026932338353072</v>
+      </c>
+      <c r="AV178">
+        <v>0.021771180720825</v>
+      </c>
+      <c r="AW178">
+        <v>0.020682122153164</v>
+      </c>
+      <c r="AX178">
+        <v>0.027634492211625</v>
+      </c>
+      <c r="AY178">
+        <v>0.024301641569141</v>
+      </c>
+      <c r="AZ178">
+        <v>0.059658118803643</v>
+      </c>
+      <c r="BA178">
+        <v>0.033794235075379</v>
+      </c>
+      <c r="BB178">
+        <v>0.026879692818975</v>
+      </c>
+      <c r="BC178">
+        <v>0.024762077188928</v>
+      </c>
+      <c r="BD178">
+        <v>0.027640770541847</v>
+      </c>
+      <c r="BE178">
+        <v>0.030942123953778</v>
+      </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:57">
       <c r="A179" t="s">
         <v>233</v>
+      </c>
+      <c r="B179">
+        <v>0.039564580030658</v>
+      </c>
+      <c r="C179">
+        <v>0.043213204599674</v>
+      </c>
+      <c r="D179">
+        <v>0.044375661952178</v>
+      </c>
+      <c r="F179">
+        <v>0.035364113963308</v>
+      </c>
+      <c r="G179">
+        <v>0.052258023250702</v>
+      </c>
+      <c r="H179">
+        <v>0.049003108359669</v>
+      </c>
+      <c r="I179">
+        <v>0.044653312450858</v>
+      </c>
+      <c r="J179">
+        <v>0.042667582213875</v>
+      </c>
+      <c r="K179">
+        <v>0.043628583174138</v>
+      </c>
+      <c r="L179">
+        <v>0.044356999352694</v>
+      </c>
+      <c r="M179">
+        <v>0.046857418819488</v>
+      </c>
+      <c r="N179">
+        <v>0.054917305644429</v>
+      </c>
+      <c r="O179">
+        <v>0.026541075157772</v>
+      </c>
+      <c r="P179">
+        <v>0.049452539923176</v>
+      </c>
+      <c r="Q179">
+        <v>0.049475810489639</v>
+      </c>
+      <c r="R179">
+        <v>0.044007802825126</v>
+      </c>
+      <c r="S179">
+        <v>0.047685740708043</v>
+      </c>
+      <c r="T179">
+        <v>0.050188441214215</v>
+      </c>
+      <c r="U179">
+        <v>0.051117309076823</v>
+      </c>
+      <c r="V179">
+        <v>0.060336511832787</v>
+      </c>
+      <c r="W179">
+        <v>0.060019254911688</v>
+      </c>
+      <c r="X179">
+        <v>0.053470153144535</v>
+      </c>
+      <c r="Y179">
+        <v>0.057835392806093</v>
+      </c>
+      <c r="Z179">
+        <v>0.057947938562323</v>
+      </c>
+      <c r="AA179">
+        <v>0.051105608350372</v>
+      </c>
+      <c r="AB179">
+        <v>0.055692319437979</v>
+      </c>
+      <c r="AC179">
+        <v>0.071355530287096</v>
+      </c>
+      <c r="AD179">
+        <v>0.058874785614337</v>
+      </c>
+      <c r="AE179">
+        <v>0.061564452070488</v>
+      </c>
+      <c r="AF179">
+        <v>0.051089341292305</v>
+      </c>
+      <c r="AG179">
+        <v>0.051861321151472</v>
+      </c>
+      <c r="AH179">
+        <v>0.054904454701756</v>
+      </c>
+      <c r="AI179">
+        <v>0.053982725835049</v>
+      </c>
+      <c r="AJ179">
+        <v>0.049571949597254</v>
+      </c>
+      <c r="AK179">
+        <v>0.055193970101106</v>
+      </c>
+      <c r="AL179">
+        <v>0.049090297901878</v>
+      </c>
+      <c r="AM179">
+        <v>0.054721294674032</v>
+      </c>
+      <c r="AN179">
+        <v>0.050696267354976</v>
+      </c>
+      <c r="AO179">
+        <v>0.048671501335279</v>
+      </c>
+      <c r="AP179">
+        <v>0.044646927339478</v>
+      </c>
+      <c r="AQ179">
+        <v>0.047379783473209</v>
+      </c>
+      <c r="AR179">
+        <v>0.058036520237188</v>
+      </c>
+      <c r="AS179">
+        <v>0.0476470713948</v>
+      </c>
+      <c r="AT179">
+        <v>0.047602158449776</v>
+      </c>
+      <c r="AU179">
+        <v>0.05001750452152</v>
+      </c>
+      <c r="AV179">
+        <v>0.04578453680408</v>
+      </c>
+      <c r="AW179">
+        <v>0.040376452503467</v>
+      </c>
+      <c r="AX179">
+        <v>0.051904983373744</v>
+      </c>
+      <c r="AY179">
+        <v>0.044707761020913</v>
+      </c>
+      <c r="AZ179">
+        <v>0.067887278093581</v>
+      </c>
+      <c r="BA179">
+        <v>0.050009224764348</v>
+      </c>
+      <c r="BB179">
+        <v>0.041908220913881</v>
+      </c>
+      <c r="BC179">
+        <v>0.050050642215186</v>
+      </c>
+      <c r="BD179">
+        <v>0.051277730776551</v>
+      </c>
+      <c r="BE179">
+        <v>0.049106956044045</v>
+      </c>
+    </row>
+    <row r="180" spans="1:57">
+      <c r="A180" t="s">
+        <v>234</v>
+      </c>
+      <c r="B180">
+        <v>0.043363661707538</v>
+      </c>
+      <c r="C180">
+        <v>0.050989527386999</v>
+      </c>
+      <c r="D180">
+        <v>0.050286677103169</v>
+      </c>
+      <c r="F180">
+        <v>0.037261762425409</v>
+      </c>
+      <c r="G180">
+        <v>0.046412183074989</v>
+      </c>
+      <c r="H180">
+        <v>0.046226175058619</v>
+      </c>
+      <c r="I180">
+        <v>0.04351205373358</v>
+      </c>
+      <c r="J180">
+        <v>0.046378292584568</v>
+      </c>
+      <c r="K180">
+        <v>0.045337956250126</v>
+      </c>
+      <c r="L180">
+        <v>0.048373429045671</v>
+      </c>
+      <c r="M180">
+        <v>0.049966541539105</v>
+      </c>
+      <c r="N180">
+        <v>0.07170200308501599</v>
+      </c>
+      <c r="O180">
+        <v>0.030688802659575</v>
+      </c>
+      <c r="P180">
+        <v>0.046675330920193</v>
+      </c>
+      <c r="Q180">
+        <v>0.056337944678494</v>
+      </c>
+      <c r="R180">
+        <v>0.047956381619118</v>
+      </c>
+      <c r="S180">
+        <v>0.047869690945788</v>
+      </c>
+      <c r="T180">
+        <v>0.046231201580142</v>
+      </c>
+      <c r="U180">
+        <v>0.046716882959054</v>
+      </c>
+      <c r="V180">
+        <v>0.05315872335179</v>
+      </c>
+      <c r="W180">
+        <v>0.049300362598631</v>
+      </c>
+      <c r="X180">
+        <v>0.045088520773175</v>
+      </c>
+      <c r="Y180">
+        <v>0.049440259001025</v>
+      </c>
+      <c r="Z180">
+        <v>0.052235880804536</v>
+      </c>
+      <c r="AA180">
+        <v>0.051867632490124</v>
+      </c>
+      <c r="AB180">
+        <v>0.057204006022722</v>
+      </c>
+      <c r="AC180">
+        <v>0.084782758335804</v>
+      </c>
+      <c r="AD180">
+        <v>0.057332000553868</v>
+      </c>
+      <c r="AE180">
+        <v>0.059957788411354</v>
+      </c>
+      <c r="AF180">
+        <v>0.045711260436432</v>
+      </c>
+      <c r="AG180">
+        <v>0.042310135409287</v>
+      </c>
+      <c r="AH180">
+        <v>0.0532359553538</v>
+      </c>
+      <c r="AI180">
+        <v>0.051189349867456</v>
+      </c>
+      <c r="AJ180">
+        <v>0.049338678348375</v>
+      </c>
+      <c r="AK180">
+        <v>0.051001261236296</v>
+      </c>
+      <c r="AL180">
+        <v>0.049628378133909</v>
+      </c>
+      <c r="AM180">
+        <v>0.047527938200684</v>
+      </c>
+      <c r="AN180">
+        <v>0.046075334558649</v>
+      </c>
+      <c r="AO180">
+        <v>0.049096829256223</v>
+      </c>
+      <c r="AP180">
+        <v>0.045037630097798</v>
+      </c>
+      <c r="AQ180">
+        <v>0.04807701757298</v>
+      </c>
+      <c r="AR180">
+        <v>0.049919046203114</v>
+      </c>
+      <c r="AS180">
+        <v>0.050998644029401</v>
+      </c>
+      <c r="AT180">
+        <v>0.051727279340143</v>
+      </c>
+      <c r="AU180">
+        <v>0.053875090947118</v>
+      </c>
+      <c r="AV180">
+        <v>0.051064171347468</v>
+      </c>
+      <c r="AW180">
+        <v>0.045139291115868</v>
+      </c>
+      <c r="AX180">
+        <v>0.057994946455501</v>
+      </c>
+      <c r="AY180">
+        <v>0.046667703114849</v>
+      </c>
+      <c r="AZ180">
+        <v>0.060444640671374</v>
+      </c>
+      <c r="BA180">
+        <v>0.053219020863626</v>
+      </c>
+      <c r="BB180">
+        <v>0.043640696492898</v>
+      </c>
+      <c r="BC180">
+        <v>0.049385762856516</v>
+      </c>
+      <c r="BD180">
+        <v>0.050933568755808</v>
+      </c>
+      <c r="BE180">
+        <v>0.04860442307132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:57">
+      <c r="A181" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181">
+        <v>0.052525170126392</v>
+      </c>
+      <c r="C181">
+        <v>0.059990532848092</v>
+      </c>
+      <c r="D181">
+        <v>0.05144448080588</v>
+      </c>
+      <c r="F181">
+        <v>0.045959388977266</v>
+      </c>
+      <c r="G181">
+        <v>0.044581654948929</v>
+      </c>
+      <c r="H181">
+        <v>0.04533786294795</v>
+      </c>
+      <c r="I181">
+        <v>0.041028957793588</v>
+      </c>
+      <c r="J181">
+        <v>0.038357865741064</v>
+      </c>
+      <c r="K181">
+        <v>0.041681474391005</v>
+      </c>
+      <c r="L181">
+        <v>0.043285652234972</v>
+      </c>
+      <c r="M181">
+        <v>0.046983704089942</v>
+      </c>
+      <c r="N181">
+        <v>0.0546752187941</v>
+      </c>
+      <c r="O181">
+        <v>0.030536473264647</v>
+      </c>
+      <c r="P181">
+        <v>0.05533545120492</v>
+      </c>
+      <c r="Q181">
+        <v>0.051047528783735</v>
+      </c>
+      <c r="R181">
+        <v>0.048734218644303</v>
+      </c>
+      <c r="S181">
+        <v>0.054908357637561</v>
+      </c>
+      <c r="T181">
+        <v>0.05343903184276</v>
+      </c>
+      <c r="U181">
+        <v>0.0532863477605</v>
+      </c>
+      <c r="V181">
+        <v>0.058766306037295</v>
+      </c>
+      <c r="W181">
+        <v>0.051213165558268</v>
+      </c>
+      <c r="X181">
+        <v>0.047864515724242</v>
+      </c>
+      <c r="Y181">
+        <v>0.053729029793938</v>
+      </c>
+      <c r="Z181">
+        <v>0.051267387528332</v>
+      </c>
+      <c r="AA181">
+        <v>0.04845774060336</v>
+      </c>
+      <c r="AB181">
+        <v>0.053793393710538</v>
+      </c>
+      <c r="AC181">
+        <v>0.06873220476415701</v>
+      </c>
+      <c r="AD181">
+        <v>0.055066582994267</v>
+      </c>
+      <c r="AE181">
+        <v>0.05809327949582</v>
+      </c>
+      <c r="AF181">
+        <v>0.045694966036984</v>
+      </c>
+      <c r="AG181">
+        <v>0.044521502932748</v>
+      </c>
+      <c r="AH181">
+        <v>0.050451644142768</v>
+      </c>
+      <c r="AI181">
+        <v>0.049861498832807</v>
+      </c>
+      <c r="AJ181">
+        <v>0.048344447877737</v>
+      </c>
+      <c r="AK181">
+        <v>0.048612068253743</v>
+      </c>
+      <c r="AL181">
+        <v>0.047267615127741</v>
+      </c>
+      <c r="AM181">
+        <v>0.048209162641116</v>
+      </c>
+      <c r="AN181">
+        <v>0.044359783985308</v>
+      </c>
+      <c r="AO181">
+        <v>0.046214003373124</v>
+      </c>
+      <c r="AP181">
+        <v>0.041578350140171</v>
+      </c>
+      <c r="AQ181">
+        <v>0.043321236158446</v>
+      </c>
+      <c r="AR181">
+        <v>0.051979486274422</v>
+      </c>
+      <c r="AS181">
+        <v>0.044961360634936</v>
+      </c>
+      <c r="AT181">
+        <v>0.046979652278773</v>
+      </c>
+      <c r="AU181">
+        <v>0.045497180152189</v>
+      </c>
+      <c r="AV181">
+        <v>0.045576816238243</v>
+      </c>
+      <c r="AW181">
+        <v>0.04076205955696</v>
+      </c>
+      <c r="AX181">
+        <v>0.051835765117061</v>
+      </c>
+      <c r="AY181">
+        <v>0.04426154133128</v>
+      </c>
+      <c r="AZ181">
+        <v>0.056823931836321</v>
+      </c>
+      <c r="BA181">
+        <v>0.047299171323817</v>
+      </c>
+      <c r="BB181">
+        <v>0.042616185164159</v>
+      </c>
+      <c r="BC181">
+        <v>0.047924223813607</v>
+      </c>
+      <c r="BD181">
+        <v>0.048533133567549</v>
+      </c>
+      <c r="BE181">
+        <v>0.045540479533614</v>
+      </c>
+    </row>
+    <row r="182" spans="1:57">
+      <c r="A182" t="s">
+        <v>236</v>
+      </c>
+      <c r="B182">
+        <v>0.06688592941068899</v>
+      </c>
+      <c r="C182">
+        <v>0.068274894586109</v>
+      </c>
+      <c r="D182">
+        <v>0.052570348330042</v>
+      </c>
+      <c r="F182">
+        <v>0.052632413014677</v>
+      </c>
+      <c r="G182">
+        <v>0.045290956034566</v>
+      </c>
+      <c r="H182">
+        <v>0.053355507934645</v>
+      </c>
+      <c r="I182">
+        <v>0.049353080206795</v>
+      </c>
+      <c r="J182">
+        <v>0.04455945406084</v>
+      </c>
+      <c r="K182">
+        <v>0.046645867701711</v>
+      </c>
+      <c r="L182">
+        <v>0.047396758407755</v>
+      </c>
+      <c r="M182">
+        <v>0.04639598801804</v>
+      </c>
+      <c r="N182">
+        <v>0.082000709212047</v>
+      </c>
+      <c r="O182">
+        <v>0.030153778314855</v>
+      </c>
+      <c r="P182">
+        <v>0.043964221811343</v>
+      </c>
+      <c r="Q182">
+        <v>0.046791389899107</v>
+      </c>
+      <c r="R182">
+        <v>0.040454667308993</v>
+      </c>
+      <c r="S182">
+        <v>0.044272102692743</v>
+      </c>
+      <c r="T182">
+        <v>0.04436173824871</v>
+      </c>
+      <c r="U182">
+        <v>0.045626750834092</v>
+      </c>
+      <c r="V182">
+        <v>0.052399064397988</v>
+      </c>
+      <c r="W182">
+        <v>0.047159291654925</v>
+      </c>
+      <c r="X182">
+        <v>0.043531101024396</v>
+      </c>
+      <c r="Y182">
+        <v>0.049035575833972</v>
+      </c>
+      <c r="Z182">
+        <v>0.045746133981162</v>
+      </c>
+      <c r="AA182">
+        <v>0.041276071414673</v>
+      </c>
+      <c r="AB182">
+        <v>0.04468717330801</v>
+      </c>
+      <c r="AC182">
+        <v>0.091911044764206</v>
+      </c>
+      <c r="AD182">
+        <v>0.047585345792042</v>
+      </c>
+      <c r="AE182">
+        <v>0.051161822923158</v>
+      </c>
+      <c r="AF182">
+        <v>0.043556011529141</v>
+      </c>
+      <c r="AG182">
+        <v>0.044097547780129</v>
+      </c>
+      <c r="AH182">
+        <v>0.042401342987121</v>
+      </c>
+      <c r="AI182">
+        <v>0.042249920773843</v>
+      </c>
+      <c r="AJ182">
+        <v>0.040331529939384</v>
+      </c>
+      <c r="AK182">
+        <v>0.042858787925913</v>
+      </c>
+      <c r="AL182">
+        <v>0.039815548672215</v>
+      </c>
+      <c r="AM182">
+        <v>0.043775005019436</v>
+      </c>
+      <c r="AN182">
+        <v>0.044840399882191</v>
+      </c>
+      <c r="AO182">
+        <v>0.046522324287066</v>
+      </c>
+      <c r="AP182">
+        <v>0.045702275469963</v>
+      </c>
+      <c r="AQ182">
+        <v>0.048774434023181</v>
+      </c>
+      <c r="AR182">
+        <v>0.052271220469429</v>
+      </c>
+      <c r="AS182">
+        <v>0.05324397456058</v>
+      </c>
+      <c r="AT182">
+        <v>0.051416304203781</v>
+      </c>
+      <c r="AU182">
+        <v>0.055463750029322</v>
+      </c>
+      <c r="AV182">
+        <v>0.051794772761464</v>
+      </c>
+      <c r="AW182">
+        <v>0.046399574833361</v>
+      </c>
+      <c r="AX182">
+        <v>0.056331333967164</v>
+      </c>
+      <c r="AY182">
+        <v>0.047954530773138</v>
+      </c>
+      <c r="AZ182">
+        <v>0.057822735241274</v>
+      </c>
+      <c r="BA182">
+        <v>0.053452765994688</v>
+      </c>
+      <c r="BB182">
+        <v>0.04556114523889</v>
+      </c>
+      <c r="BC182">
+        <v>0.04880754307978</v>
+      </c>
+      <c r="BD182">
+        <v>0.051519833337021</v>
+      </c>
+      <c r="BE182">
+        <v>0.047126482190488</v>
+      </c>
+    </row>
+    <row r="183" spans="1:57">
+      <c r="A183" t="s">
+        <v>237</v>
+      </c>
+      <c r="B183">
+        <v>0.06584979690463801</v>
+      </c>
+      <c r="C183">
+        <v>0.04920263672683</v>
+      </c>
+      <c r="D183">
+        <v>0.044481149942806</v>
+      </c>
+      <c r="F183">
+        <v>0.051417312808455</v>
+      </c>
+      <c r="G183">
+        <v>0.041124929249294</v>
+      </c>
+      <c r="H183">
+        <v>0.045447478430841</v>
+      </c>
+      <c r="I183">
+        <v>0.04142767076872</v>
+      </c>
+      <c r="J183">
+        <v>0.042184677869786</v>
+      </c>
+      <c r="K183">
+        <v>0.039310137283127</v>
+      </c>
+      <c r="L183">
+        <v>0.0398198295083</v>
+      </c>
+      <c r="M183">
+        <v>0.041108062879682</v>
+      </c>
+      <c r="N183">
+        <v>0.07170954205457</v>
+      </c>
+      <c r="O183">
+        <v>0.031209104201072</v>
+      </c>
+      <c r="P183">
+        <v>0.040344931957366</v>
+      </c>
+      <c r="Q183">
+        <v>0.045532055896853</v>
+      </c>
+      <c r="R183">
+        <v>0.041303408073858</v>
+      </c>
+      <c r="S183">
+        <v>0.041453690447406</v>
+      </c>
+      <c r="T183">
+        <v>0.040342316935129</v>
+      </c>
+      <c r="U183">
+        <v>0.040853149992303</v>
+      </c>
+      <c r="V183">
+        <v>0.046008939691372</v>
+      </c>
+      <c r="W183">
+        <v>0.044663983920018</v>
+      </c>
+      <c r="X183">
+        <v>0.040276639884496</v>
+      </c>
+      <c r="Y183">
+        <v>0.045087869501428</v>
+      </c>
+      <c r="Z183">
+        <v>0.043882770723342</v>
+      </c>
+      <c r="AA183">
+        <v>0.039917168697183</v>
+      </c>
+      <c r="AB183">
+        <v>0.045998435470853</v>
+      </c>
+      <c r="AC183">
+        <v>0.076914516869629</v>
+      </c>
+      <c r="AD183">
+        <v>0.045945940845445</v>
+      </c>
+      <c r="AE183">
+        <v>0.050397799336605</v>
+      </c>
+      <c r="AF183">
+        <v>0.039688587712956</v>
+      </c>
+      <c r="AG183">
+        <v>0.038806013133965</v>
+      </c>
+      <c r="AH183">
+        <v>0.04464488988371</v>
+      </c>
+      <c r="AI183">
+        <v>0.043734101140082</v>
+      </c>
+      <c r="AJ183">
+        <v>0.041355101095275</v>
+      </c>
+      <c r="AK183">
+        <v>0.044798881782351</v>
+      </c>
+      <c r="AL183">
+        <v>0.043723333635468</v>
+      </c>
+      <c r="AM183">
+        <v>0.043184333482913</v>
+      </c>
+      <c r="AN183">
+        <v>0.041205811727355</v>
+      </c>
+      <c r="AO183">
+        <v>0.039865199837938</v>
+      </c>
+      <c r="AP183">
+        <v>0.039912492781393</v>
+      </c>
+      <c r="AQ183">
+        <v>0.041554814486196</v>
+      </c>
+      <c r="AR183">
+        <v>0.056057254868363</v>
+      </c>
+      <c r="AS183">
+        <v>0.044165222216392</v>
+      </c>
+      <c r="AT183">
+        <v>0.038576976034861</v>
+      </c>
+      <c r="AU183">
+        <v>0.043223167356822</v>
+      </c>
+      <c r="AV183">
+        <v>0.041813570048782</v>
+      </c>
+      <c r="AW183">
+        <v>0.036663394680457</v>
+      </c>
+      <c r="AX183">
+        <v>0.049400919978311</v>
+      </c>
+      <c r="AY183">
+        <v>0.038622617422512</v>
+      </c>
+      <c r="AZ183">
+        <v>0.056513654709888</v>
+      </c>
+      <c r="BA183">
+        <v>0.046344391091</v>
+      </c>
+      <c r="BB183">
+        <v>0.037900040111975</v>
+      </c>
+      <c r="BC183">
+        <v>0.039410577223539</v>
+      </c>
+      <c r="BD183">
+        <v>0.041379950631938</v>
+      </c>
+      <c r="BE183">
+        <v>0.041571706136352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:57">
+      <c r="A184" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" spans="1:57">
+      <c r="A185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:57">
+      <c r="A186" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:57">
+      <c r="A187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:57">
+      <c r="A188" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Alaska</t>
   </si>
@@ -744,6 +744,21 @@
   <si>
     <t>05 08 2020</t>
   </si>
+  <si>
+    <t>06 08 2020</t>
+  </si>
+  <si>
+    <t>07 08 2020</t>
+  </si>
+  <si>
+    <t>08 08 2020</t>
+  </si>
+  <si>
+    <t>09 08 2020</t>
+  </si>
+  <si>
+    <t>10 08 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1074,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE188"/>
+  <dimension ref="A1:BE193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16487,6 +16502,9 @@
       <c r="D90">
         <v>0.040844688363135</v>
       </c>
+      <c r="E90">
+        <v>0.11762681762682</v>
+      </c>
       <c r="F90">
         <v>0.037304573647504</v>
       </c>
@@ -16657,6 +16675,9 @@
       <c r="D91">
         <v>0.041709766364316</v>
       </c>
+      <c r="E91">
+        <v>0.12646103896104</v>
+      </c>
       <c r="F91">
         <v>0.0424614184425</v>
       </c>
@@ -16827,6 +16848,9 @@
       <c r="D92">
         <v>0.031260177898318</v>
       </c>
+      <c r="E92">
+        <v>0.13155363155363</v>
+      </c>
       <c r="F92">
         <v>0.029401413384483</v>
       </c>
@@ -16997,6 +17021,9 @@
       <c r="D93">
         <v>0.026395011206625</v>
       </c>
+      <c r="E93">
+        <v>0.11111111111111</v>
+      </c>
       <c r="F93">
         <v>0.03284137848017</v>
       </c>
@@ -17167,6 +17194,9 @@
       <c r="D94">
         <v>0.021811781426494</v>
       </c>
+      <c r="E94">
+        <v>0.11825396825397</v>
+      </c>
       <c r="F94">
         <v>0.025433106433469</v>
       </c>
@@ -32458,25 +32488,875 @@
       <c r="A184" t="s">
         <v>238</v>
       </c>
+      <c r="B184">
+        <v>0.05236894125691</v>
+      </c>
+      <c r="C184">
+        <v>0.027296820263775</v>
+      </c>
+      <c r="D184">
+        <v>0.023707883202681</v>
+      </c>
+      <c r="F184">
+        <v>0.035251877167344</v>
+      </c>
+      <c r="G184">
+        <v>0.029524414628486</v>
+      </c>
+      <c r="H184">
+        <v>0.031689652957092</v>
+      </c>
+      <c r="I184">
+        <v>0.028404419992739</v>
+      </c>
+      <c r="J184">
+        <v>0.040242198681735</v>
+      </c>
+      <c r="K184">
+        <v>0.027127422245024</v>
+      </c>
+      <c r="L184">
+        <v>0.025647258870375</v>
+      </c>
+      <c r="M184">
+        <v>0.023404295448173</v>
+      </c>
+      <c r="N184">
+        <v>0.051012584614222</v>
+      </c>
+      <c r="O184">
+        <v>0.022187693039031</v>
+      </c>
+      <c r="P184">
+        <v>0.022104335057325</v>
+      </c>
+      <c r="Q184">
+        <v>0.030570597412681</v>
+      </c>
+      <c r="R184">
+        <v>0.025844844580634</v>
+      </c>
+      <c r="S184">
+        <v>0.022145672993655</v>
+      </c>
+      <c r="T184">
+        <v>0.0219444344051</v>
+      </c>
+      <c r="U184">
+        <v>0.021626940012233</v>
+      </c>
+      <c r="V184">
+        <v>0.025950580008197</v>
+      </c>
+      <c r="W184">
+        <v>0.032314647521774</v>
+      </c>
+      <c r="X184">
+        <v>0.02493575273284</v>
+      </c>
+      <c r="Y184">
+        <v>0.028810480048201</v>
+      </c>
+      <c r="Z184">
+        <v>0.029448289572038</v>
+      </c>
+      <c r="AA184">
+        <v>0.02674208436212</v>
+      </c>
+      <c r="AB184">
+        <v>0.025943413737761</v>
+      </c>
+      <c r="AC184">
+        <v>0.072089842336078</v>
+      </c>
+      <c r="AD184">
+        <v>0.025454921578072</v>
+      </c>
+      <c r="AE184">
+        <v>0.038681672315368</v>
+      </c>
+      <c r="AF184">
+        <v>0.024686759002406</v>
+      </c>
+      <c r="AG184">
+        <v>0.028495888883199</v>
+      </c>
+      <c r="AH184">
+        <v>0.027390050852909</v>
+      </c>
+      <c r="AI184">
+        <v>0.028931902665337</v>
+      </c>
+      <c r="AJ184">
+        <v>0.029333685864008</v>
+      </c>
+      <c r="AK184">
+        <v>0.03832693941528</v>
+      </c>
+      <c r="AL184">
+        <v>0.031691278068148</v>
+      </c>
+      <c r="AM184">
+        <v>0.03552089782811</v>
+      </c>
+      <c r="AN184">
+        <v>0.027051858377798</v>
+      </c>
+      <c r="AO184">
+        <v>0.023920706178092</v>
+      </c>
+      <c r="AP184">
+        <v>0.029094975030333</v>
+      </c>
+      <c r="AQ184">
+        <v>0.028959594587441</v>
+      </c>
+      <c r="AR184">
+        <v>0.061677299532058</v>
+      </c>
+      <c r="AS184">
+        <v>0.034541327023524</v>
+      </c>
+      <c r="AT184">
+        <v>0.024866913221975</v>
+      </c>
+      <c r="AU184">
+        <v>0.028964315749178</v>
+      </c>
+      <c r="AV184">
+        <v>0.023905930422732</v>
+      </c>
+      <c r="AW184">
+        <v>0.023019080346051</v>
+      </c>
+      <c r="AX184">
+        <v>0.029369627775427</v>
+      </c>
+      <c r="AY184">
+        <v>0.023130893472645</v>
+      </c>
+      <c r="AZ184">
+        <v>0.054284537967376</v>
+      </c>
+      <c r="BA184">
+        <v>0.032329148349437</v>
+      </c>
+      <c r="BB184">
+        <v>0.024987811164242</v>
+      </c>
+      <c r="BC184">
+        <v>0.023330206607692</v>
+      </c>
+      <c r="BD184">
+        <v>0.024701901418871</v>
+      </c>
+      <c r="BE184">
+        <v>0.026808160556592</v>
+      </c>
     </row>
     <row r="185" spans="1:57">
       <c r="A185" t="s">
         <v>239</v>
       </c>
+      <c r="B185">
+        <v>0.036108811242657</v>
+      </c>
+      <c r="C185">
+        <v>0.01924870504288</v>
+      </c>
+      <c r="D185">
+        <v>0.032627958971089</v>
+      </c>
+      <c r="F185">
+        <v>0.033328141674001</v>
+      </c>
+      <c r="G185">
+        <v>0.042117049413847</v>
+      </c>
+      <c r="H185">
+        <v>0.028291681467377</v>
+      </c>
+      <c r="I185">
+        <v>0.022796971002466</v>
+      </c>
+      <c r="J185">
+        <v>0.032325367121722</v>
+      </c>
+      <c r="K185">
+        <v>0.021222858422007</v>
+      </c>
+      <c r="L185">
+        <v>0.017844892118754</v>
+      </c>
+      <c r="M185">
+        <v>0.01671571619194</v>
+      </c>
+      <c r="N185">
+        <v>0.055785477316229</v>
+      </c>
+      <c r="O185">
+        <v>0.020856311701279</v>
+      </c>
+      <c r="P185">
+        <v>0.023141886180335</v>
+      </c>
+      <c r="Q185">
+        <v>0.025043047508718</v>
+      </c>
+      <c r="R185">
+        <v>0.022974036243869</v>
+      </c>
+      <c r="S185">
+        <v>0.021748152830385</v>
+      </c>
+      <c r="T185">
+        <v>0.024207523809012</v>
+      </c>
+      <c r="U185">
+        <v>0.024267006473062</v>
+      </c>
+      <c r="V185">
+        <v>0.029470781368128</v>
+      </c>
+      <c r="W185">
+        <v>0.034933952085989</v>
+      </c>
+      <c r="X185">
+        <v>0.029213702345996</v>
+      </c>
+      <c r="Y185">
+        <v>0.034465594597767</v>
+      </c>
+      <c r="Z185">
+        <v>0.028439041001512</v>
+      </c>
+      <c r="AA185">
+        <v>0.025063936350384</v>
+      </c>
+      <c r="AB185">
+        <v>0.022465067929249</v>
+      </c>
+      <c r="AC185">
+        <v>0.069819804257756</v>
+      </c>
+      <c r="AD185">
+        <v>0.02184072948115</v>
+      </c>
+      <c r="AE185">
+        <v>0.032782936453231</v>
+      </c>
+      <c r="AF185">
+        <v>0.021960030010419</v>
+      </c>
+      <c r="AG185">
+        <v>0.025291584947085</v>
+      </c>
+      <c r="AH185">
+        <v>0.023319425307389</v>
+      </c>
+      <c r="AI185">
+        <v>0.02540085332594</v>
+      </c>
+      <c r="AJ185">
+        <v>0.025446986378121</v>
+      </c>
+      <c r="AK185">
+        <v>0.035591063573775</v>
+      </c>
+      <c r="AL185">
+        <v>0.026893030055301</v>
+      </c>
+      <c r="AM185">
+        <v>0.03401947774191</v>
+      </c>
+      <c r="AN185">
+        <v>0.024575892557192</v>
+      </c>
+      <c r="AO185">
+        <v>0.021074732766132</v>
+      </c>
+      <c r="AP185">
+        <v>0.025382180084329</v>
+      </c>
+      <c r="AQ185">
+        <v>0.024992476532166</v>
+      </c>
+      <c r="AR185">
+        <v>0.065342833350522</v>
+      </c>
+      <c r="AS185">
+        <v>0.027613929365035</v>
+      </c>
+      <c r="AT185">
+        <v>0.020176938772928</v>
+      </c>
+      <c r="AU185">
+        <v>0.024190826617114</v>
+      </c>
+      <c r="AV185">
+        <v>0.019883156807217</v>
+      </c>
+      <c r="AW185">
+        <v>0.02047482220067</v>
+      </c>
+      <c r="AX185">
+        <v>0.026270553057887</v>
+      </c>
+      <c r="AY185">
+        <v>0.023372690200667</v>
+      </c>
+      <c r="AZ185">
+        <v>0.064196083881365</v>
+      </c>
+      <c r="BA185">
+        <v>0.031758675577317</v>
+      </c>
+      <c r="BB185">
+        <v>0.026038195570553</v>
+      </c>
+      <c r="BC185">
+        <v>0.024124474606093</v>
+      </c>
+      <c r="BD185">
+        <v>0.02668518106044</v>
+      </c>
+      <c r="BE185">
+        <v>0.028510268466991</v>
+      </c>
     </row>
     <row r="186" spans="1:57">
       <c r="A186" t="s">
         <v>240</v>
       </c>
+      <c r="B186">
+        <v>0.06617922077982299</v>
+      </c>
+      <c r="C186">
+        <v>0.051435514606237</v>
+      </c>
+      <c r="D186">
+        <v>0.054789881853143</v>
+      </c>
+      <c r="F186">
+        <v>0.052778129826449</v>
+      </c>
+      <c r="G186">
+        <v>0.053361079190811</v>
+      </c>
+      <c r="H186">
+        <v>0.050297996237894</v>
+      </c>
+      <c r="I186">
+        <v>0.044881125997</v>
+      </c>
+      <c r="J186">
+        <v>0.043961589402526</v>
+      </c>
+      <c r="K186">
+        <v>0.044483837753232</v>
+      </c>
+      <c r="L186">
+        <v>0.046056891536807</v>
+      </c>
+      <c r="M186">
+        <v>0.048432083987933</v>
+      </c>
+      <c r="N186">
+        <v>0.080424631595192</v>
+      </c>
+      <c r="O186">
+        <v>0.028280885519004</v>
+      </c>
+      <c r="P186">
+        <v>0.041636114087595</v>
+      </c>
+      <c r="Q186">
+        <v>0.045848795270633</v>
+      </c>
+      <c r="R186">
+        <v>0.038857715629375</v>
+      </c>
+      <c r="S186">
+        <v>0.04195813286358</v>
+      </c>
+      <c r="T186">
+        <v>0.040028208714948</v>
+      </c>
+      <c r="U186">
+        <v>0.04178931108208</v>
+      </c>
+      <c r="V186">
+        <v>0.049013317617789</v>
+      </c>
+      <c r="W186">
+        <v>0.042023594188839</v>
+      </c>
+      <c r="X186">
+        <v>0.039753715307278</v>
+      </c>
+      <c r="Y186">
+        <v>0.041993013383992</v>
+      </c>
+      <c r="Z186">
+        <v>0.044799138350952</v>
+      </c>
+      <c r="AA186">
+        <v>0.044280949507505</v>
+      </c>
+      <c r="AB186">
+        <v>0.051436240615274</v>
+      </c>
+      <c r="AC186">
+        <v>0.082742829013413</v>
+      </c>
+      <c r="AD186">
+        <v>0.054434062255368</v>
+      </c>
+      <c r="AE186">
+        <v>0.055377106854036</v>
+      </c>
+      <c r="AF186">
+        <v>0.0461620828335</v>
+      </c>
+      <c r="AG186">
+        <v>0.045565935670163</v>
+      </c>
+      <c r="AH186">
+        <v>0.050846760072638</v>
+      </c>
+      <c r="AI186">
+        <v>0.050310763068619</v>
+      </c>
+      <c r="AJ186">
+        <v>0.046832544151351</v>
+      </c>
+      <c r="AK186">
+        <v>0.048888377160433</v>
+      </c>
+      <c r="AL186">
+        <v>0.046671084572184</v>
+      </c>
+      <c r="AM186">
+        <v>0.047019639162032</v>
+      </c>
+      <c r="AN186">
+        <v>0.047478597485682</v>
+      </c>
+      <c r="AO186">
+        <v>0.048963505680026</v>
+      </c>
+      <c r="AP186">
+        <v>0.04561320446433</v>
+      </c>
+      <c r="AQ186">
+        <v>0.047270534871523</v>
+      </c>
+      <c r="AR186">
+        <v>0.075926587244494</v>
+      </c>
+      <c r="AS186">
+        <v>0.049864049698483</v>
+      </c>
+      <c r="AT186">
+        <v>0.047495888603687</v>
+      </c>
+      <c r="AU186">
+        <v>0.048287195478809</v>
+      </c>
+      <c r="AV186">
+        <v>0.048641027540853</v>
+      </c>
+      <c r="AW186">
+        <v>0.041777881971538</v>
+      </c>
+      <c r="AX186">
+        <v>0.052504351937442</v>
+      </c>
+      <c r="AY186">
+        <v>0.0436960433466</v>
+      </c>
+      <c r="AZ186">
+        <v>0.08370038473903101</v>
+      </c>
+      <c r="BA186">
+        <v>0.0466021112452</v>
+      </c>
+      <c r="BB186">
+        <v>0.040377403160971</v>
+      </c>
+      <c r="BC186">
+        <v>0.047393313767626</v>
+      </c>
+      <c r="BD186">
+        <v>0.046167392869518</v>
+      </c>
+      <c r="BE186">
+        <v>0.045568076364838</v>
+      </c>
     </row>
     <row r="187" spans="1:57">
       <c r="A187" t="s">
         <v>241</v>
       </c>
+      <c r="B187">
+        <v>0.061739479894878</v>
+      </c>
+      <c r="C187">
+        <v>0.05048680317387</v>
+      </c>
+      <c r="D187">
+        <v>0.051082669591503</v>
+      </c>
+      <c r="F187">
+        <v>0.051170584580203</v>
+      </c>
+      <c r="G187">
+        <v>0.0499043201962</v>
+      </c>
+      <c r="H187">
+        <v>0.051529979194248</v>
+      </c>
+      <c r="I187">
+        <v>0.042302330509041</v>
+      </c>
+      <c r="J187">
+        <v>0.043345888552425</v>
+      </c>
+      <c r="K187">
+        <v>0.038730234790756</v>
+      </c>
+      <c r="L187">
+        <v>0.050278463056559</v>
+      </c>
+      <c r="M187">
+        <v>0.052337469506437</v>
+      </c>
+      <c r="N187">
+        <v>0.05424041180993</v>
+      </c>
+      <c r="O187">
+        <v>0.032372024379864</v>
+      </c>
+      <c r="P187">
+        <v>0.054605993687232</v>
+      </c>
+      <c r="Q187">
+        <v>0.053496766889258</v>
+      </c>
+      <c r="R187">
+        <v>0.048195664216433</v>
+      </c>
+      <c r="S187">
+        <v>0.054869699754222</v>
+      </c>
+      <c r="T187">
+        <v>0.051052363744886</v>
+      </c>
+      <c r="U187">
+        <v>0.052060349549642</v>
+      </c>
+      <c r="V187">
+        <v>0.058446316263342</v>
+      </c>
+      <c r="W187">
+        <v>0.044823857450383</v>
+      </c>
+      <c r="X187">
+        <v>0.040469566831846</v>
+      </c>
+      <c r="Y187">
+        <v>0.04822302852209</v>
+      </c>
+      <c r="Z187">
+        <v>0.044491169314099</v>
+      </c>
+      <c r="AA187">
+        <v>0.042456309770218</v>
+      </c>
+      <c r="AB187">
+        <v>0.049278663432596</v>
+      </c>
+      <c r="AC187">
+        <v>0.069897542774327</v>
+      </c>
+      <c r="AD187">
+        <v>0.053564975857376</v>
+      </c>
+      <c r="AE187">
+        <v>0.054277754060251</v>
+      </c>
+      <c r="AF187">
+        <v>0.045719121309255</v>
+      </c>
+      <c r="AG187">
+        <v>0.049352310025413</v>
+      </c>
+      <c r="AH187">
+        <v>0.048429201703434</v>
+      </c>
+      <c r="AI187">
+        <v>0.046239181265101</v>
+      </c>
+      <c r="AJ187">
+        <v>0.035503229712163</v>
+      </c>
+      <c r="AK187">
+        <v>0.049399782900573</v>
+      </c>
+      <c r="AL187">
+        <v>0.044117588926235</v>
+      </c>
+      <c r="AM187">
+        <v>0.046031109656222</v>
+      </c>
+      <c r="AN187">
+        <v>0.050374109307751</v>
+      </c>
+      <c r="AO187">
+        <v>0.051527766072214</v>
+      </c>
+      <c r="AP187">
+        <v>0.046059731556432</v>
+      </c>
+      <c r="AQ187">
+        <v>0.045104210623362</v>
+      </c>
+      <c r="AR187">
+        <v>0.075373199365838</v>
+      </c>
+      <c r="AS187">
+        <v>0.04533026982912</v>
+      </c>
+      <c r="AT187">
+        <v>0.047980353542917</v>
+      </c>
+      <c r="AU187">
+        <v>0.048454421690499</v>
+      </c>
+      <c r="AV187">
+        <v>0.051034744653065</v>
+      </c>
+      <c r="AW187">
+        <v>0.04358574310825</v>
+      </c>
+      <c r="AX187">
+        <v>0.05552458577094</v>
+      </c>
+      <c r="AY187">
+        <v>0.039616772782713</v>
+      </c>
+      <c r="AZ187">
+        <v>0.075657172511673</v>
+      </c>
+      <c r="BA187">
+        <v>0.050246213599359</v>
+      </c>
+      <c r="BB187">
+        <v>0.042971261139078</v>
+      </c>
+      <c r="BC187">
+        <v>0.046660206993787</v>
+      </c>
+      <c r="BD187">
+        <v>0.049983817076068</v>
+      </c>
+      <c r="BE187">
+        <v>0.04604805183569</v>
+      </c>
     </row>
     <row r="188" spans="1:57">
       <c r="A188" t="s">
         <v>242</v>
+      </c>
+      <c r="B188">
+        <v>0.048411905948143</v>
+      </c>
+      <c r="C188">
+        <v>0.05273512361938</v>
+      </c>
+      <c r="D188">
+        <v>0.045304544090924</v>
+      </c>
+      <c r="F188">
+        <v>0.039899622743965</v>
+      </c>
+      <c r="G188">
+        <v>0.047369273342078</v>
+      </c>
+      <c r="H188">
+        <v>0.051554762613423</v>
+      </c>
+      <c r="I188">
+        <v>0.043118538209497</v>
+      </c>
+      <c r="J188">
+        <v>0.048769779436759</v>
+      </c>
+      <c r="K188">
+        <v>0.045257751787951</v>
+      </c>
+      <c r="L188">
+        <v>0.052320370378101</v>
+      </c>
+      <c r="M188">
+        <v>0.05486187329576</v>
+      </c>
+      <c r="N188">
+        <v>0.054027635964131</v>
+      </c>
+      <c r="O188">
+        <v>0.034035182088718</v>
+      </c>
+      <c r="P188">
+        <v>0.050466896451127</v>
+      </c>
+      <c r="Q188">
+        <v>0.053649840627189</v>
+      </c>
+      <c r="R188">
+        <v>0.045441691448378</v>
+      </c>
+      <c r="S188">
+        <v>0.051892143172501</v>
+      </c>
+      <c r="T188">
+        <v>0.047223206102648</v>
+      </c>
+      <c r="U188">
+        <v>0.049497641541111</v>
+      </c>
+      <c r="V188">
+        <v>0.057181755523456</v>
+      </c>
+      <c r="W188">
+        <v>0.045473213706517</v>
+      </c>
+      <c r="X188">
+        <v>0.044694861151463</v>
+      </c>
+      <c r="Y188">
+        <v>0.048064704411606</v>
+      </c>
+      <c r="Z188">
+        <v>0.045174890946347</v>
+      </c>
+      <c r="AA188">
+        <v>0.041391897309527</v>
+      </c>
+      <c r="AB188">
+        <v>0.04771561135948</v>
+      </c>
+      <c r="AC188">
+        <v>0.070039234811703</v>
+      </c>
+      <c r="AD188">
+        <v>0.05302809835105</v>
+      </c>
+      <c r="AE188">
+        <v>0.053535638280576</v>
+      </c>
+      <c r="AF188">
+        <v>0.051612126992161</v>
+      </c>
+      <c r="AG188">
+        <v>0.051697799740053</v>
+      </c>
+      <c r="AH188">
+        <v>0.048084063232789</v>
+      </c>
+      <c r="AI188">
+        <v>0.046726283648042</v>
+      </c>
+      <c r="AJ188">
+        <v>0.042563417670102</v>
+      </c>
+      <c r="AK188">
+        <v>0.049804262623915</v>
+      </c>
+      <c r="AL188">
+        <v>0.044923055551527</v>
+      </c>
+      <c r="AM188">
+        <v>0.049606905661489</v>
+      </c>
+      <c r="AN188">
+        <v>0.052622079781145</v>
+      </c>
+      <c r="AO188">
+        <v>0.053677055449764</v>
+      </c>
+      <c r="AP188">
+        <v>0.049906018446746</v>
+      </c>
+      <c r="AQ188">
+        <v>0.051651726443984</v>
+      </c>
+      <c r="AR188">
+        <v>0.078131756525274</v>
+      </c>
+      <c r="AS188">
+        <v>0.051393577113784</v>
+      </c>
+      <c r="AT188">
+        <v>0.053274934654203</v>
+      </c>
+      <c r="AU188">
+        <v>0.052745786818004</v>
+      </c>
+      <c r="AV188">
+        <v>0.055376785902723</v>
+      </c>
+      <c r="AW188">
+        <v>0.048953231632517</v>
+      </c>
+      <c r="AX188">
+        <v>0.060898464118539</v>
+      </c>
+      <c r="AY188">
+        <v>0.052214241521135</v>
+      </c>
+      <c r="AZ188">
+        <v>0.08424430430877</v>
+      </c>
+      <c r="BA188">
+        <v>0.05378486453325</v>
+      </c>
+      <c r="BB188">
+        <v>0.047068741204581</v>
+      </c>
+      <c r="BC188">
+        <v>0.052667469824907</v>
+      </c>
+      <c r="BD188">
+        <v>0.054394438434353</v>
+      </c>
+      <c r="BE188">
+        <v>0.050223078270777</v>
+      </c>
+    </row>
+    <row r="189" spans="1:57">
+      <c r="A189" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190" spans="1:57">
+      <c r="A190" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:57">
+      <c r="A191" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:57">
+      <c r="A192" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Alaska</t>
   </si>
@@ -759,6 +759,27 @@
   <si>
     <t>10 08 2020</t>
   </si>
+  <si>
+    <t>11 08 2020</t>
+  </si>
+  <si>
+    <t>12 08 2020</t>
+  </si>
+  <si>
+    <t>13 08 2020</t>
+  </si>
+  <si>
+    <t>14 08 2020</t>
+  </si>
+  <si>
+    <t>15 08 2020</t>
+  </si>
+  <si>
+    <t>16 08 2020</t>
+  </si>
+  <si>
+    <t>17 08 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1089,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE193"/>
+  <dimension ref="A1:BE200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17367,6 +17388,9 @@
       <c r="D95">
         <v>0.035539375061212</v>
       </c>
+      <c r="E95">
+        <v>0.10633903133903</v>
+      </c>
       <c r="F95">
         <v>0.033879906608304</v>
       </c>
@@ -17537,6 +17561,9 @@
       <c r="D96">
         <v>0.049898151361187</v>
       </c>
+      <c r="E96">
+        <v>0.1143475572047</v>
+      </c>
       <c r="F96">
         <v>0.042030490111412</v>
       </c>
@@ -17707,6 +17734,9 @@
       <c r="D97">
         <v>0.048966042772222</v>
       </c>
+      <c r="E97">
+        <v>0.12175324675325</v>
+      </c>
       <c r="F97">
         <v>0.050237709634092</v>
       </c>
@@ -17877,6 +17907,9 @@
       <c r="D98">
         <v>0.035573777143444</v>
       </c>
+      <c r="E98">
+        <v>0.14635225885226</v>
+      </c>
       <c r="F98">
         <v>0.030475320005816</v>
       </c>
@@ -18047,6 +18080,9 @@
       <c r="D99">
         <v>0.037402753298298</v>
       </c>
+      <c r="E99">
+        <v>0.13388888888889</v>
+      </c>
       <c r="F99">
         <v>0.043755317808659</v>
       </c>
@@ -18217,6 +18253,9 @@
       <c r="D100">
         <v>0.021557220541636</v>
       </c>
+      <c r="E100">
+        <v>0.16659673659674</v>
+      </c>
       <c r="F100">
         <v>0.024683654511591</v>
       </c>
@@ -18387,6 +18426,9 @@
       <c r="D101">
         <v>0.020361948455518</v>
       </c>
+      <c r="E101">
+        <v>0.1247923312068</v>
+      </c>
       <c r="F101">
         <v>0.026278880174018</v>
       </c>
@@ -33338,25 +33380,1215 @@
       <c r="A189" t="s">
         <v>243</v>
       </c>
+      <c r="B189">
+        <v>0.050599845851136</v>
+      </c>
+      <c r="C189">
+        <v>0.05737187068404</v>
+      </c>
+      <c r="D189">
+        <v>0.047005831429903</v>
+      </c>
+      <c r="F189">
+        <v>0.043146103170363</v>
+      </c>
+      <c r="G189">
+        <v>0.046638236245796</v>
+      </c>
+      <c r="H189">
+        <v>0.050441598304295</v>
+      </c>
+      <c r="I189">
+        <v>0.0439840881723</v>
+      </c>
+      <c r="J189">
+        <v>0.046806704259656</v>
+      </c>
+      <c r="K189">
+        <v>0.044448796698912</v>
+      </c>
+      <c r="L189">
+        <v>0.046528870188271</v>
+      </c>
+      <c r="M189">
+        <v>0.050307370472125</v>
+      </c>
+      <c r="N189">
+        <v>0.057413097782474</v>
+      </c>
+      <c r="O189">
+        <v>0.031001433419907</v>
+      </c>
+      <c r="P189">
+        <v>0.045654679208709</v>
+      </c>
+      <c r="Q189">
+        <v>0.049821844993392</v>
+      </c>
+      <c r="R189">
+        <v>0.043247276004654</v>
+      </c>
+      <c r="S189">
+        <v>0.049973610373662</v>
+      </c>
+      <c r="T189">
+        <v>0.044399428131163</v>
+      </c>
+      <c r="U189">
+        <v>0.045885839977657</v>
+      </c>
+      <c r="V189">
+        <v>0.054360510211892</v>
+      </c>
+      <c r="W189">
+        <v>0.046004787263399</v>
+      </c>
+      <c r="X189">
+        <v>0.041591488030797</v>
+      </c>
+      <c r="Y189">
+        <v>0.04721995078091</v>
+      </c>
+      <c r="Z189">
+        <v>0.049275315020692</v>
+      </c>
+      <c r="AA189">
+        <v>0.046905493283737</v>
+      </c>
+      <c r="AB189">
+        <v>0.052678432214427</v>
+      </c>
+      <c r="AC189">
+        <v>0.064677237308593</v>
+      </c>
+      <c r="AD189">
+        <v>0.06015423689422</v>
+      </c>
+      <c r="AE189">
+        <v>0.060469309645183</v>
+      </c>
+      <c r="AF189">
+        <v>0.047967647115805</v>
+      </c>
+      <c r="AG189">
+        <v>0.044339046838329</v>
+      </c>
+      <c r="AH189">
+        <v>0.053294399635864</v>
+      </c>
+      <c r="AI189">
+        <v>0.052297494433935</v>
+      </c>
+      <c r="AJ189">
+        <v>0.048822788416176</v>
+      </c>
+      <c r="AK189">
+        <v>0.05049552715532</v>
+      </c>
+      <c r="AL189">
+        <v>0.050432207723194</v>
+      </c>
+      <c r="AM189">
+        <v>0.048888445792371</v>
+      </c>
+      <c r="AN189">
+        <v>0.048645943823381</v>
+      </c>
+      <c r="AO189">
+        <v>0.052239848033756</v>
+      </c>
+      <c r="AP189">
+        <v>0.048317080967942</v>
+      </c>
+      <c r="AQ189">
+        <v>0.050096067448388</v>
+      </c>
+      <c r="AR189">
+        <v>0.083819966287892</v>
+      </c>
+      <c r="AS189">
+        <v>0.055306609688787</v>
+      </c>
+      <c r="AT189">
+        <v>0.053826754440282</v>
+      </c>
+      <c r="AU189">
+        <v>0.052793853771579</v>
+      </c>
+      <c r="AV189">
+        <v>0.053502724498918</v>
+      </c>
+      <c r="AW189">
+        <v>0.047154402639104</v>
+      </c>
+      <c r="AX189">
+        <v>0.057894781009057</v>
+      </c>
+      <c r="AY189">
+        <v>0.049463190349083</v>
+      </c>
+      <c r="AZ189">
+        <v>0.08571278696910101</v>
+      </c>
+      <c r="BA189">
+        <v>0.053146487325292</v>
+      </c>
+      <c r="BB189">
+        <v>0.048457504661775</v>
+      </c>
+      <c r="BC189">
+        <v>0.054981403294058</v>
+      </c>
+      <c r="BD189">
+        <v>0.057290174120725</v>
+      </c>
+      <c r="BE189">
+        <v>0.052538238067564</v>
+      </c>
     </row>
     <row r="190" spans="1:57">
       <c r="A190" t="s">
         <v>244</v>
       </c>
+      <c r="B190">
+        <v>0.051252978723225</v>
+      </c>
+      <c r="C190">
+        <v>0.043514127562904</v>
+      </c>
+      <c r="D190">
+        <v>0.041363011566801</v>
+      </c>
+      <c r="F190">
+        <v>0.043603069701841</v>
+      </c>
+      <c r="G190">
+        <v>0.044928184634195</v>
+      </c>
+      <c r="H190">
+        <v>0.051647905848707</v>
+      </c>
+      <c r="I190">
+        <v>0.047323929877081</v>
+      </c>
+      <c r="J190">
+        <v>0.047319119856335</v>
+      </c>
+      <c r="K190">
+        <v>0.044369658793154</v>
+      </c>
+      <c r="L190">
+        <v>0.043776130730086</v>
+      </c>
+      <c r="M190">
+        <v>0.049155927133191</v>
+      </c>
+      <c r="N190">
+        <v>0.053158911477339</v>
+      </c>
+      <c r="O190">
+        <v>0.034679551947387</v>
+      </c>
+      <c r="P190">
+        <v>0.040658638486645</v>
+      </c>
+      <c r="Q190">
+        <v>0.050165785822023</v>
+      </c>
+      <c r="R190">
+        <v>0.046377563655325</v>
+      </c>
+      <c r="S190">
+        <v>0.04822711986515</v>
+      </c>
+      <c r="T190">
+        <v>0.038850432876626</v>
+      </c>
+      <c r="U190">
+        <v>0.039108655597086</v>
+      </c>
+      <c r="V190">
+        <v>0.045790768591373</v>
+      </c>
+      <c r="W190">
+        <v>0.037662529855784</v>
+      </c>
+      <c r="X190">
+        <v>0.036016208628749</v>
+      </c>
+      <c r="Y190">
+        <v>0.039012113841025</v>
+      </c>
+      <c r="Z190">
+        <v>0.037372126448531</v>
+      </c>
+      <c r="AA190">
+        <v>0.032428918528143</v>
+      </c>
+      <c r="AB190">
+        <v>0.037171535128803</v>
+      </c>
+      <c r="AC190">
+        <v>0.072286331938126</v>
+      </c>
+      <c r="AD190">
+        <v>0.044493742378422</v>
+      </c>
+      <c r="AE190">
+        <v>0.040952479617276</v>
+      </c>
+      <c r="AF190">
+        <v>0.037916354471223</v>
+      </c>
+      <c r="AG190">
+        <v>0.03565859461879</v>
+      </c>
+      <c r="AH190">
+        <v>0.037391642300712</v>
+      </c>
+      <c r="AI190">
+        <v>0.034678773157402</v>
+      </c>
+      <c r="AJ190">
+        <v>0.033317641656494</v>
+      </c>
+      <c r="AK190">
+        <v>0.038150267793167</v>
+      </c>
+      <c r="AL190">
+        <v>0.036437180526116</v>
+      </c>
+      <c r="AM190">
+        <v>0.037897875803645</v>
+      </c>
+      <c r="AN190">
+        <v>0.041031797670719</v>
+      </c>
+      <c r="AO190">
+        <v>0.042060133319046</v>
+      </c>
+      <c r="AP190">
+        <v>0.039597309156181</v>
+      </c>
+      <c r="AQ190">
+        <v>0.04182385142185</v>
+      </c>
+      <c r="AR190">
+        <v>0.071933318481847</v>
+      </c>
+      <c r="AS190">
+        <v>0.042147086942694</v>
+      </c>
+      <c r="AT190">
+        <v>0.04068620297373</v>
+      </c>
+      <c r="AU190">
+        <v>0.040837990534141</v>
+      </c>
+      <c r="AV190">
+        <v>0.046223773205754</v>
+      </c>
+      <c r="AW190">
+        <v>0.038859849848363</v>
+      </c>
+      <c r="AX190">
+        <v>0.047748783338324</v>
+      </c>
+      <c r="AY190">
+        <v>0.039906295350177</v>
+      </c>
+      <c r="AZ190">
+        <v>0.080211431263273</v>
+      </c>
+      <c r="BA190">
+        <v>0.044686820246292</v>
+      </c>
+      <c r="BB190">
+        <v>0.038138267885118</v>
+      </c>
+      <c r="BC190">
+        <v>0.040404116881591</v>
+      </c>
+      <c r="BD190">
+        <v>0.045041125130394</v>
+      </c>
+      <c r="BE190">
+        <v>0.040687592972323</v>
+      </c>
     </row>
     <row r="191" spans="1:57">
       <c r="A191" t="s">
         <v>245</v>
       </c>
+      <c r="B191">
+        <v>0.050008800847729</v>
+      </c>
+      <c r="C191">
+        <v>0.027570444089411</v>
+      </c>
+      <c r="D191">
+        <v>0.027122760834122</v>
+      </c>
+      <c r="F191">
+        <v>0.039554258653601</v>
+      </c>
+      <c r="G191">
+        <v>0.037106964252548</v>
+      </c>
+      <c r="H191">
+        <v>0.03951930651182</v>
+      </c>
+      <c r="I191">
+        <v>0.033985620573749</v>
+      </c>
+      <c r="J191">
+        <v>0.044871745947817</v>
+      </c>
+      <c r="K191">
+        <v>0.030801086197809</v>
+      </c>
+      <c r="L191">
+        <v>0.026549777382249</v>
+      </c>
+      <c r="M191">
+        <v>0.021574583511303</v>
+      </c>
+      <c r="N191">
+        <v>0.055084823300144</v>
+      </c>
+      <c r="O191">
+        <v>0.02262526695456</v>
+      </c>
+      <c r="P191">
+        <v>0.023248772209771</v>
+      </c>
+      <c r="Q191">
+        <v>0.029319463764931</v>
+      </c>
+      <c r="R191">
+        <v>0.025923660164213</v>
+      </c>
+      <c r="S191">
+        <v>0.024186619928456</v>
+      </c>
+      <c r="T191">
+        <v>0.023513561673158</v>
+      </c>
+      <c r="U191">
+        <v>0.024284419172813</v>
+      </c>
+      <c r="V191">
+        <v>0.028879147381956</v>
+      </c>
+      <c r="W191">
+        <v>0.036055083073461</v>
+      </c>
+      <c r="X191">
+        <v>0.028620699371607</v>
+      </c>
+      <c r="Y191">
+        <v>0.033172447482928</v>
+      </c>
+      <c r="Z191">
+        <v>0.033440158388509</v>
+      </c>
+      <c r="AA191">
+        <v>0.029424904410711</v>
+      </c>
+      <c r="AB191">
+        <v>0.028165682699723</v>
+      </c>
+      <c r="AC191">
+        <v>0.070679715157107</v>
+      </c>
+      <c r="AD191">
+        <v>0.027332517839947</v>
+      </c>
+      <c r="AE191">
+        <v>0.039598481318641</v>
+      </c>
+      <c r="AF191">
+        <v>0.023854510003799</v>
+      </c>
+      <c r="AG191">
+        <v>0.027913918175781</v>
+      </c>
+      <c r="AH191">
+        <v>0.027057301540282</v>
+      </c>
+      <c r="AI191">
+        <v>0.027154634713732</v>
+      </c>
+      <c r="AJ191">
+        <v>0.027215201823004</v>
+      </c>
+      <c r="AK191">
+        <v>0.035388970697199</v>
+      </c>
+      <c r="AL191">
+        <v>0.03220397694606</v>
+      </c>
+      <c r="AM191">
+        <v>0.032148266777358</v>
+      </c>
+      <c r="AN191">
+        <v>0.028619178290637</v>
+      </c>
+      <c r="AO191">
+        <v>0.025267553490815</v>
+      </c>
+      <c r="AP191">
+        <v>0.032596770557325</v>
+      </c>
+      <c r="AQ191">
+        <v>0.031133577107927</v>
+      </c>
+      <c r="AR191">
+        <v>0.067009470831699</v>
+      </c>
+      <c r="AS191">
+        <v>0.034581067914036</v>
+      </c>
+      <c r="AT191">
+        <v>0.025855758816295</v>
+      </c>
+      <c r="AU191">
+        <v>0.028578238898173</v>
+      </c>
+      <c r="AV191">
+        <v>0.023737866634495</v>
+      </c>
+      <c r="AW191">
+        <v>0.023711087084311</v>
+      </c>
+      <c r="AX191">
+        <v>0.030261320577445</v>
+      </c>
+      <c r="AY191">
+        <v>0.026531101606938</v>
+      </c>
+      <c r="AZ191">
+        <v>0.058976250307811</v>
+      </c>
+      <c r="BA191">
+        <v>0.036136340651495</v>
+      </c>
+      <c r="BB191">
+        <v>0.029782379248452</v>
+      </c>
+      <c r="BC191">
+        <v>0.026604890578279</v>
+      </c>
+      <c r="BD191">
+        <v>0.030928262368903</v>
+      </c>
+      <c r="BE191">
+        <v>0.032280848460166</v>
+      </c>
     </row>
     <row r="192" spans="1:57">
       <c r="A192" t="s">
         <v>246</v>
       </c>
+      <c r="B192">
+        <v>0.041858882248227</v>
+      </c>
+      <c r="C192">
+        <v>0.024943130335437</v>
+      </c>
+      <c r="D192">
+        <v>0.025418668566278</v>
+      </c>
+      <c r="F192">
+        <v>0.028893967083693</v>
+      </c>
+      <c r="G192">
+        <v>0.032308915086551</v>
+      </c>
+      <c r="H192">
+        <v>0.031065501848194</v>
+      </c>
+      <c r="I192">
+        <v>0.028228845941633</v>
+      </c>
+      <c r="J192">
+        <v>0.039087079242604</v>
+      </c>
+      <c r="K192">
+        <v>0.026368402163893</v>
+      </c>
+      <c r="L192">
+        <v>0.022726264269128</v>
+      </c>
+      <c r="M192">
+        <v>0.020978955022148</v>
+      </c>
+      <c r="N192">
+        <v>0.058794399957297</v>
+      </c>
+      <c r="O192">
+        <v>0.027162568076312</v>
+      </c>
+      <c r="P192">
+        <v>0.02843518174336</v>
+      </c>
+      <c r="Q192">
+        <v>0.030683357068886</v>
+      </c>
+      <c r="R192">
+        <v>0.028589300177576</v>
+      </c>
+      <c r="S192">
+        <v>0.027314579664315</v>
+      </c>
+      <c r="T192">
+        <v>0.028815000614117</v>
+      </c>
+      <c r="U192">
+        <v>0.028471882771874</v>
+      </c>
+      <c r="V192">
+        <v>0.032743893898438</v>
+      </c>
+      <c r="W192">
+        <v>0.038732518019982</v>
+      </c>
+      <c r="X192">
+        <v>0.031685098971385</v>
+      </c>
+      <c r="Y192">
+        <v>0.037737913362481</v>
+      </c>
+      <c r="Z192">
+        <v>0.031185482184134</v>
+      </c>
+      <c r="AA192">
+        <v>0.025351669328223</v>
+      </c>
+      <c r="AB192">
+        <v>0.023745446004216</v>
+      </c>
+      <c r="AC192">
+        <v>0.069819345214322</v>
+      </c>
+      <c r="AD192">
+        <v>0.023120282704615</v>
+      </c>
+      <c r="AE192">
+        <v>0.034944982478798</v>
+      </c>
+      <c r="AF192">
+        <v>0.02670201280269</v>
+      </c>
+      <c r="AG192">
+        <v>0.030904615101585</v>
+      </c>
+      <c r="AH192">
+        <v>0.022322900482071</v>
+      </c>
+      <c r="AI192">
+        <v>0.025074056425676</v>
+      </c>
+      <c r="AJ192">
+        <v>0.025728030842301</v>
+      </c>
+      <c r="AK192">
+        <v>0.034815578943362</v>
+      </c>
+      <c r="AL192">
+        <v>0.027752174291188</v>
+      </c>
+      <c r="AM192">
+        <v>0.036529530598401</v>
+      </c>
+      <c r="AN192">
+        <v>0.033251756796682</v>
+      </c>
+      <c r="AO192">
+        <v>0.026701887184068</v>
+      </c>
+      <c r="AP192">
+        <v>0.034290243220188</v>
+      </c>
+      <c r="AQ192">
+        <v>0.033710473508115</v>
+      </c>
+      <c r="AR192">
+        <v>0.070757005470694</v>
+      </c>
+      <c r="AS192">
+        <v>0.035794342229237</v>
+      </c>
+      <c r="AT192">
+        <v>0.025267530748723</v>
+      </c>
+      <c r="AU192">
+        <v>0.028986277280724</v>
+      </c>
+      <c r="AV192">
+        <v>0.022798976519621</v>
+      </c>
+      <c r="AW192">
+        <v>0.023139560346661</v>
+      </c>
+      <c r="AX192">
+        <v>0.028998996096921</v>
+      </c>
+      <c r="AY192">
+        <v>0.026593690881395</v>
+      </c>
+      <c r="AZ192">
+        <v>0.061461982636767</v>
+      </c>
+      <c r="BA192">
+        <v>0.035897800142609</v>
+      </c>
+      <c r="BB192">
+        <v>0.028968921293238</v>
+      </c>
+      <c r="BC192">
+        <v>0.025344254831201</v>
+      </c>
+      <c r="BD192">
+        <v>0.030071609036338</v>
+      </c>
+      <c r="BE192">
+        <v>0.028516029311783</v>
+      </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:57">
       <c r="A193" t="s">
         <v>247</v>
+      </c>
+      <c r="B193">
+        <v>0.046026090423966</v>
+      </c>
+      <c r="C193">
+        <v>0.052918434301101</v>
+      </c>
+      <c r="D193">
+        <v>0.048665653599385</v>
+      </c>
+      <c r="F193">
+        <v>0.042049218024318</v>
+      </c>
+      <c r="G193">
+        <v>0.057601503803822</v>
+      </c>
+      <c r="H193">
+        <v>0.057970090860322</v>
+      </c>
+      <c r="I193">
+        <v>0.052501903248581</v>
+      </c>
+      <c r="J193">
+        <v>0.056572930298422</v>
+      </c>
+      <c r="K193">
+        <v>0.047155315545943</v>
+      </c>
+      <c r="L193">
+        <v>0.052537603497921</v>
+      </c>
+      <c r="M193">
+        <v>0.054216661876463</v>
+      </c>
+      <c r="N193">
+        <v>0.057088888859292</v>
+      </c>
+      <c r="O193">
+        <v>0.030437349843032</v>
+      </c>
+      <c r="P193">
+        <v>0.042919191157467</v>
+      </c>
+      <c r="Q193">
+        <v>0.049294669596677</v>
+      </c>
+      <c r="R193">
+        <v>0.041788038232951</v>
+      </c>
+      <c r="S193">
+        <v>0.054070959840999</v>
+      </c>
+      <c r="T193">
+        <v>0.04796496136894</v>
+      </c>
+      <c r="U193">
+        <v>0.050266798195428</v>
+      </c>
+      <c r="V193">
+        <v>0.061393050688178</v>
+      </c>
+      <c r="W193">
+        <v>0.04923868601934</v>
+      </c>
+      <c r="X193">
+        <v>0.046749801948849</v>
+      </c>
+      <c r="Y193">
+        <v>0.049684247867941</v>
+      </c>
+      <c r="Z193">
+        <v>0.047246162348822</v>
+      </c>
+      <c r="AA193">
+        <v>0.041583760255156</v>
+      </c>
+      <c r="AB193">
+        <v>0.047797746021041</v>
+      </c>
+      <c r="AC193">
+        <v>0.084799322019094</v>
+      </c>
+      <c r="AD193">
+        <v>0.061060656702218</v>
+      </c>
+      <c r="AE193">
+        <v>0.050574382264206</v>
+      </c>
+      <c r="AF193">
+        <v>0.048757655011974</v>
+      </c>
+      <c r="AG193">
+        <v>0.042470796960375</v>
+      </c>
+      <c r="AH193">
+        <v>0.048998107317967</v>
+      </c>
+      <c r="AI193">
+        <v>0.044129888656513</v>
+      </c>
+      <c r="AJ193">
+        <v>0.042124802938824</v>
+      </c>
+      <c r="AK193">
+        <v>0.046142685530124</v>
+      </c>
+      <c r="AL193">
+        <v>0.043724496674095</v>
+      </c>
+      <c r="AM193">
+        <v>0.044130521094427</v>
+      </c>
+      <c r="AN193">
+        <v>0.045877192368978</v>
+      </c>
+      <c r="AO193">
+        <v>0.049147513985993</v>
+      </c>
+      <c r="AP193">
+        <v>0.044226272142241</v>
+      </c>
+      <c r="AQ193">
+        <v>0.046766278906858</v>
+      </c>
+      <c r="AR193">
+        <v>0.075668353268875</v>
+      </c>
+      <c r="AS193">
+        <v>0.040208602977681</v>
+      </c>
+      <c r="AT193">
+        <v>0.052756975802968</v>
+      </c>
+      <c r="AU193">
+        <v>0.050516921132961</v>
+      </c>
+      <c r="AV193">
+        <v>0.057726146634041</v>
+      </c>
+      <c r="AW193">
+        <v>0.047750651658817</v>
+      </c>
+      <c r="AX193">
+        <v>0.057106921774819</v>
+      </c>
+      <c r="AY193">
+        <v>0.047774528803678</v>
+      </c>
+      <c r="AZ193">
+        <v>0.071064971630743</v>
+      </c>
+      <c r="BA193">
+        <v>0.051729254728598</v>
+      </c>
+      <c r="BB193">
+        <v>0.043803726043286</v>
+      </c>
+      <c r="BC193">
+        <v>0.045604905986004</v>
+      </c>
+      <c r="BD193">
+        <v>0.050528584427298</v>
+      </c>
+      <c r="BE193">
+        <v>0.04709803828968</v>
+      </c>
+    </row>
+    <row r="194" spans="1:57">
+      <c r="A194" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194">
+        <v>0.044118252638562</v>
+      </c>
+      <c r="C194">
+        <v>0.054033371340887</v>
+      </c>
+      <c r="D194">
+        <v>0.049744691606255</v>
+      </c>
+      <c r="F194">
+        <v>0.039724046796903</v>
+      </c>
+      <c r="G194">
+        <v>0.055069727957749</v>
+      </c>
+      <c r="H194">
+        <v>0.059806629495529</v>
+      </c>
+      <c r="I194">
+        <v>0.0498136456508</v>
+      </c>
+      <c r="J194">
+        <v>0.047877928037791</v>
+      </c>
+      <c r="K194">
+        <v>0.047246762628939</v>
+      </c>
+      <c r="L194">
+        <v>0.049326191772621</v>
+      </c>
+      <c r="M194">
+        <v>0.052845157262935</v>
+      </c>
+      <c r="N194">
+        <v>0.053758491328396</v>
+      </c>
+      <c r="O194">
+        <v>0.027599526246962</v>
+      </c>
+      <c r="P194">
+        <v>0.042808306786451</v>
+      </c>
+      <c r="Q194">
+        <v>0.048714121240212</v>
+      </c>
+      <c r="R194">
+        <v>0.041579658624977</v>
+      </c>
+      <c r="S194">
+        <v>0.05368288136542</v>
+      </c>
+      <c r="T194">
+        <v>0.047990974298318</v>
+      </c>
+      <c r="U194">
+        <v>0.050121571272439</v>
+      </c>
+      <c r="V194">
+        <v>0.062020286741533</v>
+      </c>
+      <c r="W194">
+        <v>0.048708481728583</v>
+      </c>
+      <c r="X194">
+        <v>0.046091649209684</v>
+      </c>
+      <c r="Y194">
+        <v>0.04908488442969</v>
+      </c>
+      <c r="Z194">
+        <v>0.047615784766575</v>
+      </c>
+      <c r="AA194">
+        <v>0.042221180892404</v>
+      </c>
+      <c r="AB194">
+        <v>0.049903936170304</v>
+      </c>
+      <c r="AC194">
+        <v>0.06756455861343399</v>
+      </c>
+      <c r="AD194">
+        <v>0.064376748076772</v>
+      </c>
+      <c r="AE194">
+        <v>0.053971932195427</v>
+      </c>
+      <c r="AF194">
+        <v>0.048415953711232</v>
+      </c>
+      <c r="AG194">
+        <v>0.042579852090841</v>
+      </c>
+      <c r="AH194">
+        <v>0.051734084008053</v>
+      </c>
+      <c r="AI194">
+        <v>0.046726427699178</v>
+      </c>
+      <c r="AJ194">
+        <v>0.043940341495793</v>
+      </c>
+      <c r="AK194">
+        <v>0.047744744471779</v>
+      </c>
+      <c r="AL194">
+        <v>0.045742128540185</v>
+      </c>
+      <c r="AM194">
+        <v>0.044687595984735</v>
+      </c>
+      <c r="AN194">
+        <v>0.044759871571587</v>
+      </c>
+      <c r="AO194">
+        <v>0.05015239809719</v>
+      </c>
+      <c r="AP194">
+        <v>0.044127364913003</v>
+      </c>
+      <c r="AQ194">
+        <v>0.049133615336722</v>
+      </c>
+      <c r="AR194">
+        <v>0.076293671624287</v>
+      </c>
+      <c r="AS194">
+        <v>0.05325480958244</v>
+      </c>
+      <c r="AT194">
+        <v>0.056825537801944</v>
+      </c>
+      <c r="AU194">
+        <v>0.055287311367109</v>
+      </c>
+      <c r="AV194">
+        <v>0.061968473349256</v>
+      </c>
+      <c r="AW194">
+        <v>0.05392668128226</v>
+      </c>
+      <c r="AX194">
+        <v>0.063826011111523</v>
+      </c>
+      <c r="AY194">
+        <v>0.05366975045501</v>
+      </c>
+      <c r="AZ194">
+        <v>0.069287972896525</v>
+      </c>
+      <c r="BA194">
+        <v>0.05655784024162</v>
+      </c>
+      <c r="BB194">
+        <v>0.048153483545589</v>
+      </c>
+      <c r="BC194">
+        <v>0.049604241617066</v>
+      </c>
+      <c r="BD194">
+        <v>0.054514876456383</v>
+      </c>
+      <c r="BE194">
+        <v>0.048635028357488</v>
+      </c>
+    </row>
+    <row r="195" spans="1:57">
+      <c r="A195" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195">
+        <v>0.051835399302178</v>
+      </c>
+      <c r="C195">
+        <v>0.054676532820954</v>
+      </c>
+      <c r="D195">
+        <v>0.052631227119385</v>
+      </c>
+      <c r="F195">
+        <v>0.047919724265789</v>
+      </c>
+      <c r="G195">
+        <v>0.046744429885148</v>
+      </c>
+      <c r="H195">
+        <v>0.054573775563135</v>
+      </c>
+      <c r="I195">
+        <v>0.047738010729529</v>
+      </c>
+      <c r="J195">
+        <v>0.045435787487791</v>
+      </c>
+      <c r="K195">
+        <v>0.04562891135575</v>
+      </c>
+      <c r="L195">
+        <v>0.049440157113606</v>
+      </c>
+      <c r="M195">
+        <v>0.052556729410555</v>
+      </c>
+      <c r="N195">
+        <v>0.059418342479345</v>
+      </c>
+      <c r="O195">
+        <v>0.031956258849025</v>
+      </c>
+      <c r="P195">
+        <v>0.046294215766254</v>
+      </c>
+      <c r="Q195">
+        <v>0.050749651555072</v>
+      </c>
+      <c r="R195">
+        <v>0.04240100999012</v>
+      </c>
+      <c r="S195">
+        <v>0.055769746525046</v>
+      </c>
+      <c r="T195">
+        <v>0.049172059753568</v>
+      </c>
+      <c r="U195">
+        <v>0.050883229563625</v>
+      </c>
+      <c r="V195">
+        <v>0.061223516042335</v>
+      </c>
+      <c r="W195">
+        <v>0.048608644386112</v>
+      </c>
+      <c r="X195">
+        <v>0.045893481769109</v>
+      </c>
+      <c r="Y195">
+        <v>0.050223851035317</v>
+      </c>
+      <c r="Z195">
+        <v>0.046875794628247</v>
+      </c>
+      <c r="AA195">
+        <v>0.04360476057426</v>
+      </c>
+      <c r="AB195">
+        <v>0.050001102320727</v>
+      </c>
+      <c r="AC195">
+        <v>0.073068237287524</v>
+      </c>
+      <c r="AD195">
+        <v>0.061496368484489</v>
+      </c>
+      <c r="AE195">
+        <v>0.053032797245249</v>
+      </c>
+      <c r="AF195">
+        <v>0.050800613276599</v>
+      </c>
+      <c r="AG195">
+        <v>0.04719659443808</v>
+      </c>
+      <c r="AH195">
+        <v>0.057500292436793</v>
+      </c>
+      <c r="AI195">
+        <v>0.048520529981828</v>
+      </c>
+      <c r="AJ195">
+        <v>0.046430310682728</v>
+      </c>
+      <c r="AK195">
+        <v>0.04974853892368</v>
+      </c>
+      <c r="AL195">
+        <v>0.047914605686715</v>
+      </c>
+      <c r="AM195">
+        <v>0.04887763383805</v>
+      </c>
+      <c r="AN195">
+        <v>0.047378808740902</v>
+      </c>
+      <c r="AO195">
+        <v>0.051334125746039</v>
+      </c>
+      <c r="AP195">
+        <v>0.044812672799498</v>
+      </c>
+      <c r="AQ195">
+        <v>0.046775538145325</v>
+      </c>
+      <c r="AR195">
+        <v>0.079470295328549</v>
+      </c>
+      <c r="AS195">
+        <v>0.047795887614522</v>
+      </c>
+      <c r="AT195">
+        <v>0.0513426811407</v>
+      </c>
+      <c r="AU195">
+        <v>0.048230227395261</v>
+      </c>
+      <c r="AV195">
+        <v>0.055959009775526</v>
+      </c>
+      <c r="AW195">
+        <v>0.047262728432198</v>
+      </c>
+      <c r="AX195">
+        <v>0.057070857206656</v>
+      </c>
+      <c r="AY195">
+        <v>0.04651625296955</v>
+      </c>
+      <c r="AZ195">
+        <v>0.085232114105792</v>
+      </c>
+      <c r="BA195">
+        <v>0.050280341499272</v>
+      </c>
+      <c r="BB195">
+        <v>0.044325902421577</v>
+      </c>
+      <c r="BC195">
+        <v>0.047945950481005</v>
+      </c>
+      <c r="BD195">
+        <v>0.050635588292848</v>
+      </c>
+      <c r="BE195">
+        <v>0.050467609879462</v>
+      </c>
+    </row>
+    <row r="196" spans="1:57">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:57">
+      <c r="A197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:57">
+      <c r="A198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:57">
+      <c r="A199" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:57">
+      <c r="A200" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Alaska</t>
   </si>
@@ -780,6 +780,30 @@
   <si>
     <t>17 08 2020</t>
   </si>
+  <si>
+    <t>18 08 2020</t>
+  </si>
+  <si>
+    <t>19 08 2020</t>
+  </si>
+  <si>
+    <t>20 08 2020</t>
+  </si>
+  <si>
+    <t>21 08 2020</t>
+  </si>
+  <si>
+    <t>22 08 2020</t>
+  </si>
+  <si>
+    <t>23 08 2020</t>
+  </si>
+  <si>
+    <t>24 08 2020</t>
+  </si>
+  <si>
+    <t>25 08 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1110,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE200"/>
+  <dimension ref="A1:BE208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18599,6 +18623,9 @@
       <c r="D102">
         <v>0.054119457113611</v>
       </c>
+      <c r="E102">
+        <v>0.11132914704343</v>
+      </c>
       <c r="F102">
         <v>0.041876895863737</v>
       </c>
@@ -18769,6 +18796,9 @@
       <c r="D103">
         <v>0.048052716136466</v>
       </c>
+      <c r="E103">
+        <v>0.10008250938702</v>
+      </c>
       <c r="F103">
         <v>0.043353325762085</v>
       </c>
@@ -18939,6 +18969,9 @@
       <c r="D104">
         <v>0.038997465372371</v>
       </c>
+      <c r="E104">
+        <v>0.095548433048433</v>
+      </c>
       <c r="F104">
         <v>0.033342743383885</v>
       </c>
@@ -19109,6 +19142,9 @@
       <c r="D105">
         <v>0.049936847990555</v>
       </c>
+      <c r="E105">
+        <v>0.11482371794872</v>
+      </c>
       <c r="F105">
         <v>0.040176045059962</v>
       </c>
@@ -19279,6 +19315,9 @@
       <c r="D106">
         <v>0.039294094970945</v>
       </c>
+      <c r="E106">
+        <v>0.10073339359054</v>
+      </c>
       <c r="F106">
         <v>0.041114054330343</v>
       </c>
@@ -19449,6 +19488,9 @@
       <c r="D107">
         <v>0.022257179767816</v>
       </c>
+      <c r="E107">
+        <v>0.09259734196709</v>
+      </c>
       <c r="F107">
         <v>0.025771842335297</v>
       </c>
@@ -19619,6 +19661,9 @@
       <c r="D108">
         <v>0.026685294972536</v>
       </c>
+      <c r="E108">
+        <v>0.12231240981241</v>
+      </c>
       <c r="F108">
         <v>0.029929986061257</v>
       </c>
@@ -19789,6 +19834,9 @@
       <c r="D109">
         <v>0.054285779550577</v>
       </c>
+      <c r="E109">
+        <v>0.11616459520871</v>
+      </c>
       <c r="F109">
         <v>0.046031496609673</v>
       </c>
@@ -34570,25 +34618,1385 @@
       <c r="A196" t="s">
         <v>250</v>
       </c>
+      <c r="B196">
+        <v>0.07012987515366199</v>
+      </c>
+      <c r="C196">
+        <v>0.062135642035767</v>
+      </c>
+      <c r="D196">
+        <v>0.053072491587155</v>
+      </c>
+      <c r="F196">
+        <v>0.052899893107213</v>
+      </c>
+      <c r="G196">
+        <v>0.058911403306345</v>
+      </c>
+      <c r="H196">
+        <v>0.05669246312432</v>
+      </c>
+      <c r="I196">
+        <v>0.048601511567544</v>
+      </c>
+      <c r="J196">
+        <v>0.048834827091247</v>
+      </c>
+      <c r="K196">
+        <v>0.047230476351452</v>
+      </c>
+      <c r="L196">
+        <v>0.051771241133068</v>
+      </c>
+      <c r="M196">
+        <v>0.055204550726312</v>
+      </c>
+      <c r="N196">
+        <v>0.066075734562571</v>
+      </c>
+      <c r="O196">
+        <v>0.029596948968483</v>
+      </c>
+      <c r="P196">
+        <v>0.049790577693186</v>
+      </c>
+      <c r="Q196">
+        <v>0.051546909376128</v>
+      </c>
+      <c r="R196">
+        <v>0.045827284759262</v>
+      </c>
+      <c r="S196">
+        <v>0.061332404472272</v>
+      </c>
+      <c r="T196">
+        <v>0.052420378656313</v>
+      </c>
+      <c r="U196">
+        <v>0.051386158293978</v>
+      </c>
+      <c r="V196">
+        <v>0.063903775290881</v>
+      </c>
+      <c r="W196">
+        <v>0.049934686761131</v>
+      </c>
+      <c r="X196">
+        <v>0.046696587712037</v>
+      </c>
+      <c r="Y196">
+        <v>0.0497850665597</v>
+      </c>
+      <c r="Z196">
+        <v>0.049345238839255</v>
+      </c>
+      <c r="AA196">
+        <v>0.045016838223512</v>
+      </c>
+      <c r="AB196">
+        <v>0.05395614841529</v>
+      </c>
+      <c r="AC196">
+        <v>0.08177527834253701</v>
+      </c>
+      <c r="AD196">
+        <v>0.06701814441437</v>
+      </c>
+      <c r="AE196">
+        <v>0.059055488224207</v>
+      </c>
+      <c r="AF196">
+        <v>0.055108552412082</v>
+      </c>
+      <c r="AG196">
+        <v>0.049342294445628</v>
+      </c>
+      <c r="AH196">
+        <v>0.06937551227852599</v>
+      </c>
+      <c r="AI196">
+        <v>0.052965893135604</v>
+      </c>
+      <c r="AJ196">
+        <v>0.051344007157345</v>
+      </c>
+      <c r="AK196">
+        <v>0.059144049650255</v>
+      </c>
+      <c r="AL196">
+        <v>0.052611833093535</v>
+      </c>
+      <c r="AM196">
+        <v>0.056631358562013</v>
+      </c>
+      <c r="AN196">
+        <v>0.051980602518773</v>
+      </c>
+      <c r="AO196">
+        <v>0.059508079292524</v>
+      </c>
+      <c r="AP196">
+        <v>0.048409818263941</v>
+      </c>
+      <c r="AQ196">
+        <v>0.050762624903668</v>
+      </c>
+      <c r="AR196">
+        <v>0.084346809998481</v>
+      </c>
+      <c r="AS196">
+        <v>0.052700126918369</v>
+      </c>
+      <c r="AT196">
+        <v>0.05495813538546</v>
+      </c>
+      <c r="AU196">
+        <v>0.053763089485918</v>
+      </c>
+      <c r="AV196">
+        <v>0.062446851919988</v>
+      </c>
+      <c r="AW196">
+        <v>0.0532885157007</v>
+      </c>
+      <c r="AX196">
+        <v>0.064572233348554</v>
+      </c>
+      <c r="AY196">
+        <v>0.052412110204156</v>
+      </c>
+      <c r="AZ196">
+        <v>0.087130520932675</v>
+      </c>
+      <c r="BA196">
+        <v>0.059178882942528</v>
+      </c>
+      <c r="BB196">
+        <v>0.050348814368076</v>
+      </c>
+      <c r="BC196">
+        <v>0.053189658278003</v>
+      </c>
+      <c r="BD196">
+        <v>0.057479736608708</v>
+      </c>
+      <c r="BE196">
+        <v>0.05406622656393</v>
+      </c>
     </row>
     <row r="197" spans="1:57">
       <c r="A197" t="s">
         <v>251</v>
       </c>
+      <c r="B197">
+        <v>0.04996359924355</v>
+      </c>
+      <c r="C197">
+        <v>0.050973281077917</v>
+      </c>
+      <c r="D197">
+        <v>0.049439015772483</v>
+      </c>
+      <c r="F197">
+        <v>0.045918842200938</v>
+      </c>
+      <c r="G197">
+        <v>0.057675415668535</v>
+      </c>
+      <c r="H197">
+        <v>0.048006198244247</v>
+      </c>
+      <c r="I197">
+        <v>0.040191081959372</v>
+      </c>
+      <c r="J197">
+        <v>0.041828537413948</v>
+      </c>
+      <c r="K197">
+        <v>0.038506586002081</v>
+      </c>
+      <c r="L197">
+        <v>0.04188942778802</v>
+      </c>
+      <c r="M197">
+        <v>0.047948414164521</v>
+      </c>
+      <c r="N197">
+        <v>0.050637220964548</v>
+      </c>
+      <c r="O197">
+        <v>0.027209960040514</v>
+      </c>
+      <c r="P197">
+        <v>0.044892921586688</v>
+      </c>
+      <c r="Q197">
+        <v>0.045491076842821</v>
+      </c>
+      <c r="R197">
+        <v>0.040737311937812</v>
+      </c>
+      <c r="S197">
+        <v>0.054065710006823</v>
+      </c>
+      <c r="T197">
+        <v>0.046721690993539</v>
+      </c>
+      <c r="U197">
+        <v>0.0465721465297</v>
+      </c>
+      <c r="V197">
+        <v>0.057865758893067</v>
+      </c>
+      <c r="W197">
+        <v>0.048677484098566</v>
+      </c>
+      <c r="X197">
+        <v>0.04495190384313</v>
+      </c>
+      <c r="Y197">
+        <v>0.049409219479478</v>
+      </c>
+      <c r="Z197">
+        <v>0.042081306445438</v>
+      </c>
+      <c r="AA197">
+        <v>0.034783578335399</v>
+      </c>
+      <c r="AB197">
+        <v>0.040875702786805</v>
+      </c>
+      <c r="AC197">
+        <v>0.072821059393351</v>
+      </c>
+      <c r="AD197">
+        <v>0.053794554475808</v>
+      </c>
+      <c r="AE197">
+        <v>0.045007539994904</v>
+      </c>
+      <c r="AF197">
+        <v>0.044863714313876</v>
+      </c>
+      <c r="AG197">
+        <v>0.042121887658935</v>
+      </c>
+      <c r="AH197">
+        <v>0.056896099068887</v>
+      </c>
+      <c r="AI197">
+        <v>0.039209161260725</v>
+      </c>
+      <c r="AJ197">
+        <v>0.03708528090917</v>
+      </c>
+      <c r="AK197">
+        <v>0.041609588999568</v>
+      </c>
+      <c r="AL197">
+        <v>0.038915035104978</v>
+      </c>
+      <c r="AM197">
+        <v>0.042329852577869</v>
+      </c>
+      <c r="AN197">
+        <v>0.046492595992343</v>
+      </c>
+      <c r="AO197">
+        <v>0.054827624478519</v>
+      </c>
+      <c r="AP197">
+        <v>0.045825665719089</v>
+      </c>
+      <c r="AQ197">
+        <v>0.048112039749494</v>
+      </c>
+      <c r="AR197">
+        <v>0.076990822117656</v>
+      </c>
+      <c r="AS197">
+        <v>0.04856096228815</v>
+      </c>
+      <c r="AT197">
+        <v>0.046220820727454</v>
+      </c>
+      <c r="AU197">
+        <v>0.046451241531909</v>
+      </c>
+      <c r="AV197">
+        <v>0.053589164636181</v>
+      </c>
+      <c r="AW197">
+        <v>0.043410921441283</v>
+      </c>
+      <c r="AX197">
+        <v>0.05122443743405</v>
+      </c>
+      <c r="AY197">
+        <v>0.041271560176426</v>
+      </c>
+      <c r="AZ197">
+        <v>0.078598355430161</v>
+      </c>
+      <c r="BA197">
+        <v>0.046739903273698</v>
+      </c>
+      <c r="BB197">
+        <v>0.040661851634819</v>
+      </c>
+      <c r="BC197">
+        <v>0.042342984278177</v>
+      </c>
+      <c r="BD197">
+        <v>0.046752423851112</v>
+      </c>
+      <c r="BE197">
+        <v>0.040729805510649</v>
+      </c>
     </row>
     <row r="198" spans="1:57">
       <c r="A198" t="s">
         <v>252</v>
       </c>
+      <c r="B198">
+        <v>0.038392935214549</v>
+      </c>
+      <c r="C198">
+        <v>0.028183930485634</v>
+      </c>
+      <c r="D198">
+        <v>0.028789965391478</v>
+      </c>
+      <c r="F198">
+        <v>0.033435218174005</v>
+      </c>
+      <c r="G198">
+        <v>0.039721025564953</v>
+      </c>
+      <c r="H198">
+        <v>0.04085547227037</v>
+      </c>
+      <c r="I198">
+        <v>0.036714206903835</v>
+      </c>
+      <c r="J198">
+        <v>0.047641624251552</v>
+      </c>
+      <c r="K198">
+        <v>0.034595793720407</v>
+      </c>
+      <c r="L198">
+        <v>0.027822818322094</v>
+      </c>
+      <c r="M198">
+        <v>0.022835671553375</v>
+      </c>
+      <c r="N198">
+        <v>0.051767307352726</v>
+      </c>
+      <c r="O198">
+        <v>0.024431864968095</v>
+      </c>
+      <c r="P198">
+        <v>0.026851594872582</v>
+      </c>
+      <c r="Q198">
+        <v>0.03211263516851</v>
+      </c>
+      <c r="R198">
+        <v>0.027636176680459</v>
+      </c>
+      <c r="S198">
+        <v>0.025588081721554</v>
+      </c>
+      <c r="T198">
+        <v>0.025968842418658</v>
+      </c>
+      <c r="U198">
+        <v>0.026222207525661</v>
+      </c>
+      <c r="V198">
+        <v>0.030000193895122</v>
+      </c>
+      <c r="W198">
+        <v>0.033829648636746</v>
+      </c>
+      <c r="X198">
+        <v>0.028540310748576</v>
+      </c>
+      <c r="Y198">
+        <v>0.033768199103908</v>
+      </c>
+      <c r="Z198">
+        <v>0.028595306732728</v>
+      </c>
+      <c r="AA198">
+        <v>0.025723290945697</v>
+      </c>
+      <c r="AB198">
+        <v>0.025289351079584</v>
+      </c>
+      <c r="AC198">
+        <v>0.067231106763794</v>
+      </c>
+      <c r="AD198">
+        <v>0.024284597483213</v>
+      </c>
+      <c r="AE198">
+        <v>0.039513094530257</v>
+      </c>
+      <c r="AF198">
+        <v>0.025032335538238</v>
+      </c>
+      <c r="AG198">
+        <v>0.027642980584277</v>
+      </c>
+      <c r="AH198">
+        <v>0.026289844306393</v>
+      </c>
+      <c r="AI198">
+        <v>0.029405199245675</v>
+      </c>
+      <c r="AJ198">
+        <v>0.028888569597625</v>
+      </c>
+      <c r="AK198">
+        <v>0.03800262249256</v>
+      </c>
+      <c r="AL198">
+        <v>0.030886559791971</v>
+      </c>
+      <c r="AM198">
+        <v>0.03604556017805</v>
+      </c>
+      <c r="AN198">
+        <v>0.029686267481555</v>
+      </c>
+      <c r="AO198">
+        <v>0.026548703536699</v>
+      </c>
+      <c r="AP198">
+        <v>0.034506855888963</v>
+      </c>
+      <c r="AQ198">
+        <v>0.033067300996001</v>
+      </c>
+      <c r="AR198">
+        <v>0.062722511512482</v>
+      </c>
+      <c r="AS198">
+        <v>0.03607451775163</v>
+      </c>
+      <c r="AT198">
+        <v>0.025799162529091</v>
+      </c>
+      <c r="AU198">
+        <v>0.030189513384241</v>
+      </c>
+      <c r="AV198">
+        <v>0.024586032797689</v>
+      </c>
+      <c r="AW198">
+        <v>0.023378277418083</v>
+      </c>
+      <c r="AX198">
+        <v>0.03197478712492</v>
+      </c>
+      <c r="AY198">
+        <v>0.023197897611883</v>
+      </c>
+      <c r="AZ198">
+        <v>0.056712274811516</v>
+      </c>
+      <c r="BA198">
+        <v>0.032641629434382</v>
+      </c>
+      <c r="BB198">
+        <v>0.026391940252184</v>
+      </c>
+      <c r="BC198">
+        <v>0.02362164418858</v>
+      </c>
+      <c r="BD198">
+        <v>0.025005749223137</v>
+      </c>
+      <c r="BE198">
+        <v>0.02994469247671</v>
+      </c>
     </row>
     <row r="199" spans="1:57">
       <c r="A199" t="s">
         <v>253</v>
       </c>
+      <c r="B199">
+        <v>0.062513102148142</v>
+      </c>
+      <c r="C199">
+        <v>0.025205300319134</v>
+      </c>
+      <c r="D199">
+        <v>0.028073706186049</v>
+      </c>
+      <c r="F199">
+        <v>0.043406804993669</v>
+      </c>
+      <c r="G199">
+        <v>0.031807848847324</v>
+      </c>
+      <c r="H199">
+        <v>0.027180784017262</v>
+      </c>
+      <c r="I199">
+        <v>0.02465054463835</v>
+      </c>
+      <c r="J199">
+        <v>0.036157124039717</v>
+      </c>
+      <c r="K199">
+        <v>0.022206735398476</v>
+      </c>
+      <c r="L199">
+        <v>0.020702772909272</v>
+      </c>
+      <c r="M199">
+        <v>0.019906077753314</v>
+      </c>
+      <c r="N199">
+        <v>0.062138726121638</v>
+      </c>
+      <c r="O199">
+        <v>0.024483150239941</v>
+      </c>
+      <c r="P199">
+        <v>0.022949573111941</v>
+      </c>
+      <c r="Q199">
+        <v>0.030024753191083</v>
+      </c>
+      <c r="R199">
+        <v>0.027560295462208</v>
+      </c>
+      <c r="S199">
+        <v>0.023646896861581</v>
+      </c>
+      <c r="T199">
+        <v>0.022525057184249</v>
+      </c>
+      <c r="U199">
+        <v>0.022590281818508</v>
+      </c>
+      <c r="V199">
+        <v>0.025828494611373</v>
+      </c>
+      <c r="W199">
+        <v>0.030267884146397</v>
+      </c>
+      <c r="X199">
+        <v>0.024740874201273</v>
+      </c>
+      <c r="Y199">
+        <v>0.030166704187566</v>
+      </c>
+      <c r="Z199">
+        <v>0.025997771986411</v>
+      </c>
+      <c r="AA199">
+        <v>0.02350810009719</v>
+      </c>
+      <c r="AB199">
+        <v>0.021672797803432</v>
+      </c>
+      <c r="AC199">
+        <v>0.072236608159482</v>
+      </c>
+      <c r="AD199">
+        <v>0.020165008366222</v>
+      </c>
+      <c r="AE199">
+        <v>0.0318284359112</v>
+      </c>
+      <c r="AF199">
+        <v>0.019334637119969</v>
+      </c>
+      <c r="AG199">
+        <v>0.023160429229266</v>
+      </c>
+      <c r="AH199">
+        <v>0.021336789042582</v>
+      </c>
+      <c r="AI199">
+        <v>0.024176230529161</v>
+      </c>
+      <c r="AJ199">
+        <v>0.023708389253836</v>
+      </c>
+      <c r="AK199">
+        <v>0.03164190670689</v>
+      </c>
+      <c r="AL199">
+        <v>0.026095950641195</v>
+      </c>
+      <c r="AM199">
+        <v>0.029967681319525</v>
+      </c>
+      <c r="AN199">
+        <v>0.023259198453475</v>
+      </c>
+      <c r="AO199">
+        <v>0.019468982862262</v>
+      </c>
+      <c r="AP199">
+        <v>0.025199467165631</v>
+      </c>
+      <c r="AQ199">
+        <v>0.025603031963977</v>
+      </c>
+      <c r="AR199">
+        <v>0.071356641519062</v>
+      </c>
+      <c r="AS199">
+        <v>0.030412652731413</v>
+      </c>
+      <c r="AT199">
+        <v>0.021322983626246</v>
+      </c>
+      <c r="AU199">
+        <v>0.026277948859102</v>
+      </c>
+      <c r="AV199">
+        <v>0.021070774615129</v>
+      </c>
+      <c r="AW199">
+        <v>0.02306419703959</v>
+      </c>
+      <c r="AX199">
+        <v>0.032150557298737</v>
+      </c>
+      <c r="AY199">
+        <v>0.027228075017764</v>
+      </c>
+      <c r="AZ199">
+        <v>0.062277584608193</v>
+      </c>
+      <c r="BA199">
+        <v>0.040038507580829</v>
+      </c>
+      <c r="BB199">
+        <v>0.031423155386562</v>
+      </c>
+      <c r="BC199">
+        <v>0.027569347101493</v>
+      </c>
+      <c r="BD199">
+        <v>0.030757441515313</v>
+      </c>
+      <c r="BE199">
+        <v>0.033355564714437</v>
+      </c>
     </row>
     <row r="200" spans="1:57">
       <c r="A200" t="s">
         <v>254</v>
+      </c>
+      <c r="B200">
+        <v>0.072960352701781</v>
+      </c>
+      <c r="C200">
+        <v>0.06932199811913101</v>
+      </c>
+      <c r="D200">
+        <v>0.066925731558018</v>
+      </c>
+      <c r="F200">
+        <v>0.064785732025993</v>
+      </c>
+      <c r="G200">
+        <v>0.05400737072254</v>
+      </c>
+      <c r="H200">
+        <v>0.058101476716908</v>
+      </c>
+      <c r="I200">
+        <v>0.047033650437939</v>
+      </c>
+      <c r="J200">
+        <v>0.045393671958731</v>
+      </c>
+      <c r="K200">
+        <v>0.046543056329954</v>
+      </c>
+      <c r="L200">
+        <v>0.048302191319422</v>
+      </c>
+      <c r="M200">
+        <v>0.056917632671693</v>
+      </c>
+      <c r="N200">
+        <v>0.059893740003529</v>
+      </c>
+      <c r="O200">
+        <v>0.031863173165427</v>
+      </c>
+      <c r="P200">
+        <v>0.057071495050643</v>
+      </c>
+      <c r="Q200">
+        <v>0.052534659870061</v>
+      </c>
+      <c r="R200">
+        <v>0.050837481511949</v>
+      </c>
+      <c r="S200">
+        <v>0.066616509215547</v>
+      </c>
+      <c r="T200">
+        <v>0.05611015856948</v>
+      </c>
+      <c r="U200">
+        <v>0.055679341908934</v>
+      </c>
+      <c r="V200">
+        <v>0.065804699254736</v>
+      </c>
+      <c r="W200">
+        <v>0.046187757553233</v>
+      </c>
+      <c r="X200">
+        <v>0.046487281825346</v>
+      </c>
+      <c r="Y200">
+        <v>0.05052298232608</v>
+      </c>
+      <c r="Z200">
+        <v>0.04566867346136</v>
+      </c>
+      <c r="AA200">
+        <v>0.042251847058997</v>
+      </c>
+      <c r="AB200">
+        <v>0.051995135020124</v>
+      </c>
+      <c r="AC200">
+        <v>0.074466130726228</v>
+      </c>
+      <c r="AD200">
+        <v>0.066568580994567</v>
+      </c>
+      <c r="AE200">
+        <v>0.055043136037183</v>
+      </c>
+      <c r="AF200">
+        <v>0.057918073458903</v>
+      </c>
+      <c r="AG200">
+        <v>0.049692493388909</v>
+      </c>
+      <c r="AH200">
+        <v>0.07141605962481</v>
+      </c>
+      <c r="AI200">
+        <v>0.048335461134739</v>
+      </c>
+      <c r="AJ200">
+        <v>0.046267980589534</v>
+      </c>
+      <c r="AK200">
+        <v>0.052352553003399</v>
+      </c>
+      <c r="AL200">
+        <v>0.048007423180615</v>
+      </c>
+      <c r="AM200">
+        <v>0.051069539854303</v>
+      </c>
+      <c r="AN200">
+        <v>0.05190885976483</v>
+      </c>
+      <c r="AO200">
+        <v>0.05779362027516</v>
+      </c>
+      <c r="AP200">
+        <v>0.044748121724452</v>
+      </c>
+      <c r="AQ200">
+        <v>0.0471100035955</v>
+      </c>
+      <c r="AR200">
+        <v>0.08128173235582099</v>
+      </c>
+      <c r="AS200">
+        <v>0.047820518562304</v>
+      </c>
+      <c r="AT200">
+        <v>0.053774842675955</v>
+      </c>
+      <c r="AU200">
+        <v>0.049901073420962</v>
+      </c>
+      <c r="AV200">
+        <v>0.058455658756022</v>
+      </c>
+      <c r="AW200">
+        <v>0.049161755806869</v>
+      </c>
+      <c r="AX200">
+        <v>0.060912394501243</v>
+      </c>
+      <c r="AY200">
+        <v>0.051714499308891</v>
+      </c>
+      <c r="AZ200">
+        <v>0.085531671329859</v>
+      </c>
+      <c r="BA200">
+        <v>0.051947562925779</v>
+      </c>
+      <c r="BB200">
+        <v>0.046333157586519</v>
+      </c>
+      <c r="BC200">
+        <v>0.052192904900678</v>
+      </c>
+      <c r="BD200">
+        <v>0.055791360918829</v>
+      </c>
+      <c r="BE200">
+        <v>0.054232892164952</v>
+      </c>
+    </row>
+    <row r="201" spans="1:57">
+      <c r="A201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B201">
+        <v>0.062942167715434</v>
+      </c>
+      <c r="C201">
+        <v>0.076832107318223</v>
+      </c>
+      <c r="D201">
+        <v>0.055678755166565</v>
+      </c>
+      <c r="F201">
+        <v>0.047655865065464</v>
+      </c>
+      <c r="G201">
+        <v>0.055678611048956</v>
+      </c>
+      <c r="H201">
+        <v>0.062417078703609</v>
+      </c>
+      <c r="I201">
+        <v>0.04988538520012</v>
+      </c>
+      <c r="J201">
+        <v>0.047894608505466</v>
+      </c>
+      <c r="K201">
+        <v>0.049321925610216</v>
+      </c>
+      <c r="L201">
+        <v>0.054629376879733</v>
+      </c>
+      <c r="M201">
+        <v>0.061014111405554</v>
+      </c>
+      <c r="N201">
+        <v>0.057770902372154</v>
+      </c>
+      <c r="O201">
+        <v>0.034628384945807</v>
+      </c>
+      <c r="P201">
+        <v>0.056159319742915</v>
+      </c>
+      <c r="Q201">
+        <v>0.056507359729599</v>
+      </c>
+      <c r="R201">
+        <v>0.051022536519295</v>
+      </c>
+      <c r="S201">
+        <v>0.06453060423691601</v>
+      </c>
+      <c r="T201">
+        <v>0.057236967645642</v>
+      </c>
+      <c r="U201">
+        <v>0.058539592324018</v>
+      </c>
+      <c r="V201">
+        <v>0.07008056554825</v>
+      </c>
+      <c r="W201">
+        <v>0.056939755506581</v>
+      </c>
+      <c r="X201">
+        <v>0.052582901909005</v>
+      </c>
+      <c r="Y201">
+        <v>0.056920063971646</v>
+      </c>
+      <c r="Z201">
+        <v>0.05748374272499</v>
+      </c>
+      <c r="AA201">
+        <v>0.052937430109873</v>
+      </c>
+      <c r="AB201">
+        <v>0.060253640813648</v>
+      </c>
+      <c r="AC201">
+        <v>0.06532111667827099</v>
+      </c>
+      <c r="AD201">
+        <v>0.076921930576588</v>
+      </c>
+      <c r="AE201">
+        <v>0.06502790928730701</v>
+      </c>
+      <c r="AF201">
+        <v>0.059095138491728</v>
+      </c>
+      <c r="AG201">
+        <v>0.056943377445941</v>
+      </c>
+      <c r="AH201">
+        <v>0.081050678382476</v>
+      </c>
+      <c r="AI201">
+        <v>0.052352867500923</v>
+      </c>
+      <c r="AJ201">
+        <v>0.050634413198851</v>
+      </c>
+      <c r="AK201">
+        <v>0.057325487631923</v>
+      </c>
+      <c r="AL201">
+        <v>0.054893076233475</v>
+      </c>
+      <c r="AM201">
+        <v>0.052194866831231</v>
+      </c>
+      <c r="AN201">
+        <v>0.05529994778309</v>
+      </c>
+      <c r="AO201">
+        <v>0.063391427171613</v>
+      </c>
+      <c r="AP201">
+        <v>0.04988516557589</v>
+      </c>
+      <c r="AQ201">
+        <v>0.052007948535185</v>
+      </c>
+      <c r="AR201">
+        <v>0.07800664054602199</v>
+      </c>
+      <c r="AS201">
+        <v>0.05185515844966</v>
+      </c>
+      <c r="AT201">
+        <v>0.057796083385071</v>
+      </c>
+      <c r="AU201">
+        <v>0.057263617322551</v>
+      </c>
+      <c r="AV201">
+        <v>0.063257931243629</v>
+      </c>
+      <c r="AW201">
+        <v>0.052064438965304</v>
+      </c>
+      <c r="AX201">
+        <v>0.060404657451295</v>
+      </c>
+      <c r="AY201">
+        <v>0.048999218105517</v>
+      </c>
+      <c r="AZ201">
+        <v>0.075580539854932</v>
+      </c>
+      <c r="BA201">
+        <v>0.055060141615547</v>
+      </c>
+      <c r="BB201">
+        <v>0.045654863624054</v>
+      </c>
+      <c r="BC201">
+        <v>0.050292260535609</v>
+      </c>
+      <c r="BD201">
+        <v>0.052228961360273</v>
+      </c>
+      <c r="BE201">
+        <v>0.053223387671244</v>
+      </c>
+    </row>
+    <row r="202" spans="1:57">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202">
+        <v>0.057239871530782</v>
+      </c>
+      <c r="C202">
+        <v>0.06447276074363301</v>
+      </c>
+      <c r="D202">
+        <v>0.05357039171125</v>
+      </c>
+      <c r="F202">
+        <v>0.047652040544</v>
+      </c>
+      <c r="G202">
+        <v>0.050575683997647</v>
+      </c>
+      <c r="H202">
+        <v>0.059776391261376</v>
+      </c>
+      <c r="I202">
+        <v>0.046825413423194</v>
+      </c>
+      <c r="J202">
+        <v>0.042901333850918</v>
+      </c>
+      <c r="K202">
+        <v>0.046987497439987</v>
+      </c>
+      <c r="L202">
+        <v>0.049305388771167</v>
+      </c>
+      <c r="M202">
+        <v>0.056237667852631</v>
+      </c>
+      <c r="N202">
+        <v>0.056333319587841</v>
+      </c>
+      <c r="O202">
+        <v>0.028768238669416</v>
+      </c>
+      <c r="P202">
+        <v>0.049721410423936</v>
+      </c>
+      <c r="Q202">
+        <v>0.055050115481605</v>
+      </c>
+      <c r="R202">
+        <v>0.047251069500908</v>
+      </c>
+      <c r="S202">
+        <v>0.058527510373764</v>
+      </c>
+      <c r="T202">
+        <v>0.049550531892891</v>
+      </c>
+      <c r="U202">
+        <v>0.04821751487933</v>
+      </c>
+      <c r="V202">
+        <v>0.057925270552898</v>
+      </c>
+      <c r="W202">
+        <v>0.039910539896107</v>
+      </c>
+      <c r="X202">
+        <v>0.03911811032908</v>
+      </c>
+      <c r="Y202">
+        <v>0.043547176624838</v>
+      </c>
+      <c r="Z202">
+        <v>0.04087832212925</v>
+      </c>
+      <c r="AA202">
+        <v>0.038187359763098</v>
+      </c>
+      <c r="AB202">
+        <v>0.04965268283228</v>
+      </c>
+      <c r="AC202">
+        <v>0.07377829750591799</v>
+      </c>
+      <c r="AD202">
+        <v>0.063011155551582</v>
+      </c>
+      <c r="AE202">
+        <v>0.052802371570466</v>
+      </c>
+      <c r="AF202">
+        <v>0.054908393115583</v>
+      </c>
+      <c r="AG202">
+        <v>0.053549670043582</v>
+      </c>
+      <c r="AH202">
+        <v>0.070975850127259</v>
+      </c>
+      <c r="AI202">
+        <v>0.045216950484251</v>
+      </c>
+      <c r="AJ202">
+        <v>0.042959740766357</v>
+      </c>
+      <c r="AK202">
+        <v>0.050057455009089</v>
+      </c>
+      <c r="AL202">
+        <v>0.043987104824909</v>
+      </c>
+      <c r="AM202">
+        <v>0.047445989511853</v>
+      </c>
+      <c r="AN202">
+        <v>0.052334976753218</v>
+      </c>
+      <c r="AO202">
+        <v>0.062217357868657</v>
+      </c>
+      <c r="AP202">
+        <v>0.048551612478626</v>
+      </c>
+      <c r="AQ202">
+        <v>0.051241657679244</v>
+      </c>
+      <c r="AR202">
+        <v>0.08112126482241799</v>
+      </c>
+      <c r="AS202">
+        <v>0.050626496979557</v>
+      </c>
+      <c r="AT202">
+        <v>0.058890726616584</v>
+      </c>
+      <c r="AU202">
+        <v>0.06665741362137501</v>
+      </c>
+      <c r="AV202">
+        <v>0.06372723327755</v>
+      </c>
+      <c r="AW202">
+        <v>0.054972815406301</v>
+      </c>
+      <c r="AX202">
+        <v>0.06539878111279999</v>
+      </c>
+      <c r="AY202">
+        <v>0.050645384743208</v>
+      </c>
+      <c r="AZ202">
+        <v>0.07480124795177399</v>
+      </c>
+      <c r="BA202">
+        <v>0.058554655005836</v>
+      </c>
+      <c r="BB202">
+        <v>0.047749634969037</v>
+      </c>
+      <c r="BC202">
+        <v>0.052704234724526</v>
+      </c>
+      <c r="BD202">
+        <v>0.055726604373504</v>
+      </c>
+      <c r="BE202">
+        <v>0.057473523415556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:57">
+      <c r="A203" t="s">
+        <v>257</v>
+      </c>
+      <c r="B203">
+        <v>0.053787858266768</v>
+      </c>
+      <c r="C203">
+        <v>0.064217578083422</v>
+      </c>
+      <c r="D203">
+        <v>0.053750320542592</v>
+      </c>
+      <c r="F203">
+        <v>0.04605977530563</v>
+      </c>
+      <c r="G203">
+        <v>0.04841089934952</v>
+      </c>
+      <c r="H203">
+        <v>0.054910051010528</v>
+      </c>
+      <c r="I203">
+        <v>0.045298013551403</v>
+      </c>
+      <c r="J203">
+        <v>0.045568723684285</v>
+      </c>
+      <c r="K203">
+        <v>0.045344160726492</v>
+      </c>
+      <c r="L203">
+        <v>0.049803617021394</v>
+      </c>
+      <c r="M203">
+        <v>0.057224339272908</v>
+      </c>
+      <c r="N203">
+        <v>0.058201668711171</v>
+      </c>
+      <c r="O203">
+        <v>0.03096431500829</v>
+      </c>
+      <c r="P203">
+        <v>0.058321610316679</v>
+      </c>
+      <c r="Q203">
+        <v>0.057980425230833</v>
+      </c>
+      <c r="R203">
+        <v>0.051512846672651</v>
+      </c>
+      <c r="S203">
+        <v>0.06444690943535</v>
+      </c>
+      <c r="T203">
+        <v>0.058521902570185</v>
+      </c>
+      <c r="U203">
+        <v>0.056540555250892</v>
+      </c>
+      <c r="V203">
+        <v>0.06893271803310901</v>
+      </c>
+      <c r="W203">
+        <v>0.050147023546503</v>
+      </c>
+      <c r="X203">
+        <v>0.048741605684827</v>
+      </c>
+      <c r="Y203">
+        <v>0.053376079052184</v>
+      </c>
+      <c r="Z203">
+        <v>0.047759445023717</v>
+      </c>
+      <c r="AA203">
+        <v>0.042431966817826</v>
+      </c>
+      <c r="AB203">
+        <v>0.053749584724794</v>
+      </c>
+      <c r="AC203">
+        <v>0.07613043534031499</v>
+      </c>
+      <c r="AD203">
+        <v>0.068119494243815</v>
+      </c>
+      <c r="AE203">
+        <v>0.054885893351456</v>
+      </c>
+      <c r="AF203">
+        <v>0.059547309180769</v>
+      </c>
+      <c r="AG203">
+        <v>0.060599782360616</v>
+      </c>
+      <c r="AH203">
+        <v>0.076413115947528</v>
+      </c>
+      <c r="AI203">
+        <v>0.047284140553018</v>
+      </c>
+      <c r="AJ203">
+        <v>0.043551571663421</v>
+      </c>
+      <c r="AK203">
+        <v>0.049339181288424</v>
+      </c>
+      <c r="AL203">
+        <v>0.045164912472906</v>
+      </c>
+      <c r="AM203">
+        <v>0.048563201349032</v>
+      </c>
+      <c r="AN203">
+        <v>0.05880125354473</v>
+      </c>
+      <c r="AO203">
+        <v>0.06868179999799801</v>
+      </c>
+      <c r="AP203">
+        <v>0.053728862696027</v>
+      </c>
+      <c r="AQ203">
+        <v>0.055836698956009</v>
+      </c>
+      <c r="AR203">
+        <v>0.06586051743850201</v>
+      </c>
+      <c r="AS203">
+        <v>0.054252526864763</v>
+      </c>
+      <c r="AT203">
+        <v>0.060289487935493</v>
+      </c>
+      <c r="AU203">
+        <v>0.072669125740899</v>
+      </c>
+      <c r="AV203">
+        <v>0.06542831531186399</v>
+      </c>
+      <c r="AW203">
+        <v>0.055251747017938</v>
+      </c>
+      <c r="AX203">
+        <v>0.061065086354791</v>
+      </c>
+      <c r="AY203">
+        <v>0.049918297233704</v>
+      </c>
+      <c r="AZ203">
+        <v>0.057547184242071</v>
+      </c>
+      <c r="BA203">
+        <v>0.052621945035247</v>
+      </c>
+      <c r="BB203">
+        <v>0.045407570113341</v>
+      </c>
+      <c r="BC203">
+        <v>0.049721665435199</v>
+      </c>
+      <c r="BD203">
+        <v>0.054491847067095</v>
+      </c>
+      <c r="BE203">
+        <v>0.054320330233501</v>
+      </c>
+    </row>
+    <row r="204" spans="1:57">
+      <c r="A204" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:57">
+      <c r="A205" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:57">
+      <c r="A206" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:57">
+      <c r="A207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:57">
+      <c r="A208" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>Alaska</t>
   </si>
@@ -804,6 +804,27 @@
   <si>
     <t>25 08 2020</t>
   </si>
+  <si>
+    <t>26 08 2020</t>
+  </si>
+  <si>
+    <t>27 08 2020</t>
+  </si>
+  <si>
+    <t>28 08 2020</t>
+  </si>
+  <si>
+    <t>29 08 2020</t>
+  </si>
+  <si>
+    <t>30 08 2020</t>
+  </si>
+  <si>
+    <t>31 08 2020</t>
+  </si>
+  <si>
+    <t>01 09 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1134,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE208"/>
+  <dimension ref="A1:BE215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20007,6 +20028,9 @@
       <c r="D110">
         <v>0.047921534001636</v>
       </c>
+      <c r="E110">
+        <v>0.1126381554953</v>
+      </c>
       <c r="F110">
         <v>0.048291415134833</v>
       </c>
@@ -20177,6 +20201,9 @@
       <c r="D111">
         <v>0.055008505770007</v>
       </c>
+      <c r="E111">
+        <v>0.15068922305764</v>
+      </c>
       <c r="F111">
         <v>0.042842611718892</v>
       </c>
@@ -20347,6 +20374,9 @@
       <c r="D112">
         <v>0.042630045674156</v>
       </c>
+      <c r="E112">
+        <v>0.10639717425432</v>
+      </c>
       <c r="F112">
         <v>0.034749727186826</v>
       </c>
@@ -20517,6 +20547,9 @@
       <c r="D113">
         <v>0.035836561419953</v>
       </c>
+      <c r="E113">
+        <v>0.095591569961318</v>
+      </c>
       <c r="F113">
         <v>0.03683964502327</v>
       </c>
@@ -20687,6 +20720,9 @@
       <c r="D114">
         <v>0.023358959943537</v>
       </c>
+      <c r="E114">
+        <v>0.11287363430221</v>
+      </c>
       <c r="F114">
         <v>0.028925376914645</v>
       </c>
@@ -20857,6 +20893,9 @@
       <c r="D115">
         <v>0.016982657096503</v>
       </c>
+      <c r="E115">
+        <v>0.13618057381215</v>
+      </c>
       <c r="F115">
         <v>0.026182314484762</v>
       </c>
@@ -21027,6 +21066,9 @@
       <c r="D116">
         <v>0.026147697078672</v>
       </c>
+      <c r="E116">
+        <v>0.12518674136321</v>
+      </c>
       <c r="F116">
         <v>0.032898164856041</v>
       </c>
@@ -35978,25 +36020,1215 @@
       <c r="A204" t="s">
         <v>258</v>
       </c>
+      <c r="B204">
+        <v>0.046683440466169</v>
+      </c>
+      <c r="C204">
+        <v>0.056200404008414</v>
+      </c>
+      <c r="D204">
+        <v>0.046651607854032</v>
+      </c>
+      <c r="F204">
+        <v>0.041336613290236</v>
+      </c>
+      <c r="G204">
+        <v>0.048038303349222</v>
+      </c>
+      <c r="H204">
+        <v>0.055995147333577</v>
+      </c>
+      <c r="I204">
+        <v>0.048383924480874</v>
+      </c>
+      <c r="J204">
+        <v>0.051627236518615</v>
+      </c>
+      <c r="K204">
+        <v>0.048066024903547</v>
+      </c>
+      <c r="L204">
+        <v>0.055455500414771</v>
+      </c>
+      <c r="M204">
+        <v>0.058863550689057</v>
+      </c>
+      <c r="N204">
+        <v>0.061207432844621</v>
+      </c>
+      <c r="O204">
+        <v>0.031618405102338</v>
+      </c>
+      <c r="P204">
+        <v>0.046850601111956</v>
+      </c>
+      <c r="Q204">
+        <v>0.052518443748505</v>
+      </c>
+      <c r="R204">
+        <v>0.048994644365377</v>
+      </c>
+      <c r="S204">
+        <v>0.055053271193594</v>
+      </c>
+      <c r="T204">
+        <v>0.047053441843619</v>
+      </c>
+      <c r="U204">
+        <v>0.045373756825527</v>
+      </c>
+      <c r="V204">
+        <v>0.056228951060364</v>
+      </c>
+      <c r="W204">
+        <v>0.047384896492441</v>
+      </c>
+      <c r="X204">
+        <v>0.042520435921899</v>
+      </c>
+      <c r="Y204">
+        <v>0.044548318316349</v>
+      </c>
+      <c r="Z204">
+        <v>0.046525236036174</v>
+      </c>
+      <c r="AA204">
+        <v>0.042717459270171</v>
+      </c>
+      <c r="AB204">
+        <v>0.054693335547293</v>
+      </c>
+      <c r="AC204">
+        <v>0.064519171547656</v>
+      </c>
+      <c r="AD204">
+        <v>0.066370298570534</v>
+      </c>
+      <c r="AE204">
+        <v>0.056116023823259</v>
+      </c>
+      <c r="AF204">
+        <v>0.050358105970018</v>
+      </c>
+      <c r="AG204">
+        <v>0.049011091169575</v>
+      </c>
+      <c r="AH204">
+        <v>0.078325138969811</v>
+      </c>
+      <c r="AI204">
+        <v>0.046180973241005</v>
+      </c>
+      <c r="AJ204">
+        <v>0.044010327496982</v>
+      </c>
+      <c r="AK204">
+        <v>0.051119717320075</v>
+      </c>
+      <c r="AL204">
+        <v>0.0486561837547</v>
+      </c>
+      <c r="AM204">
+        <v>0.045452856742867</v>
+      </c>
+      <c r="AN204">
+        <v>0.048938617048667</v>
+      </c>
+      <c r="AO204">
+        <v>0.055032100727501</v>
+      </c>
+      <c r="AP204">
+        <v>0.043718350467985</v>
+      </c>
+      <c r="AQ204">
+        <v>0.045291820030389</v>
+      </c>
+      <c r="AR204">
+        <v>0.06984913488143001</v>
+      </c>
+      <c r="AS204">
+        <v>0.045547897254654</v>
+      </c>
+      <c r="AT204">
+        <v>0.047145823455251</v>
+      </c>
+      <c r="AU204">
+        <v>0.058797478151269</v>
+      </c>
+      <c r="AV204">
+        <v>0.055480643855212</v>
+      </c>
+      <c r="AW204">
+        <v>0.047528425397958</v>
+      </c>
+      <c r="AX204">
+        <v>0.055320506270706</v>
+      </c>
+      <c r="AY204">
+        <v>0.044707874079022</v>
+      </c>
+      <c r="AZ204">
+        <v>0.061186498874191</v>
+      </c>
+      <c r="BA204">
+        <v>0.049106218075347</v>
+      </c>
+      <c r="BB204">
+        <v>0.042617927802584</v>
+      </c>
+      <c r="BC204">
+        <v>0.043797370592485</v>
+      </c>
+      <c r="BD204">
+        <v>0.047574456136289</v>
+      </c>
+      <c r="BE204">
+        <v>0.04848763534111</v>
+      </c>
     </row>
     <row r="205" spans="1:57">
       <c r="A205" t="s">
         <v>259</v>
       </c>
+      <c r="B205">
+        <v>0.052565423405397</v>
+      </c>
+      <c r="C205">
+        <v>0.031856187867539</v>
+      </c>
+      <c r="D205">
+        <v>0.025106582539065</v>
+      </c>
+      <c r="F205">
+        <v>0.036402806060033</v>
+      </c>
+      <c r="G205">
+        <v>0.036414068516146</v>
+      </c>
+      <c r="H205">
+        <v>0.035655887468696</v>
+      </c>
+      <c r="I205">
+        <v>0.029628681915863</v>
+      </c>
+      <c r="J205">
+        <v>0.042733853413178</v>
+      </c>
+      <c r="K205">
+        <v>0.026758203193414</v>
+      </c>
+      <c r="L205">
+        <v>0.024458179079974</v>
+      </c>
+      <c r="M205">
+        <v>0.022658881792587</v>
+      </c>
+      <c r="N205">
+        <v>0.061907791781783</v>
+      </c>
+      <c r="O205">
+        <v>0.022810348466062</v>
+      </c>
+      <c r="P205">
+        <v>0.022416583301884</v>
+      </c>
+      <c r="Q205">
+        <v>0.031586295474698</v>
+      </c>
+      <c r="R205">
+        <v>0.025967069068695</v>
+      </c>
+      <c r="S205">
+        <v>0.022317650133208</v>
+      </c>
+      <c r="T205">
+        <v>0.023293127042637</v>
+      </c>
+      <c r="U205">
+        <v>0.023565208716506</v>
+      </c>
+      <c r="V205">
+        <v>0.028797222559338</v>
+      </c>
+      <c r="W205">
+        <v>0.035932995269766</v>
+      </c>
+      <c r="X205">
+        <v>0.029246098546716</v>
+      </c>
+      <c r="Y205">
+        <v>0.031645149374433</v>
+      </c>
+      <c r="Z205">
+        <v>0.030740014289082</v>
+      </c>
+      <c r="AA205">
+        <v>0.027517345108915</v>
+      </c>
+      <c r="AB205">
+        <v>0.026662528223673</v>
+      </c>
+      <c r="AC205">
+        <v>0.07064177968194001</v>
+      </c>
+      <c r="AD205">
+        <v>0.026182750251683</v>
+      </c>
+      <c r="AE205">
+        <v>0.038410150633406</v>
+      </c>
+      <c r="AF205">
+        <v>0.022208575601136</v>
+      </c>
+      <c r="AG205">
+        <v>0.026608351855803</v>
+      </c>
+      <c r="AH205">
+        <v>0.026378383298011</v>
+      </c>
+      <c r="AI205">
+        <v>0.025994399749842</v>
+      </c>
+      <c r="AJ205">
+        <v>0.026544676826747</v>
+      </c>
+      <c r="AK205">
+        <v>0.03380126119371</v>
+      </c>
+      <c r="AL205">
+        <v>0.029883534620706</v>
+      </c>
+      <c r="AM205">
+        <v>0.030964568313613</v>
+      </c>
+      <c r="AN205">
+        <v>0.027020061843526</v>
+      </c>
+      <c r="AO205">
+        <v>0.025040919700878</v>
+      </c>
+      <c r="AP205">
+        <v>0.032569977954751</v>
+      </c>
+      <c r="AQ205">
+        <v>0.030385207763886</v>
+      </c>
+      <c r="AR205">
+        <v>0.068854847778026</v>
+      </c>
+      <c r="AS205">
+        <v>0.035393488343647</v>
+      </c>
+      <c r="AT205">
+        <v>0.025225294767957</v>
+      </c>
+      <c r="AU205">
+        <v>0.029395945846766</v>
+      </c>
+      <c r="AV205">
+        <v>0.024065799498844</v>
+      </c>
+      <c r="AW205">
+        <v>0.023564521173849</v>
+      </c>
+      <c r="AX205">
+        <v>0.033940155206141</v>
+      </c>
+      <c r="AY205">
+        <v>0.026319257681819</v>
+      </c>
+      <c r="AZ205">
+        <v>0.06949411845103499</v>
+      </c>
+      <c r="BA205">
+        <v>0.03600833837879</v>
+      </c>
+      <c r="BB205">
+        <v>0.03140896571439</v>
+      </c>
+      <c r="BC205">
+        <v>0.028700168069771</v>
+      </c>
+      <c r="BD205">
+        <v>0.030067031563947</v>
+      </c>
+      <c r="BE205">
+        <v>0.034299250861873</v>
+      </c>
     </row>
     <row r="206" spans="1:57">
       <c r="A206" t="s">
         <v>260</v>
       </c>
+      <c r="B206">
+        <v>0.044039264801174</v>
+      </c>
+      <c r="C206">
+        <v>0.023007009679861</v>
+      </c>
+      <c r="D206">
+        <v>0.019936804949728</v>
+      </c>
+      <c r="F206">
+        <v>0.030220140978258</v>
+      </c>
+      <c r="G206">
+        <v>0.036617542495661</v>
+      </c>
+      <c r="H206">
+        <v>0.04061118783525</v>
+      </c>
+      <c r="I206">
+        <v>0.034309561211115</v>
+      </c>
+      <c r="J206">
+        <v>0.046480965586106</v>
+      </c>
+      <c r="K206">
+        <v>0.030530196128756</v>
+      </c>
+      <c r="L206">
+        <v>0.023776130623841</v>
+      </c>
+      <c r="M206">
+        <v>0.022072489870766</v>
+      </c>
+      <c r="N206">
+        <v>0.052062428242949</v>
+      </c>
+      <c r="O206">
+        <v>0.028919292244575</v>
+      </c>
+      <c r="P206">
+        <v>0.028572108734072</v>
+      </c>
+      <c r="Q206">
+        <v>0.035499097931588</v>
+      </c>
+      <c r="R206">
+        <v>0.034842597976906</v>
+      </c>
+      <c r="S206">
+        <v>0.030107776046265</v>
+      </c>
+      <c r="T206">
+        <v>0.027686474571895</v>
+      </c>
+      <c r="U206">
+        <v>0.026142026775987</v>
+      </c>
+      <c r="V206">
+        <v>0.029023278539641</v>
+      </c>
+      <c r="W206">
+        <v>0.033926296645462</v>
+      </c>
+      <c r="X206">
+        <v>0.028309092994011</v>
+      </c>
+      <c r="Y206">
+        <v>0.034386645555147</v>
+      </c>
+      <c r="Z206">
+        <v>0.029799751136748</v>
+      </c>
+      <c r="AA206">
+        <v>0.028352101807721</v>
+      </c>
+      <c r="AB206">
+        <v>0.026117070307779</v>
+      </c>
+      <c r="AC206">
+        <v>0.065570668549605</v>
+      </c>
+      <c r="AD206">
+        <v>0.023102146811611</v>
+      </c>
+      <c r="AE206">
+        <v>0.038517227452654</v>
+      </c>
+      <c r="AF206">
+        <v>0.025862015152671</v>
+      </c>
+      <c r="AG206">
+        <v>0.028641798010673</v>
+      </c>
+      <c r="AH206">
+        <v>0.027813404564224</v>
+      </c>
+      <c r="AI206">
+        <v>0.028460684413984</v>
+      </c>
+      <c r="AJ206">
+        <v>0.029811248361259</v>
+      </c>
+      <c r="AK206">
+        <v>0.041079641770837</v>
+      </c>
+      <c r="AL206">
+        <v>0.032085358493526</v>
+      </c>
+      <c r="AM206">
+        <v>0.039535445649472</v>
+      </c>
+      <c r="AN206">
+        <v>0.028741353895932</v>
+      </c>
+      <c r="AO206">
+        <v>0.023215000439615</v>
+      </c>
+      <c r="AP206">
+        <v>0.029802161499729</v>
+      </c>
+      <c r="AQ206">
+        <v>0.028704881789951</v>
+      </c>
+      <c r="AR206">
+        <v>0.059211249271225</v>
+      </c>
+      <c r="AS206">
+        <v>0.031711450457005</v>
+      </c>
+      <c r="AT206">
+        <v>0.021009712775696</v>
+      </c>
+      <c r="AU206">
+        <v>0.027993252026991</v>
+      </c>
+      <c r="AV206">
+        <v>0.020592004657807</v>
+      </c>
+      <c r="AW206">
+        <v>0.02120430222182</v>
+      </c>
+      <c r="AX206">
+        <v>0.027664565981026</v>
+      </c>
+      <c r="AY206">
+        <v>0.023809005494368</v>
+      </c>
+      <c r="AZ206">
+        <v>0.057059968513108</v>
+      </c>
+      <c r="BA206">
+        <v>0.034455612709892</v>
+      </c>
+      <c r="BB206">
+        <v>0.025708318746799</v>
+      </c>
+      <c r="BC206">
+        <v>0.023729490355641</v>
+      </c>
+      <c r="BD206">
+        <v>0.025533813086834</v>
+      </c>
+      <c r="BE206">
+        <v>0.027836211415919</v>
+      </c>
     </row>
     <row r="207" spans="1:57">
       <c r="A207" t="s">
         <v>261</v>
       </c>
+      <c r="B207">
+        <v>0.06789005111190601</v>
+      </c>
+      <c r="C207">
+        <v>0.077804484980724</v>
+      </c>
+      <c r="D207">
+        <v>0.067105328578396</v>
+      </c>
+      <c r="F207">
+        <v>0.051367748873847</v>
+      </c>
+      <c r="G207">
+        <v>0.055334158890712</v>
+      </c>
+      <c r="H207">
+        <v>0.060547537283921</v>
+      </c>
+      <c r="I207">
+        <v>0.049864646646107</v>
+      </c>
+      <c r="J207">
+        <v>0.044855155330875</v>
+      </c>
+      <c r="K207">
+        <v>0.049313459422902</v>
+      </c>
+      <c r="L207">
+        <v>0.055473764685144</v>
+      </c>
+      <c r="M207">
+        <v>0.062586951685258</v>
+      </c>
+      <c r="N207">
+        <v>0.056505528155853</v>
+      </c>
+      <c r="O207">
+        <v>0.032935688908348</v>
+      </c>
+      <c r="P207">
+        <v>0.067720184478632</v>
+      </c>
+      <c r="Q207">
+        <v>0.058753902610052</v>
+      </c>
+      <c r="R207">
+        <v>0.049449961143587</v>
+      </c>
+      <c r="S207">
+        <v>0.061023236998493</v>
+      </c>
+      <c r="T207">
+        <v>0.056939779520191</v>
+      </c>
+      <c r="U207">
+        <v>0.054561699555435</v>
+      </c>
+      <c r="V207">
+        <v>0.048431250922007</v>
+      </c>
+      <c r="W207">
+        <v>0.048867318173821</v>
+      </c>
+      <c r="X207">
+        <v>0.046016558367776</v>
+      </c>
+      <c r="Y207">
+        <v>0.050250768941291</v>
+      </c>
+      <c r="Z207">
+        <v>0.051807289191389</v>
+      </c>
+      <c r="AA207">
+        <v>0.046739784397153</v>
+      </c>
+      <c r="AB207">
+        <v>0.066464128596896</v>
+      </c>
+      <c r="AC207">
+        <v>0.067708299387525</v>
+      </c>
+      <c r="AD207">
+        <v>0.068769166148587</v>
+      </c>
+      <c r="AE207">
+        <v>0.061750443213952</v>
+      </c>
+      <c r="AF207">
+        <v>0.060510149738722</v>
+      </c>
+      <c r="AG207">
+        <v>0.060808220637167</v>
+      </c>
+      <c r="AH207">
+        <v>0.084096620912916</v>
+      </c>
+      <c r="AI207">
+        <v>0.049796730992532</v>
+      </c>
+      <c r="AJ207">
+        <v>0.04353963737968</v>
+      </c>
+      <c r="AK207">
+        <v>0.049256391716108</v>
+      </c>
+      <c r="AL207">
+        <v>0.047506632113115</v>
+      </c>
+      <c r="AM207">
+        <v>0.047751362172069</v>
+      </c>
+      <c r="AN207">
+        <v>0.058308368938023</v>
+      </c>
+      <c r="AO207">
+        <v>0.067905958362226</v>
+      </c>
+      <c r="AP207">
+        <v>0.049378809594619</v>
+      </c>
+      <c r="AQ207">
+        <v>0.052733430407725</v>
+      </c>
+      <c r="AR207">
+        <v>0.066974733450175</v>
+      </c>
+      <c r="AS207">
+        <v>0.051504508514702</v>
+      </c>
+      <c r="AT207">
+        <v>0.063935832501106</v>
+      </c>
+      <c r="AU207">
+        <v>0.074703847510002</v>
+      </c>
+      <c r="AV207">
+        <v>0.06508738828175301</v>
+      </c>
+      <c r="AW207">
+        <v>0.0554393116545</v>
+      </c>
+      <c r="AX207">
+        <v>0.06554294042434999</v>
+      </c>
+      <c r="AY207">
+        <v>0.051588355673297</v>
+      </c>
+      <c r="AZ207">
+        <v>0.061474286029963</v>
+      </c>
+      <c r="BA207">
+        <v>0.055581401505202</v>
+      </c>
+      <c r="BB207">
+        <v>0.045193991513779</v>
+      </c>
+      <c r="BC207">
+        <v>0.051509459474739</v>
+      </c>
+      <c r="BD207">
+        <v>0.053463554809561</v>
+      </c>
+      <c r="BE207">
+        <v>0.061296101656191</v>
+      </c>
     </row>
     <row r="208" spans="1:57">
       <c r="A208" t="s">
         <v>262</v>
+      </c>
+      <c r="B208">
+        <v>0.061858358471342</v>
+      </c>
+      <c r="C208">
+        <v>0.081225892598003</v>
+      </c>
+      <c r="D208">
+        <v>0.07106271891773799</v>
+      </c>
+      <c r="F208">
+        <v>0.050871547914746</v>
+      </c>
+      <c r="G208">
+        <v>0.046696758794874</v>
+      </c>
+      <c r="H208">
+        <v>0.0611851283397</v>
+      </c>
+      <c r="I208">
+        <v>0.054967720026278</v>
+      </c>
+      <c r="J208">
+        <v>0.053598229440533</v>
+      </c>
+      <c r="K208">
+        <v>0.054261189915253</v>
+      </c>
+      <c r="L208">
+        <v>0.063855125324513</v>
+      </c>
+      <c r="M208">
+        <v>0.070231653455902</v>
+      </c>
+      <c r="N208">
+        <v>0.053450589527012</v>
+      </c>
+      <c r="O208">
+        <v>0.03951449797822</v>
+      </c>
+      <c r="P208">
+        <v>0.08272305630622701</v>
+      </c>
+      <c r="Q208">
+        <v>0.071935923306679</v>
+      </c>
+      <c r="R208">
+        <v>0.063374028764848</v>
+      </c>
+      <c r="S208">
+        <v>0.07418105915444</v>
+      </c>
+      <c r="T208">
+        <v>0.068837473870028</v>
+      </c>
+      <c r="U208">
+        <v>0.061757095662529</v>
+      </c>
+      <c r="V208">
+        <v>0.060009125440303</v>
+      </c>
+      <c r="W208">
+        <v>0.054450173830434</v>
+      </c>
+      <c r="X208">
+        <v>0.052724891408103</v>
+      </c>
+      <c r="Y208">
+        <v>0.059565225810174</v>
+      </c>
+      <c r="Z208">
+        <v>0.057002662082822</v>
+      </c>
+      <c r="AA208">
+        <v>0.052238774626096</v>
+      </c>
+      <c r="AB208">
+        <v>0.08008413485544801</v>
+      </c>
+      <c r="AC208">
+        <v>0.07166378085943501</v>
+      </c>
+      <c r="AD208">
+        <v>0.081285144431021</v>
+      </c>
+      <c r="AE208">
+        <v>0.07579243292311599</v>
+      </c>
+      <c r="AF208">
+        <v>0.059826117893833</v>
+      </c>
+      <c r="AG208">
+        <v>0.059046185928559</v>
+      </c>
+      <c r="AH208">
+        <v>0.095724556308263</v>
+      </c>
+      <c r="AI208">
+        <v>0.06385306621387001</v>
+      </c>
+      <c r="AJ208">
+        <v>0.057288799728257</v>
+      </c>
+      <c r="AK208">
+        <v>0.064941377538364</v>
+      </c>
+      <c r="AL208">
+        <v>0.060376105058361</v>
+      </c>
+      <c r="AM208">
+        <v>0.05573152775853</v>
+      </c>
+      <c r="AN208">
+        <v>0.055209023092493</v>
+      </c>
+      <c r="AO208">
+        <v>0.064805416288904</v>
+      </c>
+      <c r="AP208">
+        <v>0.045330332354757</v>
+      </c>
+      <c r="AQ208">
+        <v>0.049783793966017</v>
+      </c>
+      <c r="AR208">
+        <v>0.081340930007381</v>
+      </c>
+      <c r="AS208">
+        <v>0.048093463920549</v>
+      </c>
+      <c r="AT208">
+        <v>0.059578553221514</v>
+      </c>
+      <c r="AU208">
+        <v>0.07475988012644499</v>
+      </c>
+      <c r="AV208">
+        <v>0.063440873360089</v>
+      </c>
+      <c r="AW208">
+        <v>0.051088874191612</v>
+      </c>
+      <c r="AX208">
+        <v>0.063277049938948</v>
+      </c>
+      <c r="AY208">
+        <v>0.049572320115254</v>
+      </c>
+      <c r="AZ208">
+        <v>0.072483334225283</v>
+      </c>
+      <c r="BA208">
+        <v>0.05349594178322</v>
+      </c>
+      <c r="BB208">
+        <v>0.045046944318686</v>
+      </c>
+      <c r="BC208">
+        <v>0.054264465375509</v>
+      </c>
+      <c r="BD208">
+        <v>0.055472698023648</v>
+      </c>
+      <c r="BE208">
+        <v>0.06553492952742</v>
+      </c>
+    </row>
+    <row r="209" spans="1:57">
+      <c r="A209" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209">
+        <v>0.059007151171894</v>
+      </c>
+      <c r="C209">
+        <v>0.07843151607861</v>
+      </c>
+      <c r="D209">
+        <v>0.07538890391256001</v>
+      </c>
+      <c r="F209">
+        <v>0.053489797672716</v>
+      </c>
+      <c r="G209">
+        <v>0.054485102984888</v>
+      </c>
+      <c r="H209">
+        <v>0.058893177319734</v>
+      </c>
+      <c r="I209">
+        <v>0.049930090123017</v>
+      </c>
+      <c r="J209">
+        <v>0.043940437720118</v>
+      </c>
+      <c r="K209">
+        <v>0.048386643776144</v>
+      </c>
+      <c r="L209">
+        <v>0.054927914998211</v>
+      </c>
+      <c r="M209">
+        <v>0.061541530783889</v>
+      </c>
+      <c r="N209">
+        <v>0.064547538406814</v>
+      </c>
+      <c r="O209">
+        <v>0.031939480999147</v>
+      </c>
+      <c r="P209">
+        <v>0.074926011786801</v>
+      </c>
+      <c r="Q209">
+        <v>0.062663430512523</v>
+      </c>
+      <c r="R209">
+        <v>0.054618992120365</v>
+      </c>
+      <c r="S209">
+        <v>0.066555540809752</v>
+      </c>
+      <c r="T209">
+        <v>0.066400172849765</v>
+      </c>
+      <c r="U209">
+        <v>0.063674265574217</v>
+      </c>
+      <c r="V209">
+        <v>0.053053786563196</v>
+      </c>
+      <c r="W209">
+        <v>0.054652515777269</v>
+      </c>
+      <c r="X209">
+        <v>0.052988195826215</v>
+      </c>
+      <c r="Y209">
+        <v>0.061446180136015</v>
+      </c>
+      <c r="Z209">
+        <v>0.055374482490124</v>
+      </c>
+      <c r="AA209">
+        <v>0.051017111815841</v>
+      </c>
+      <c r="AB209">
+        <v>0.073598194494362</v>
+      </c>
+      <c r="AC209">
+        <v>0.087040138241587</v>
+      </c>
+      <c r="AD209">
+        <v>0.0724489704751</v>
+      </c>
+      <c r="AE209">
+        <v>0.069100092171265</v>
+      </c>
+      <c r="AF209">
+        <v>0.056032702063465</v>
+      </c>
+      <c r="AG209">
+        <v>0.061729164146875</v>
+      </c>
+      <c r="AH209">
+        <v>0.08485111925848</v>
+      </c>
+      <c r="AI209">
+        <v>0.05634089834924</v>
+      </c>
+      <c r="AJ209">
+        <v>0.047381555892892</v>
+      </c>
+      <c r="AK209">
+        <v>0.05189056586298</v>
+      </c>
+      <c r="AL209">
+        <v>0.051862231636702</v>
+      </c>
+      <c r="AM209">
+        <v>0.047308809341747</v>
+      </c>
+      <c r="AN209">
+        <v>0.057506236755999</v>
+      </c>
+      <c r="AO209">
+        <v>0.06505550136690801</v>
+      </c>
+      <c r="AP209">
+        <v>0.047161089229908</v>
+      </c>
+      <c r="AQ209">
+        <v>0.052583343906473</v>
+      </c>
+      <c r="AR209">
+        <v>0.083951678104322</v>
+      </c>
+      <c r="AS209">
+        <v>0.048112826914283</v>
+      </c>
+      <c r="AT209">
+        <v>0.060483978764122</v>
+      </c>
+      <c r="AU209">
+        <v>0.073553927897545</v>
+      </c>
+      <c r="AV209">
+        <v>0.062168374336759</v>
+      </c>
+      <c r="AW209">
+        <v>0.050042961133113</v>
+      </c>
+      <c r="AX209">
+        <v>0.06426527607025199</v>
+      </c>
+      <c r="AY209">
+        <v>0.051214494279815</v>
+      </c>
+      <c r="AZ209">
+        <v>0.072881445021617</v>
+      </c>
+      <c r="BA209">
+        <v>0.055534870543656</v>
+      </c>
+      <c r="BB209">
+        <v>0.04765682887279</v>
+      </c>
+      <c r="BC209">
+        <v>0.058561204469395</v>
+      </c>
+      <c r="BD209">
+        <v>0.06028737487394</v>
+      </c>
+      <c r="BE209">
+        <v>0.068773450292932</v>
+      </c>
+    </row>
+    <row r="210" spans="1:57">
+      <c r="A210" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210">
+        <v>0.057809865199401</v>
+      </c>
+      <c r="C210">
+        <v>0.063444384333927</v>
+      </c>
+      <c r="D210">
+        <v>0.060219654606859</v>
+      </c>
+      <c r="F210">
+        <v>0.048825432050716</v>
+      </c>
+      <c r="G210">
+        <v>0.051238850010276</v>
+      </c>
+      <c r="H210">
+        <v>0.058495433928943</v>
+      </c>
+      <c r="I210">
+        <v>0.049342080632354</v>
+      </c>
+      <c r="J210">
+        <v>0.046897299958221</v>
+      </c>
+      <c r="K210">
+        <v>0.047895688876511</v>
+      </c>
+      <c r="L210">
+        <v>0.055304805141464</v>
+      </c>
+      <c r="M210">
+        <v>0.06003346448525</v>
+      </c>
+      <c r="N210">
+        <v>0.055034131855277</v>
+      </c>
+      <c r="O210">
+        <v>0.03066279841595</v>
+      </c>
+      <c r="P210">
+        <v>0.08026009337301999</v>
+      </c>
+      <c r="Q210">
+        <v>0.057661045954294</v>
+      </c>
+      <c r="R210">
+        <v>0.051883880179757</v>
+      </c>
+      <c r="S210">
+        <v>0.065880568804478</v>
+      </c>
+      <c r="T210">
+        <v>0.06767254870236999</v>
+      </c>
+      <c r="U210">
+        <v>0.060941413290074</v>
+      </c>
+      <c r="V210">
+        <v>0.039428802465138</v>
+      </c>
+      <c r="W210">
+        <v>0.047294223417327</v>
+      </c>
+      <c r="X210">
+        <v>0.046772981995991</v>
+      </c>
+      <c r="Y210">
+        <v>0.056332027772318</v>
+      </c>
+      <c r="Z210">
+        <v>0.047759068929387</v>
+      </c>
+      <c r="AA210">
+        <v>0.04314123575806</v>
+      </c>
+      <c r="AB210">
+        <v>0.06928482914858899</v>
+      </c>
+      <c r="AC210">
+        <v>0.08021231720058999</v>
+      </c>
+      <c r="AD210">
+        <v>0.069051782953719</v>
+      </c>
+      <c r="AE210">
+        <v>0.065784301938099</v>
+      </c>
+      <c r="AF210">
+        <v>0.055943021123582</v>
+      </c>
+      <c r="AG210">
+        <v>0.064524678819069</v>
+      </c>
+      <c r="AH210">
+        <v>0.081898929143468</v>
+      </c>
+      <c r="AI210">
+        <v>0.054651485435748</v>
+      </c>
+      <c r="AJ210">
+        <v>0.042409291693743</v>
+      </c>
+      <c r="AK210">
+        <v>0.048091826470513</v>
+      </c>
+      <c r="AL210">
+        <v>0.047403656926816</v>
+      </c>
+      <c r="AM210">
+        <v>0.046079974000875</v>
+      </c>
+      <c r="AN210">
+        <v>0.059182469391033</v>
+      </c>
+      <c r="AO210">
+        <v>0.067932185979687</v>
+      </c>
+      <c r="AP210">
+        <v>0.050144587315467</v>
+      </c>
+      <c r="AQ210">
+        <v>0.05740111743428</v>
+      </c>
+      <c r="AR210">
+        <v>0.075608737196374</v>
+      </c>
+      <c r="AS210">
+        <v>0.054729180399228</v>
+      </c>
+      <c r="AT210">
+        <v>0.063935212359799</v>
+      </c>
+      <c r="AU210">
+        <v>0.08022103909999299</v>
+      </c>
+      <c r="AV210">
+        <v>0.067030362953734</v>
+      </c>
+      <c r="AW210">
+        <v>0.05064603120719</v>
+      </c>
+      <c r="AX210">
+        <v>0.068997180644435</v>
+      </c>
+      <c r="AY210">
+        <v>0.052401469823336</v>
+      </c>
+      <c r="AZ210">
+        <v>0.080660071641433</v>
+      </c>
+      <c r="BA210">
+        <v>0.060630796377294</v>
+      </c>
+      <c r="BB210">
+        <v>0.047581995197118</v>
+      </c>
+      <c r="BC210">
+        <v>0.054390674796136</v>
+      </c>
+      <c r="BD210">
+        <v>0.057662368613996</v>
+      </c>
+      <c r="BE210">
+        <v>0.067780793337609</v>
+      </c>
+    </row>
+    <row r="211" spans="1:57">
+      <c r="A211" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:57">
+      <c r="A212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:57">
+      <c r="A213" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:57">
+      <c r="A214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:57">
+      <c r="A215" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>Alaska</t>
   </si>
@@ -825,6 +825,24 @@
   <si>
     <t>01 09 2020</t>
   </si>
+  <si>
+    <t>02 09 2020</t>
+  </si>
+  <si>
+    <t>03 09 2020</t>
+  </si>
+  <si>
+    <t>04 09 2020</t>
+  </si>
+  <si>
+    <t>05 09 2020</t>
+  </si>
+  <si>
+    <t>06 09 2020</t>
+  </si>
+  <si>
+    <t>07 09 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1155,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE215"/>
+  <dimension ref="A1:BE221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21239,6 +21257,9 @@
       <c r="D117">
         <v>0.047671500875928</v>
       </c>
+      <c r="E117">
+        <v>0.11989087301587</v>
+      </c>
       <c r="F117">
         <v>0.043854553489461</v>
       </c>
@@ -21409,6 +21430,9 @@
       <c r="D118">
         <v>0.047762136142387</v>
       </c>
+      <c r="E118">
+        <v>0.1210729746444</v>
+      </c>
       <c r="F118">
         <v>0.040383303084005</v>
       </c>
@@ -21579,6 +21603,9 @@
       <c r="D119">
         <v>0.050030912521984</v>
       </c>
+      <c r="E119">
+        <v>0.11715888278388</v>
+      </c>
       <c r="F119">
         <v>0.049344615641313</v>
       </c>
@@ -21749,6 +21776,9 @@
       <c r="D120">
         <v>0.038864060943801</v>
       </c>
+      <c r="E120">
+        <v>0.1140380713689</v>
+      </c>
       <c r="F120">
         <v>0.035268102299281</v>
       </c>
@@ -21919,6 +21949,9 @@
       <c r="D121">
         <v>0.020672256331075</v>
       </c>
+      <c r="E121">
+        <v>0.11938431938432</v>
+      </c>
       <c r="F121">
         <v>0.026522205333318</v>
       </c>
@@ -22089,6 +22122,9 @@
       <c r="D122">
         <v>0.018494001877859</v>
       </c>
+      <c r="E122">
+        <v>0.12386363636364</v>
+      </c>
       <c r="F122">
         <v>0.023584597356265</v>
       </c>
@@ -37210,25 +37246,1045 @@
       <c r="A211" t="s">
         <v>265</v>
       </c>
+      <c r="B211">
+        <v>0.051696994500759</v>
+      </c>
+      <c r="C211">
+        <v>0.07625683015227699</v>
+      </c>
+      <c r="D211">
+        <v>0.07085532900848</v>
+      </c>
+      <c r="F211">
+        <v>0.04404557266281</v>
+      </c>
+      <c r="G211">
+        <v>0.049105169044618</v>
+      </c>
+      <c r="H211">
+        <v>0.051758253159025</v>
+      </c>
+      <c r="I211">
+        <v>0.046945989094865</v>
+      </c>
+      <c r="J211">
+        <v>0.043905507439192</v>
+      </c>
+      <c r="K211">
+        <v>0.042771435587403</v>
+      </c>
+      <c r="L211">
+        <v>0.050419432468566</v>
+      </c>
+      <c r="M211">
+        <v>0.054364373980746</v>
+      </c>
+      <c r="N211">
+        <v>0.058680272055385</v>
+      </c>
+      <c r="O211">
+        <v>0.023611326051445</v>
+      </c>
+      <c r="P211">
+        <v>0.07585935513485099</v>
+      </c>
+      <c r="Q211">
+        <v>0.048132590130703</v>
+      </c>
+      <c r="R211">
+        <v>0.053085858786677</v>
+      </c>
+      <c r="S211">
+        <v>0.058726580659376</v>
+      </c>
+      <c r="T211">
+        <v>0.062408184442694</v>
+      </c>
+      <c r="U211">
+        <v>0.054507255684291</v>
+      </c>
+      <c r="V211">
+        <v>0.055057282939854</v>
+      </c>
+      <c r="W211">
+        <v>0.048224630508421</v>
+      </c>
+      <c r="X211">
+        <v>0.043306993504741</v>
+      </c>
+      <c r="Y211">
+        <v>0.051985070815827</v>
+      </c>
+      <c r="Z211">
+        <v>0.04740499263408</v>
+      </c>
+      <c r="AA211">
+        <v>0.044763809796584</v>
+      </c>
+      <c r="AB211">
+        <v>0.072209816566874</v>
+      </c>
+      <c r="AC211">
+        <v>0.06612266070954199</v>
+      </c>
+      <c r="AD211">
+        <v>0.07189134440184899</v>
+      </c>
+      <c r="AE211">
+        <v>0.057366447723123</v>
+      </c>
+      <c r="AF211">
+        <v>0.052388695794005</v>
+      </c>
+      <c r="AG211">
+        <v>0.068057500374391</v>
+      </c>
+      <c r="AH211">
+        <v>0.082812683650829</v>
+      </c>
+      <c r="AI211">
+        <v>0.048752536722536</v>
+      </c>
+      <c r="AJ211">
+        <v>0.041786915853282</v>
+      </c>
+      <c r="AK211">
+        <v>0.044876666638354</v>
+      </c>
+      <c r="AL211">
+        <v>0.041090261763591</v>
+      </c>
+      <c r="AM211">
+        <v>0.044754490371372</v>
+      </c>
+      <c r="AN211">
+        <v>0.056952059376988</v>
+      </c>
+      <c r="AO211">
+        <v>0.067974558290786</v>
+      </c>
+      <c r="AP211">
+        <v>0.042280091903767</v>
+      </c>
+      <c r="AQ211">
+        <v>0.051659138794791</v>
+      </c>
+      <c r="AR211">
+        <v>0.07793119066847</v>
+      </c>
+      <c r="AS211">
+        <v>0.048588828356334</v>
+      </c>
+      <c r="AT211">
+        <v>0.053345396613048</v>
+      </c>
+      <c r="AU211">
+        <v>0.06496672563651899</v>
+      </c>
+      <c r="AV211">
+        <v>0.062520459748382</v>
+      </c>
+      <c r="AW211">
+        <v>0.054917192317404</v>
+      </c>
+      <c r="AX211">
+        <v>0.052617974668983</v>
+      </c>
+      <c r="AY211">
+        <v>0.048300142643056</v>
+      </c>
+      <c r="AZ211">
+        <v>0.076457635330892</v>
+      </c>
+      <c r="BA211">
+        <v>0.055280788001795</v>
+      </c>
+      <c r="BB211">
+        <v>0.040970913842408</v>
+      </c>
+      <c r="BC211">
+        <v>0.054420665774628</v>
+      </c>
+      <c r="BD211">
+        <v>0.054883776013044</v>
+      </c>
+      <c r="BE211">
+        <v>0.055005842462358</v>
+      </c>
     </row>
     <row r="212" spans="1:57">
       <c r="A212" t="s">
         <v>266</v>
       </c>
+      <c r="B212">
+        <v>0.059951993256956</v>
+      </c>
+      <c r="C212">
+        <v>0.040136079050407</v>
+      </c>
+      <c r="D212">
+        <v>0.023527786034028</v>
+      </c>
+      <c r="F212">
+        <v>0.035653063567919</v>
+      </c>
+      <c r="G212">
+        <v>0.034378335999486</v>
+      </c>
+      <c r="H212">
+        <v>0.037309606919259</v>
+      </c>
+      <c r="I212">
+        <v>0.032237255137754</v>
+      </c>
+      <c r="J212">
+        <v>0.046169573074369</v>
+      </c>
+      <c r="K212">
+        <v>0.030059465517806</v>
+      </c>
+      <c r="L212">
+        <v>0.02784903764383</v>
+      </c>
+      <c r="M212">
+        <v>0.025775016254533</v>
+      </c>
+      <c r="N212">
+        <v>0.06451213319409201</v>
+      </c>
+      <c r="O212">
+        <v>0.026019083222693</v>
+      </c>
+      <c r="P212">
+        <v>0.032493642517419</v>
+      </c>
+      <c r="Q212">
+        <v>0.036548490555898</v>
+      </c>
+      <c r="R212">
+        <v>0.032594282851743</v>
+      </c>
+      <c r="S212">
+        <v>0.030704713533832</v>
+      </c>
+      <c r="T212">
+        <v>0.031254062449958</v>
+      </c>
+      <c r="U212">
+        <v>0.030667769818811</v>
+      </c>
+      <c r="V212">
+        <v>0.036149734980448</v>
+      </c>
+      <c r="W212">
+        <v>0.041223060795628</v>
+      </c>
+      <c r="X212">
+        <v>0.034661134396754</v>
+      </c>
+      <c r="Y212">
+        <v>0.041212571069121</v>
+      </c>
+      <c r="Z212">
+        <v>0.034515327943683</v>
+      </c>
+      <c r="AA212">
+        <v>0.032205806775399</v>
+      </c>
+      <c r="AB212">
+        <v>0.029999133744896</v>
+      </c>
+      <c r="AC212">
+        <v>0.068363320548967</v>
+      </c>
+      <c r="AD212">
+        <v>0.028572515099519</v>
+      </c>
+      <c r="AE212">
+        <v>0.044216481802844</v>
+      </c>
+      <c r="AF212">
+        <v>0.027399669561213</v>
+      </c>
+      <c r="AG212">
+        <v>0.032787098225307</v>
+      </c>
+      <c r="AH212">
+        <v>0.030963881037132</v>
+      </c>
+      <c r="AI212">
+        <v>0.032294327061809</v>
+      </c>
+      <c r="AJ212">
+        <v>0.031819457037894</v>
+      </c>
+      <c r="AK212">
+        <v>0.04339376571078</v>
+      </c>
+      <c r="AL212">
+        <v>0.035101105394294</v>
+      </c>
+      <c r="AM212">
+        <v>0.039320625811448</v>
+      </c>
+      <c r="AN212">
+        <v>0.030327215563806</v>
+      </c>
+      <c r="AO212">
+        <v>0.026911800976002</v>
+      </c>
+      <c r="AP212">
+        <v>0.035421807917792</v>
+      </c>
+      <c r="AQ212">
+        <v>0.033495731766905</v>
+      </c>
+      <c r="AR212">
+        <v>0.072342625453506</v>
+      </c>
+      <c r="AS212">
+        <v>0.038492160385492</v>
+      </c>
+      <c r="AT212">
+        <v>0.029753166084542</v>
+      </c>
+      <c r="AU212">
+        <v>0.034018591926186</v>
+      </c>
+      <c r="AV212">
+        <v>0.028182108951666</v>
+      </c>
+      <c r="AW212">
+        <v>0.02884365978012</v>
+      </c>
+      <c r="AX212">
+        <v>0.039534171006767</v>
+      </c>
+      <c r="AY212">
+        <v>0.031712130636184</v>
+      </c>
+      <c r="AZ212">
+        <v>0.069777542337757</v>
+      </c>
+      <c r="BA212">
+        <v>0.041950480641743</v>
+      </c>
+      <c r="BB212">
+        <v>0.037244033230171</v>
+      </c>
+      <c r="BC212">
+        <v>0.032487601257844</v>
+      </c>
+      <c r="BD212">
+        <v>0.034520683785574</v>
+      </c>
+      <c r="BE212">
+        <v>0.039935213308327</v>
+      </c>
     </row>
     <row r="213" spans="1:57">
       <c r="A213" t="s">
         <v>267</v>
       </c>
+      <c r="B213">
+        <v>0.054385154121895</v>
+      </c>
+      <c r="C213">
+        <v>0.032228053316519</v>
+      </c>
+      <c r="D213">
+        <v>0.02763487192516</v>
+      </c>
+      <c r="F213">
+        <v>0.03792468902438</v>
+      </c>
+      <c r="G213">
+        <v>0.037963869478382</v>
+      </c>
+      <c r="H213">
+        <v>0.038490797235675</v>
+      </c>
+      <c r="I213">
+        <v>0.033076663276222</v>
+      </c>
+      <c r="J213">
+        <v>0.047859454343135</v>
+      </c>
+      <c r="K213">
+        <v>0.030795744824741</v>
+      </c>
+      <c r="L213">
+        <v>0.024512227322229</v>
+      </c>
+      <c r="M213">
+        <v>0.01935006219525</v>
+      </c>
+      <c r="N213">
+        <v>0.061832623440327</v>
+      </c>
+      <c r="O213">
+        <v>0.02381220770047</v>
+      </c>
+      <c r="P213">
+        <v>0.024015797108296</v>
+      </c>
+      <c r="Q213">
+        <v>0.026638685924874</v>
+      </c>
+      <c r="R213">
+        <v>0.025494557812284</v>
+      </c>
+      <c r="S213">
+        <v>0.023784432670898</v>
+      </c>
+      <c r="T213">
+        <v>0.023664239465129</v>
+      </c>
+      <c r="U213">
+        <v>0.024756608656363</v>
+      </c>
+      <c r="V213">
+        <v>0.028572937105183</v>
+      </c>
+      <c r="W213">
+        <v>0.034694583724618</v>
+      </c>
+      <c r="X213">
+        <v>0.028556239354123</v>
+      </c>
+      <c r="Y213">
+        <v>0.034295528141972</v>
+      </c>
+      <c r="Z213">
+        <v>0.029024798184609</v>
+      </c>
+      <c r="AA213">
+        <v>0.02644593029774</v>
+      </c>
+      <c r="AB213">
+        <v>0.025388330195042</v>
+      </c>
+      <c r="AC213">
+        <v>0.07800007270701299</v>
+      </c>
+      <c r="AD213">
+        <v>0.021637225940784</v>
+      </c>
+      <c r="AE213">
+        <v>0.039404806859443</v>
+      </c>
+      <c r="AF213">
+        <v>0.02735039896087</v>
+      </c>
+      <c r="AG213">
+        <v>0.029494398053714</v>
+      </c>
+      <c r="AH213">
+        <v>0.026301952845133</v>
+      </c>
+      <c r="AI213">
+        <v>0.032198020095384</v>
+      </c>
+      <c r="AJ213">
+        <v>0.031908032236382</v>
+      </c>
+      <c r="AK213">
+        <v>0.04536974368066</v>
+      </c>
+      <c r="AL213">
+        <v>0.031656904707352</v>
+      </c>
+      <c r="AM213">
+        <v>0.044210278895884</v>
+      </c>
+      <c r="AN213">
+        <v>0.02998948509234</v>
+      </c>
+      <c r="AO213">
+        <v>0.021670695112602</v>
+      </c>
+      <c r="AP213">
+        <v>0.028443717166179</v>
+      </c>
+      <c r="AQ213">
+        <v>0.027692290788386</v>
+      </c>
+      <c r="AR213">
+        <v>0.07255617000645</v>
+      </c>
+      <c r="AS213">
+        <v>0.030869345280392</v>
+      </c>
+      <c r="AT213">
+        <v>0.020813217719558</v>
+      </c>
+      <c r="AU213">
+        <v>0.024346200482557</v>
+      </c>
+      <c r="AV213">
+        <v>0.019584745764478</v>
+      </c>
+      <c r="AW213">
+        <v>0.020163974340813</v>
+      </c>
+      <c r="AX213">
+        <v>0.028372766754722</v>
+      </c>
+      <c r="AY213">
+        <v>0.025394582567733</v>
+      </c>
+      <c r="AZ213">
+        <v>0.060531030972468</v>
+      </c>
+      <c r="BA213">
+        <v>0.036699043919134</v>
+      </c>
+      <c r="BB213">
+        <v>0.02915011816223</v>
+      </c>
+      <c r="BC213">
+        <v>0.028459088967521</v>
+      </c>
+      <c r="BD213">
+        <v>0.029858326074625</v>
+      </c>
+      <c r="BE213">
+        <v>0.034006464720045</v>
+      </c>
     </row>
     <row r="214" spans="1:57">
       <c r="A214" t="s">
         <v>268</v>
       </c>
+      <c r="B214">
+        <v>0.080579780319622</v>
+      </c>
+      <c r="C214">
+        <v>0.072641303790099</v>
+      </c>
+      <c r="D214">
+        <v>0.078586818547809</v>
+      </c>
+      <c r="F214">
+        <v>0.062229474088845</v>
+      </c>
+      <c r="G214">
+        <v>0.056202581992138</v>
+      </c>
+      <c r="H214">
+        <v>0.058689849194675</v>
+      </c>
+      <c r="I214">
+        <v>0.051690302555801</v>
+      </c>
+      <c r="J214">
+        <v>0.04394065416683</v>
+      </c>
+      <c r="K214">
+        <v>0.047455380599396</v>
+      </c>
+      <c r="L214">
+        <v>0.053310034209468</v>
+      </c>
+      <c r="M214">
+        <v>0.05945427222032</v>
+      </c>
+      <c r="N214">
+        <v>0.058452370643448</v>
+      </c>
+      <c r="O214">
+        <v>0.032260699002383</v>
+      </c>
+      <c r="P214">
+        <v>0.07982375740641499</v>
+      </c>
+      <c r="Q214">
+        <v>0.064873827425345</v>
+      </c>
+      <c r="R214">
+        <v>0.055453783662606</v>
+      </c>
+      <c r="S214">
+        <v>0.064952563125281</v>
+      </c>
+      <c r="T214">
+        <v>0.062882731268756</v>
+      </c>
+      <c r="U214">
+        <v>0.057366292785901</v>
+      </c>
+      <c r="V214">
+        <v>0.060812680115943</v>
+      </c>
+      <c r="W214">
+        <v>0.046559757775297</v>
+      </c>
+      <c r="X214">
+        <v>0.044071234694497</v>
+      </c>
+      <c r="Y214">
+        <v>0.050857590883683</v>
+      </c>
+      <c r="Z214">
+        <v>0.050744203432747</v>
+      </c>
+      <c r="AA214">
+        <v>0.046763379216284</v>
+      </c>
+      <c r="AB214">
+        <v>0.068998641051743</v>
+      </c>
+      <c r="AC214">
+        <v>0.064804982579298</v>
+      </c>
+      <c r="AD214">
+        <v>0.068826836475745</v>
+      </c>
+      <c r="AE214">
+        <v>0.069501110291024</v>
+      </c>
+      <c r="AF214">
+        <v>0.057736837850502</v>
+      </c>
+      <c r="AG214">
+        <v>0.071657138370363</v>
+      </c>
+      <c r="AH214">
+        <v>0.07935085395724301</v>
+      </c>
+      <c r="AI214">
+        <v>0.055597846763709</v>
+      </c>
+      <c r="AJ214">
+        <v>0.046418791731054</v>
+      </c>
+      <c r="AK214">
+        <v>0.05085369606832</v>
+      </c>
+      <c r="AL214">
+        <v>0.049242888551309</v>
+      </c>
+      <c r="AM214">
+        <v>0.047832180381964</v>
+      </c>
+      <c r="AN214">
+        <v>0.061635805876434</v>
+      </c>
+      <c r="AO214">
+        <v>0.06713622502963</v>
+      </c>
+      <c r="AP214">
+        <v>0.048315008889494</v>
+      </c>
+      <c r="AQ214">
+        <v>0.056128119738376</v>
+      </c>
+      <c r="AR214">
+        <v>0.07371135043476899</v>
+      </c>
+      <c r="AS214">
+        <v>0.050442443690634</v>
+      </c>
+      <c r="AT214">
+        <v>0.060930049349305</v>
+      </c>
+      <c r="AU214">
+        <v>0.07499305889502</v>
+      </c>
+      <c r="AV214">
+        <v>0.062206986008712</v>
+      </c>
+      <c r="AW214">
+        <v>0.053154697984186</v>
+      </c>
+      <c r="AX214">
+        <v>0.065097975908295</v>
+      </c>
+      <c r="AY214">
+        <v>0.05061597276057</v>
+      </c>
+      <c r="AZ214">
+        <v>0.076243828428796</v>
+      </c>
+      <c r="BA214">
+        <v>0.05578122938074</v>
+      </c>
+      <c r="BB214">
+        <v>0.044387407960761</v>
+      </c>
+      <c r="BC214">
+        <v>0.05158087884195</v>
+      </c>
+      <c r="BD214">
+        <v>0.053890566359448</v>
+      </c>
+      <c r="BE214">
+        <v>0.061931642116441</v>
+      </c>
     </row>
     <row r="215" spans="1:57">
       <c r="A215" t="s">
         <v>269</v>
+      </c>
+      <c r="B215">
+        <v>0.048815118381829</v>
+      </c>
+      <c r="C215">
+        <v>0.068017980536516</v>
+      </c>
+      <c r="D215">
+        <v>0.06850193174315</v>
+      </c>
+      <c r="F215">
+        <v>0.042551845518156</v>
+      </c>
+      <c r="G215">
+        <v>0.051328740914253</v>
+      </c>
+      <c r="H215">
+        <v>0.064837132500166</v>
+      </c>
+      <c r="I215">
+        <v>0.059285520066162</v>
+      </c>
+      <c r="J215">
+        <v>0.054291935969209</v>
+      </c>
+      <c r="K215">
+        <v>0.057668463623795</v>
+      </c>
+      <c r="L215">
+        <v>0.06404348284788</v>
+      </c>
+      <c r="M215">
+        <v>0.06918160237580701</v>
+      </c>
+      <c r="N215">
+        <v>0.075242107444959</v>
+      </c>
+      <c r="O215">
+        <v>0.036235433800797</v>
+      </c>
+      <c r="P215">
+        <v>0.081633651734622</v>
+      </c>
+      <c r="Q215">
+        <v>0.06968303413634</v>
+      </c>
+      <c r="R215">
+        <v>0.058902311621426</v>
+      </c>
+      <c r="S215">
+        <v>0.063443486726181</v>
+      </c>
+      <c r="T215">
+        <v>0.064493490799183</v>
+      </c>
+      <c r="U215">
+        <v>0.058937102728059</v>
+      </c>
+      <c r="V215">
+        <v>0.063928799924169</v>
+      </c>
+      <c r="W215">
+        <v>0.052948409224102</v>
+      </c>
+      <c r="X215">
+        <v>0.049074438141524</v>
+      </c>
+      <c r="Y215">
+        <v>0.058564718073638</v>
+      </c>
+      <c r="Z215">
+        <v>0.056986470106426</v>
+      </c>
+      <c r="AA215">
+        <v>0.051778300380636</v>
+      </c>
+      <c r="AB215">
+        <v>0.07397905540021101</v>
+      </c>
+      <c r="AC215">
+        <v>0.11432176355704</v>
+      </c>
+      <c r="AD215">
+        <v>0.07296188616244199</v>
+      </c>
+      <c r="AE215">
+        <v>0.070221616936724</v>
+      </c>
+      <c r="AF215">
+        <v>0.058919887611337</v>
+      </c>
+      <c r="AG215">
+        <v>0.072545576557084</v>
+      </c>
+      <c r="AH215">
+        <v>0.085778006332659</v>
+      </c>
+      <c r="AI215">
+        <v>0.05903473569861</v>
+      </c>
+      <c r="AJ215">
+        <v>0.051675025131284</v>
+      </c>
+      <c r="AK215">
+        <v>0.051586596734041</v>
+      </c>
+      <c r="AL215">
+        <v>0.049435097156652</v>
+      </c>
+      <c r="AM215">
+        <v>0.04960711616977</v>
+      </c>
+      <c r="AN215">
+        <v>0.063902934658898</v>
+      </c>
+      <c r="AO215">
+        <v>0.070104755470425</v>
+      </c>
+      <c r="AP215">
+        <v>0.051069550701132</v>
+      </c>
+      <c r="AQ215">
+        <v>0.06246941211258</v>
+      </c>
+      <c r="AR215">
+        <v>0.076996485402566</v>
+      </c>
+      <c r="AS215">
+        <v>0.057280717387128</v>
+      </c>
+      <c r="AT215">
+        <v>0.066347172488167</v>
+      </c>
+      <c r="AU215">
+        <v>0.083223917181926</v>
+      </c>
+      <c r="AV215">
+        <v>0.069345656071807</v>
+      </c>
+      <c r="AW215">
+        <v>0.057823708089724</v>
+      </c>
+      <c r="AX215">
+        <v>0.068623351820847</v>
+      </c>
+      <c r="AY215">
+        <v>0.054708427564995</v>
+      </c>
+      <c r="AZ215">
+        <v>0.07870257154094</v>
+      </c>
+      <c r="BA215">
+        <v>0.062368743095383</v>
+      </c>
+      <c r="BB215">
+        <v>0.047343414271538</v>
+      </c>
+      <c r="BC215">
+        <v>0.065409738139298</v>
+      </c>
+      <c r="BD215">
+        <v>0.057785072085973</v>
+      </c>
+      <c r="BE215">
+        <v>0.066905660951098</v>
+      </c>
+    </row>
+    <row r="216" spans="1:57">
+      <c r="A216" t="s">
+        <v>270</v>
+      </c>
+      <c r="B216">
+        <v>0.063479621535476</v>
+      </c>
+      <c r="C216">
+        <v>0.06766739113063901</v>
+      </c>
+      <c r="D216">
+        <v>0.071937840180981</v>
+      </c>
+      <c r="F216">
+        <v>0.049271696353651</v>
+      </c>
+      <c r="G216">
+        <v>0.047334362713054</v>
+      </c>
+      <c r="H216">
+        <v>0.053671976569419</v>
+      </c>
+      <c r="I216">
+        <v>0.04888426187781</v>
+      </c>
+      <c r="J216">
+        <v>0.044491717981794</v>
+      </c>
+      <c r="K216">
+        <v>0.04596879139181</v>
+      </c>
+      <c r="L216">
+        <v>0.053657690131392</v>
+      </c>
+      <c r="M216">
+        <v>0.06012716839919</v>
+      </c>
+      <c r="N216">
+        <v>0.057490056554447</v>
+      </c>
+      <c r="O216">
+        <v>0.031427964666771</v>
+      </c>
+      <c r="P216">
+        <v>0.078021432912787</v>
+      </c>
+      <c r="Q216">
+        <v>0.063695105971911</v>
+      </c>
+      <c r="R216">
+        <v>0.054378571729596</v>
+      </c>
+      <c r="S216">
+        <v>0.06419826437130501</v>
+      </c>
+      <c r="T216">
+        <v>0.06999636549549999</v>
+      </c>
+      <c r="U216">
+        <v>0.06336647314471</v>
+      </c>
+      <c r="V216">
+        <v>0.070167275946023</v>
+      </c>
+      <c r="W216">
+        <v>0.059857734935076</v>
+      </c>
+      <c r="X216">
+        <v>0.054395455917912</v>
+      </c>
+      <c r="Y216">
+        <v>0.064622874064685</v>
+      </c>
+      <c r="Z216">
+        <v>0.060304032555316</v>
+      </c>
+      <c r="AA216">
+        <v>0.052877554672481</v>
+      </c>
+      <c r="AB216">
+        <v>0.074499162991757</v>
+      </c>
+      <c r="AC216">
+        <v>0.07014111590538299</v>
+      </c>
+      <c r="AD216">
+        <v>0.0734831462237</v>
+      </c>
+      <c r="AE216">
+        <v>0.068834398376065</v>
+      </c>
+      <c r="AF216">
+        <v>0.055386915440452</v>
+      </c>
+      <c r="AG216">
+        <v>0.069475729939623</v>
+      </c>
+      <c r="AH216">
+        <v>0.085189941621674</v>
+      </c>
+      <c r="AI216">
+        <v>0.060259536066108</v>
+      </c>
+      <c r="AJ216">
+        <v>0.049742596921268</v>
+      </c>
+      <c r="AK216">
+        <v>0.05003144860697</v>
+      </c>
+      <c r="AL216">
+        <v>0.04890632382611</v>
+      </c>
+      <c r="AM216">
+        <v>0.051017789181242</v>
+      </c>
+      <c r="AN216">
+        <v>0.060660911086842</v>
+      </c>
+      <c r="AO216">
+        <v>0.064613831777953</v>
+      </c>
+      <c r="AP216">
+        <v>0.046083858742904</v>
+      </c>
+      <c r="AQ216">
+        <v>0.053629985991348</v>
+      </c>
+      <c r="AR216">
+        <v>0.078298298831025</v>
+      </c>
+      <c r="AS216">
+        <v>0.046600887232026</v>
+      </c>
+      <c r="AT216">
+        <v>0.057420277705546</v>
+      </c>
+      <c r="AU216">
+        <v>0.074747252306528</v>
+      </c>
+      <c r="AV216">
+        <v>0.060001815447056</v>
+      </c>
+      <c r="AW216">
+        <v>0.052555806278147</v>
+      </c>
+      <c r="AX216">
+        <v>0.0631846757184</v>
+      </c>
+      <c r="AY216">
+        <v>0.049794937397444</v>
+      </c>
+      <c r="AZ216">
+        <v>0.071504295627267</v>
+      </c>
+      <c r="BA216">
+        <v>0.054157219576257</v>
+      </c>
+      <c r="BB216">
+        <v>0.046446818513254</v>
+      </c>
+      <c r="BC216">
+        <v>0.064916380499527</v>
+      </c>
+      <c r="BD216">
+        <v>0.056643918978411</v>
+      </c>
+      <c r="BE216">
+        <v>0.069932171792205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:57">
+      <c r="A217" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218" spans="1:57">
+      <c r="A218" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:57">
+      <c r="A219" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="220" spans="1:57">
+      <c r="A220" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="221" spans="1:57">
+      <c r="A221" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Alaska</t>
   </si>
@@ -843,6 +843,27 @@
   <si>
     <t>07 09 2020</t>
   </si>
+  <si>
+    <t>08 09 2020</t>
+  </si>
+  <si>
+    <t>09 09 2020</t>
+  </si>
+  <si>
+    <t>10 09 2020</t>
+  </si>
+  <si>
+    <t>11 09 2020</t>
+  </si>
+  <si>
+    <t>12 09 2020</t>
+  </si>
+  <si>
+    <t>13 09 2020</t>
+  </si>
+  <si>
+    <t>14 09 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1173,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE221"/>
+  <dimension ref="A1:BE228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22295,6 +22316,9 @@
       <c r="D123">
         <v>0.045964859112744</v>
       </c>
+      <c r="E123">
+        <v>0.08824855699855701</v>
+      </c>
       <c r="F123">
         <v>0.043435772153331</v>
       </c>
@@ -22465,6 +22489,9 @@
       <c r="D124">
         <v>0.04736078444258</v>
       </c>
+      <c r="E124">
+        <v>0.066666666666667</v>
+      </c>
       <c r="F124">
         <v>0.043127223384327</v>
       </c>
@@ -22635,6 +22662,9 @@
       <c r="D125">
         <v>0.044996062153578</v>
       </c>
+      <c r="E125">
+        <v>0.07142857142857099</v>
+      </c>
       <c r="F125">
         <v>0.038308288114459</v>
       </c>
@@ -22805,6 +22835,9 @@
       <c r="D126">
         <v>0.047180554930565</v>
       </c>
+      <c r="E126">
+        <v>0.055555555555556</v>
+      </c>
       <c r="F126">
         <v>0.047800299740723</v>
       </c>
@@ -22975,6 +23008,9 @@
       <c r="D127">
         <v>0.034495733314293</v>
       </c>
+      <c r="E127">
+        <v>0.04</v>
+      </c>
       <c r="F127">
         <v>0.040725947188343</v>
       </c>
@@ -23145,6 +23181,9 @@
       <c r="D128">
         <v>0.019934964015289</v>
       </c>
+      <c r="E128">
+        <v>0.04</v>
+      </c>
       <c r="F128">
         <v>0.025158781602153</v>
       </c>
@@ -23315,6 +23354,9 @@
       <c r="D129">
         <v>0.018435237440827</v>
       </c>
+      <c r="E129">
+        <v>0.03448275862069</v>
+      </c>
       <c r="F129">
         <v>0.026577999609875</v>
       </c>
@@ -38266,25 +38308,1215 @@
       <c r="A217" t="s">
         <v>271</v>
       </c>
+      <c r="B217">
+        <v>0.054051777181167</v>
+      </c>
+      <c r="C217">
+        <v>0.07438515689485201</v>
+      </c>
+      <c r="D217">
+        <v>0.0738604828078</v>
+      </c>
+      <c r="F217">
+        <v>0.0456171526476</v>
+      </c>
+      <c r="G217">
+        <v>0.058230047036429</v>
+      </c>
+      <c r="H217">
+        <v>0.06011620828467</v>
+      </c>
+      <c r="I217">
+        <v>0.054684060933052</v>
+      </c>
+      <c r="J217">
+        <v>0.044544280676471</v>
+      </c>
+      <c r="K217">
+        <v>0.049765153601888</v>
+      </c>
+      <c r="L217">
+        <v>0.059431951327948</v>
+      </c>
+      <c r="M217">
+        <v>0.06402341157105</v>
+      </c>
+      <c r="N217">
+        <v>0.05894148898075</v>
+      </c>
+      <c r="O217">
+        <v>0.033970797790813</v>
+      </c>
+      <c r="P217">
+        <v>0.090041035206897</v>
+      </c>
+      <c r="Q217">
+        <v>0.06672973413746799</v>
+      </c>
+      <c r="R217">
+        <v>0.056850158392668</v>
+      </c>
+      <c r="S217">
+        <v>0.068565728695483</v>
+      </c>
+      <c r="T217">
+        <v>0.072839862095621</v>
+      </c>
+      <c r="U217">
+        <v>0.064301138862924</v>
+      </c>
+      <c r="V217">
+        <v>0.069916863010095</v>
+      </c>
+      <c r="W217">
+        <v>0.054578443518419</v>
+      </c>
+      <c r="X217">
+        <v>0.050309643541666</v>
+      </c>
+      <c r="Y217">
+        <v>0.06187218647042</v>
+      </c>
+      <c r="Z217">
+        <v>0.055971056641306</v>
+      </c>
+      <c r="AA217">
+        <v>0.051994237079487</v>
+      </c>
+      <c r="AB217">
+        <v>0.074978637787797</v>
+      </c>
+      <c r="AC217">
+        <v>0.074528439225998</v>
+      </c>
+      <c r="AD217">
+        <v>0.073762473364187</v>
+      </c>
+      <c r="AE217">
+        <v>0.070223000239988</v>
+      </c>
+      <c r="AF217">
+        <v>0.058087651072401</v>
+      </c>
+      <c r="AG217">
+        <v>0.074703563831317</v>
+      </c>
+      <c r="AH217">
+        <v>0.087970894799088</v>
+      </c>
+      <c r="AI217">
+        <v>0.063224830834889</v>
+      </c>
+      <c r="AJ217">
+        <v>0.054005238369497</v>
+      </c>
+      <c r="AK217">
+        <v>0.056392354330879</v>
+      </c>
+      <c r="AL217">
+        <v>0.051842289603355</v>
+      </c>
+      <c r="AM217">
+        <v>0.054801511252347</v>
+      </c>
+      <c r="AN217">
+        <v>0.062533337142858</v>
+      </c>
+      <c r="AO217">
+        <v>0.06770515358792201</v>
+      </c>
+      <c r="AP217">
+        <v>0.047275609226473</v>
+      </c>
+      <c r="AQ217">
+        <v>0.058514156851789</v>
+      </c>
+      <c r="AR217">
+        <v>0.078790580284043</v>
+      </c>
+      <c r="AS217">
+        <v>0.054457336686406</v>
+      </c>
+      <c r="AT217">
+        <v>0.0634249737448</v>
+      </c>
+      <c r="AU217">
+        <v>0.07688945607342899</v>
+      </c>
+      <c r="AV217">
+        <v>0.06628315205109001</v>
+      </c>
+      <c r="AW217">
+        <v>0.057192161236652</v>
+      </c>
+      <c r="AX217">
+        <v>0.066037670806815</v>
+      </c>
+      <c r="AY217">
+        <v>0.053260287807968</v>
+      </c>
+      <c r="AZ217">
+        <v>0.08627631944175899</v>
+      </c>
+      <c r="BA217">
+        <v>0.059688520520676</v>
+      </c>
+      <c r="BB217">
+        <v>0.049873568594837</v>
+      </c>
+      <c r="BC217">
+        <v>0.066927199265464</v>
+      </c>
+      <c r="BD217">
+        <v>0.057483164472022</v>
+      </c>
+      <c r="BE217">
+        <v>0.06713071233567</v>
+      </c>
     </row>
     <row r="218" spans="1:57">
       <c r="A218" t="s">
         <v>272</v>
       </c>
+      <c r="B218">
+        <v>0.042710485544877</v>
+      </c>
+      <c r="C218">
+        <v>0.061611162361701</v>
+      </c>
+      <c r="D218">
+        <v>0.059548700068907</v>
+      </c>
+      <c r="F218">
+        <v>0.036826053578075</v>
+      </c>
+      <c r="G218">
+        <v>0.052085677482251</v>
+      </c>
+      <c r="H218">
+        <v>0.056488130755608</v>
+      </c>
+      <c r="I218">
+        <v>0.059240254568204</v>
+      </c>
+      <c r="J218">
+        <v>0.057674723860616</v>
+      </c>
+      <c r="K218">
+        <v>0.047889740777501</v>
+      </c>
+      <c r="L218">
+        <v>0.056356195338835</v>
+      </c>
+      <c r="M218">
+        <v>0.048467729379673</v>
+      </c>
+      <c r="N218">
+        <v>0.054343223472767</v>
+      </c>
+      <c r="O218">
+        <v>0.027288756341795</v>
+      </c>
+      <c r="P218">
+        <v>0.063455833879765</v>
+      </c>
+      <c r="Q218">
+        <v>0.04476842660233</v>
+      </c>
+      <c r="R218">
+        <v>0.041047362260838</v>
+      </c>
+      <c r="S218">
+        <v>0.048114529755593</v>
+      </c>
+      <c r="T218">
+        <v>0.051572547524188</v>
+      </c>
+      <c r="U218">
+        <v>0.042167527062057</v>
+      </c>
+      <c r="V218">
+        <v>0.050090894039522</v>
+      </c>
+      <c r="W218">
+        <v>0.045485240086773</v>
+      </c>
+      <c r="X218">
+        <v>0.039700891826407</v>
+      </c>
+      <c r="Y218">
+        <v>0.047306242420121</v>
+      </c>
+      <c r="Z218">
+        <v>0.043224188540384</v>
+      </c>
+      <c r="AA218">
+        <v>0.043639501220807</v>
+      </c>
+      <c r="AB218">
+        <v>0.06321169344661901</v>
+      </c>
+      <c r="AC218">
+        <v>0.07555615362937899</v>
+      </c>
+      <c r="AD218">
+        <v>0.062149964924606</v>
+      </c>
+      <c r="AE218">
+        <v>0.061050345654124</v>
+      </c>
+      <c r="AF218">
+        <v>0.048997235883406</v>
+      </c>
+      <c r="AG218">
+        <v>0.06469543942195</v>
+      </c>
+      <c r="AH218">
+        <v>0.07388735108484901</v>
+      </c>
+      <c r="AI218">
+        <v>0.046330292073797</v>
+      </c>
+      <c r="AJ218">
+        <v>0.042553574061827</v>
+      </c>
+      <c r="AK218">
+        <v>0.047061575714342</v>
+      </c>
+      <c r="AL218">
+        <v>0.045570799809682</v>
+      </c>
+      <c r="AM218">
+        <v>0.048030477833557</v>
+      </c>
+      <c r="AN218">
+        <v>0.055898819229505</v>
+      </c>
+      <c r="AO218">
+        <v>0.056513541005481</v>
+      </c>
+      <c r="AP218">
+        <v>0.043897939364471</v>
+      </c>
+      <c r="AQ218">
+        <v>0.04640487720092</v>
+      </c>
+      <c r="AR218">
+        <v>0.074757237943558</v>
+      </c>
+      <c r="AS218">
+        <v>0.04530581810441</v>
+      </c>
+      <c r="AT218">
+        <v>0.04772673858807</v>
+      </c>
+      <c r="AU218">
+        <v>0.048935588185846</v>
+      </c>
+      <c r="AV218">
+        <v>0.051632382827469</v>
+      </c>
+      <c r="AW218">
+        <v>0.046244025070133</v>
+      </c>
+      <c r="AX218">
+        <v>0.051739318675116</v>
+      </c>
+      <c r="AY218">
+        <v>0.041465770376391</v>
+      </c>
+      <c r="AZ218">
+        <v>0.07650479673057101</v>
+      </c>
+      <c r="BA218">
+        <v>0.045924272586575</v>
+      </c>
+      <c r="BB218">
+        <v>0.041118400577428</v>
+      </c>
+      <c r="BC218">
+        <v>0.05498489602733</v>
+      </c>
+      <c r="BD218">
+        <v>0.046184119328981</v>
+      </c>
+      <c r="BE218">
+        <v>0.05241838759616</v>
+      </c>
     </row>
     <row r="219" spans="1:57">
       <c r="A219" t="s">
         <v>273</v>
       </c>
+      <c r="B219">
+        <v>0.034381609421372</v>
+      </c>
+      <c r="C219">
+        <v>0.023613756377148</v>
+      </c>
+      <c r="D219">
+        <v>0.024007183724442</v>
+      </c>
+      <c r="F219">
+        <v>0.0272359926018</v>
+      </c>
+      <c r="G219">
+        <v>0.039932698939804</v>
+      </c>
+      <c r="H219">
+        <v>0.035669264853925</v>
+      </c>
+      <c r="I219">
+        <v>0.028364548033779</v>
+      </c>
+      <c r="J219">
+        <v>0.038813133925931</v>
+      </c>
+      <c r="K219">
+        <v>0.028293585281671</v>
+      </c>
+      <c r="L219">
+        <v>0.025847069505638</v>
+      </c>
+      <c r="M219">
+        <v>0.025633850225</v>
+      </c>
+      <c r="N219">
+        <v>0.059301279959332</v>
+      </c>
+      <c r="O219">
+        <v>0.025968482676658</v>
+      </c>
+      <c r="P219">
+        <v>0.026009347054522</v>
+      </c>
+      <c r="Q219">
+        <v>0.037314099130703</v>
+      </c>
+      <c r="R219">
+        <v>0.031769392314</v>
+      </c>
+      <c r="S219">
+        <v>0.026042966285571</v>
+      </c>
+      <c r="T219">
+        <v>0.024554261130003</v>
+      </c>
+      <c r="U219">
+        <v>0.02422300700049</v>
+      </c>
+      <c r="V219">
+        <v>0.029029932389594</v>
+      </c>
+      <c r="W219">
+        <v>0.033384501056168</v>
+      </c>
+      <c r="X219">
+        <v>0.027601208443583</v>
+      </c>
+      <c r="Y219">
+        <v>0.031435145021726</v>
+      </c>
+      <c r="Z219">
+        <v>0.027710414365475</v>
+      </c>
+      <c r="AA219">
+        <v>0.024419942959275</v>
+      </c>
+      <c r="AB219">
+        <v>0.023613539668638</v>
+      </c>
+      <c r="AC219">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="AD219">
+        <v>0.022778905347017</v>
+      </c>
+      <c r="AE219">
+        <v>0.034243504832655</v>
+      </c>
+      <c r="AF219">
+        <v>0.025004043573436</v>
+      </c>
+      <c r="AG219">
+        <v>0.029315168864589</v>
+      </c>
+      <c r="AH219">
+        <v>0.024348215085731</v>
+      </c>
+      <c r="AI219">
+        <v>0.025585579596129</v>
+      </c>
+      <c r="AJ219">
+        <v>0.025878110140271</v>
+      </c>
+      <c r="AK219">
+        <v>0.034446816458073</v>
+      </c>
+      <c r="AL219">
+        <v>0.028530542622511</v>
+      </c>
+      <c r="AM219">
+        <v>0.032972284805662</v>
+      </c>
+      <c r="AN219">
+        <v>0.028893497987105</v>
+      </c>
+      <c r="AO219">
+        <v>0.025908583583811</v>
+      </c>
+      <c r="AP219">
+        <v>0.034229765970104</v>
+      </c>
+      <c r="AQ219">
+        <v>0.031909478738068</v>
+      </c>
+      <c r="AR219">
+        <v>0.071346429010763</v>
+      </c>
+      <c r="AS219">
+        <v>0.035831902468437</v>
+      </c>
+      <c r="AT219">
+        <v>0.026567885659019</v>
+      </c>
+      <c r="AU219">
+        <v>0.031277151712665</v>
+      </c>
+      <c r="AV219">
+        <v>0.025971984141687</v>
+      </c>
+      <c r="AW219">
+        <v>0.026724383787796</v>
+      </c>
+      <c r="AX219">
+        <v>0.036893379328037</v>
+      </c>
+      <c r="AY219">
+        <v>0.028943747983393</v>
+      </c>
+      <c r="AZ219">
+        <v>0.069499502555656</v>
+      </c>
+      <c r="BA219">
+        <v>0.038977036534405</v>
+      </c>
+      <c r="BB219">
+        <v>0.032738462403396</v>
+      </c>
+      <c r="BC219">
+        <v>0.028439819222274</v>
+      </c>
+      <c r="BD219">
+        <v>0.031070888494907</v>
+      </c>
+      <c r="BE219">
+        <v>0.03534211458212</v>
+      </c>
     </row>
     <row r="220" spans="1:57">
       <c r="A220" t="s">
         <v>274</v>
       </c>
+      <c r="B220">
+        <v>0.043784947245174</v>
+      </c>
+      <c r="C220">
+        <v>0.025060070471132</v>
+      </c>
+      <c r="D220">
+        <v>0.021543243658368</v>
+      </c>
+      <c r="F220">
+        <v>0.02811157325704</v>
+      </c>
+      <c r="G220">
+        <v>0.028890323729104</v>
+      </c>
+      <c r="H220">
+        <v>0.029728421758617</v>
+      </c>
+      <c r="I220">
+        <v>0.026465502531631</v>
+      </c>
+      <c r="J220">
+        <v>0.040047894324592</v>
+      </c>
+      <c r="K220">
+        <v>0.025367020618753</v>
+      </c>
+      <c r="L220">
+        <v>0.023555198390088</v>
+      </c>
+      <c r="M220">
+        <v>0.021362822847995</v>
+      </c>
+      <c r="N220">
+        <v>0.055994557088414</v>
+      </c>
+      <c r="O220">
+        <v>0.024565848184243</v>
+      </c>
+      <c r="P220">
+        <v>0.02318692058494</v>
+      </c>
+      <c r="Q220">
+        <v>0.031041903302498</v>
+      </c>
+      <c r="R220">
+        <v>0.026303239043875</v>
+      </c>
+      <c r="S220">
+        <v>0.023250156828383</v>
+      </c>
+      <c r="T220">
+        <v>0.023704754794478</v>
+      </c>
+      <c r="U220">
+        <v>0.022783877853218</v>
+      </c>
+      <c r="V220">
+        <v>0.026779133411092</v>
+      </c>
+      <c r="W220">
+        <v>0.030515264762792</v>
+      </c>
+      <c r="X220">
+        <v>0.025433332794019</v>
+      </c>
+      <c r="Y220">
+        <v>0.029847800865596</v>
+      </c>
+      <c r="Z220">
+        <v>0.025354793579908</v>
+      </c>
+      <c r="AA220">
+        <v>0.02331731861083</v>
+      </c>
+      <c r="AB220">
+        <v>0.022075355179746</v>
+      </c>
+      <c r="AC220">
+        <v>0.045454545454545</v>
+      </c>
+      <c r="AD220">
+        <v>0.020402645857307</v>
+      </c>
+      <c r="AE220">
+        <v>0.033835417805526</v>
+      </c>
+      <c r="AF220">
+        <v>0.023526530900028</v>
+      </c>
+      <c r="AG220">
+        <v>0.027372239421361</v>
+      </c>
+      <c r="AH220">
+        <v>0.023601990737471</v>
+      </c>
+      <c r="AI220">
+        <v>0.025485590047435</v>
+      </c>
+      <c r="AJ220">
+        <v>0.026805562617296</v>
+      </c>
+      <c r="AK220">
+        <v>0.037645384679056</v>
+      </c>
+      <c r="AL220">
+        <v>0.02769980135361</v>
+      </c>
+      <c r="AM220">
+        <v>0.035696861679525</v>
+      </c>
+      <c r="AN220">
+        <v>0.028133588969447</v>
+      </c>
+      <c r="AO220">
+        <v>0.023061134286465</v>
+      </c>
+      <c r="AP220">
+        <v>0.030611739458278</v>
+      </c>
+      <c r="AQ220">
+        <v>0.028249586634902</v>
+      </c>
+      <c r="AR220">
+        <v>0.066481547104718</v>
+      </c>
+      <c r="AS220">
+        <v>0.031704695510383</v>
+      </c>
+      <c r="AT220">
+        <v>0.020777282822247</v>
+      </c>
+      <c r="AU220">
+        <v>0.025097244647127</v>
+      </c>
+      <c r="AV220">
+        <v>0.019773605151081</v>
+      </c>
+      <c r="AW220">
+        <v>0.019605830460213</v>
+      </c>
+      <c r="AX220">
+        <v>0.026984931923115</v>
+      </c>
+      <c r="AY220">
+        <v>0.022962814583392</v>
+      </c>
+      <c r="AZ220">
+        <v>0.06186885577657</v>
+      </c>
+      <c r="BA220">
+        <v>0.032640877488157</v>
+      </c>
+      <c r="BB220">
+        <v>0.026924183217225</v>
+      </c>
+      <c r="BC220">
+        <v>0.025143614284906</v>
+      </c>
+      <c r="BD220">
+        <v>0.026755561924353</v>
+      </c>
+      <c r="BE220">
+        <v>0.02931026919049</v>
+      </c>
     </row>
     <row r="221" spans="1:57">
       <c r="A221" t="s">
         <v>275</v>
+      </c>
+      <c r="B221">
+        <v>0.043980847512857</v>
+      </c>
+      <c r="C221">
+        <v>0.022954720393222</v>
+      </c>
+      <c r="D221">
+        <v>0.019679404317117</v>
+      </c>
+      <c r="F221">
+        <v>0.026625982911938</v>
+      </c>
+      <c r="G221">
+        <v>0.033221269133641</v>
+      </c>
+      <c r="H221">
+        <v>0.030452139519365</v>
+      </c>
+      <c r="I221">
+        <v>0.029242945369842</v>
+      </c>
+      <c r="J221">
+        <v>0.048047812661014</v>
+      </c>
+      <c r="K221">
+        <v>0.027837150759563</v>
+      </c>
+      <c r="L221">
+        <v>0.029073596980399</v>
+      </c>
+      <c r="M221">
+        <v>0.025377834067554</v>
+      </c>
+      <c r="N221">
+        <v>0.053273545902358</v>
+      </c>
+      <c r="O221">
+        <v>0.026096423860116</v>
+      </c>
+      <c r="P221">
+        <v>0.021101320371908</v>
+      </c>
+      <c r="Q221">
+        <v>0.032999612131734</v>
+      </c>
+      <c r="R221">
+        <v>0.02718167379395</v>
+      </c>
+      <c r="S221">
+        <v>0.021815001171181</v>
+      </c>
+      <c r="T221">
+        <v>0.021368080590068</v>
+      </c>
+      <c r="U221">
+        <v>0.021797304122306</v>
+      </c>
+      <c r="V221">
+        <v>0.027716425392725</v>
+      </c>
+      <c r="W221">
+        <v>0.032045401178898</v>
+      </c>
+      <c r="X221">
+        <v>0.026708173818026</v>
+      </c>
+      <c r="Y221">
+        <v>0.029340137932684</v>
+      </c>
+      <c r="Z221">
+        <v>0.026121805912437</v>
+      </c>
+      <c r="AA221">
+        <v>0.024201528248643</v>
+      </c>
+      <c r="AB221">
+        <v>0.02389600769207</v>
+      </c>
+      <c r="AC221">
+        <v>0.10714285714286</v>
+      </c>
+      <c r="AD221">
+        <v>0.021826406642218</v>
+      </c>
+      <c r="AE221">
+        <v>0.035496701708366</v>
+      </c>
+      <c r="AF221">
+        <v>0.027038752625036</v>
+      </c>
+      <c r="AG221">
+        <v>0.029960792259418</v>
+      </c>
+      <c r="AH221">
+        <v>0.024688915202124</v>
+      </c>
+      <c r="AI221">
+        <v>0.028797541604559</v>
+      </c>
+      <c r="AJ221">
+        <v>0.030898445692022</v>
+      </c>
+      <c r="AK221">
+        <v>0.040348641208058</v>
+      </c>
+      <c r="AL221">
+        <v>0.030476117476802</v>
+      </c>
+      <c r="AM221">
+        <v>0.042203957674751</v>
+      </c>
+      <c r="AN221">
+        <v>0.027724594173255</v>
+      </c>
+      <c r="AO221">
+        <v>0.0237141537977</v>
+      </c>
+      <c r="AP221">
+        <v>0.029762343978024</v>
+      </c>
+      <c r="AQ221">
+        <v>0.029078951039638</v>
+      </c>
+      <c r="AR221">
+        <v>0.06737068830863201</v>
+      </c>
+      <c r="AS221">
+        <v>0.032774003118454</v>
+      </c>
+      <c r="AT221">
+        <v>0.024185487521417</v>
+      </c>
+      <c r="AU221">
+        <v>0.026623606837623</v>
+      </c>
+      <c r="AV221">
+        <v>0.022812960829811</v>
+      </c>
+      <c r="AW221">
+        <v>0.023671292738487</v>
+      </c>
+      <c r="AX221">
+        <v>0.029766220339437</v>
+      </c>
+      <c r="AY221">
+        <v>0.024988737718337</v>
+      </c>
+      <c r="AZ221">
+        <v>0.069773444283035</v>
+      </c>
+      <c r="BA221">
+        <v>0.035199854496327</v>
+      </c>
+      <c r="BB221">
+        <v>0.027881825286638</v>
+      </c>
+      <c r="BC221">
+        <v>0.024359995389024</v>
+      </c>
+      <c r="BD221">
+        <v>0.027372931945649</v>
+      </c>
+      <c r="BE221">
+        <v>0.028578037205865</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57">
+      <c r="A222" t="s">
+        <v>276</v>
+      </c>
+      <c r="B222">
+        <v>0.055099777617582</v>
+      </c>
+      <c r="C222">
+        <v>0.07357331436457699</v>
+      </c>
+      <c r="D222">
+        <v>0.067162863911504</v>
+      </c>
+      <c r="F222">
+        <v>0.042227893729904</v>
+      </c>
+      <c r="G222">
+        <v>0.055604700738256</v>
+      </c>
+      <c r="H222">
+        <v>0.062664452205533</v>
+      </c>
+      <c r="I222">
+        <v>0.060856992205913</v>
+      </c>
+      <c r="J222">
+        <v>0.048465448760751</v>
+      </c>
+      <c r="K222">
+        <v>0.052948754986868</v>
+      </c>
+      <c r="L222">
+        <v>0.060485247576582</v>
+      </c>
+      <c r="M222">
+        <v>0.06491697745646401</v>
+      </c>
+      <c r="N222">
+        <v>0.064811260357926</v>
+      </c>
+      <c r="O222">
+        <v>0.03392480352676</v>
+      </c>
+      <c r="P222">
+        <v>0.09241499059403201</v>
+      </c>
+      <c r="Q222">
+        <v>0.066863083530531</v>
+      </c>
+      <c r="R222">
+        <v>0.05913373606542</v>
+      </c>
+      <c r="S222">
+        <v>0.06734183708540301</v>
+      </c>
+      <c r="T222">
+        <v>0.073259243456368</v>
+      </c>
+      <c r="U222">
+        <v>0.063371356321845</v>
+      </c>
+      <c r="V222">
+        <v>0.072209276921379</v>
+      </c>
+      <c r="W222">
+        <v>0.057370186527555</v>
+      </c>
+      <c r="X222">
+        <v>0.052632919206198</v>
+      </c>
+      <c r="Y222">
+        <v>0.065147063612305</v>
+      </c>
+      <c r="Z222">
+        <v>0.06291834134391799</v>
+      </c>
+      <c r="AA222">
+        <v>0.063714079550789</v>
+      </c>
+      <c r="AB222">
+        <v>0.07742894282795899</v>
+      </c>
+      <c r="AC222">
+        <v>0.10714285714286</v>
+      </c>
+      <c r="AD222">
+        <v>0.07786913965181801</v>
+      </c>
+      <c r="AE222">
+        <v>0.07610031323145799</v>
+      </c>
+      <c r="AF222">
+        <v>0.058468199294164</v>
+      </c>
+      <c r="AG222">
+        <v>0.076198249162045</v>
+      </c>
+      <c r="AH222">
+        <v>0.088551008539547</v>
+      </c>
+      <c r="AI222">
+        <v>0.059899615561033</v>
+      </c>
+      <c r="AJ222">
+        <v>0.05196297807995</v>
+      </c>
+      <c r="AK222">
+        <v>0.054068569092454</v>
+      </c>
+      <c r="AL222">
+        <v>0.050744920457597</v>
+      </c>
+      <c r="AM222">
+        <v>0.056265134250658</v>
+      </c>
+      <c r="AN222">
+        <v>0.06464039040494</v>
+      </c>
+      <c r="AO222">
+        <v>0.06756415696542099</v>
+      </c>
+      <c r="AP222">
+        <v>0.046484356819168</v>
+      </c>
+      <c r="AQ222">
+        <v>0.058024066420828</v>
+      </c>
+      <c r="AR222">
+        <v>0.071298492035621</v>
+      </c>
+      <c r="AS222">
+        <v>0.05206948716924</v>
+      </c>
+      <c r="AT222">
+        <v>0.063885672041294</v>
+      </c>
+      <c r="AU222">
+        <v>0.08221328976584</v>
+      </c>
+      <c r="AV222">
+        <v>0.065989722872595</v>
+      </c>
+      <c r="AW222">
+        <v>0.061250006148402</v>
+      </c>
+      <c r="AX222">
+        <v>0.065497474822725</v>
+      </c>
+      <c r="AY222">
+        <v>0.060743709960693</v>
+      </c>
+      <c r="AZ222">
+        <v>0.058522305405861</v>
+      </c>
+      <c r="BA222">
+        <v>0.06760100184730899</v>
+      </c>
+      <c r="BB222">
+        <v>0.054115320275422</v>
+      </c>
+      <c r="BC222">
+        <v>0.07419223988535199</v>
+      </c>
+      <c r="BD222">
+        <v>0.067104246970036</v>
+      </c>
+      <c r="BE222">
+        <v>0.069954580806439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:57">
+      <c r="A223" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223">
+        <v>0.06233703029946</v>
+      </c>
+      <c r="C223">
+        <v>0.08006736483764</v>
+      </c>
+      <c r="D223">
+        <v>0.078665537607293</v>
+      </c>
+      <c r="F223">
+        <v>0.05145993946714</v>
+      </c>
+      <c r="G223">
+        <v>0.05599263576615</v>
+      </c>
+      <c r="H223">
+        <v>0.056727521657554</v>
+      </c>
+      <c r="I223">
+        <v>0.051817614562139</v>
+      </c>
+      <c r="J223">
+        <v>0.042324555092455</v>
+      </c>
+      <c r="K223">
+        <v>0.046257925958561</v>
+      </c>
+      <c r="L223">
+        <v>0.051849344879533</v>
+      </c>
+      <c r="M223">
+        <v>0.057685094193455</v>
+      </c>
+      <c r="N223">
+        <v>0.055589774328391</v>
+      </c>
+      <c r="O223">
+        <v>0.027888675402088</v>
+      </c>
+      <c r="P223">
+        <v>0.07997875443718</v>
+      </c>
+      <c r="Q223">
+        <v>0.060472466891424</v>
+      </c>
+      <c r="R223">
+        <v>0.051360043981396</v>
+      </c>
+      <c r="S223">
+        <v>0.060969764649746</v>
+      </c>
+      <c r="T223">
+        <v>0.07081561967786</v>
+      </c>
+      <c r="U223">
+        <v>0.05642441603209</v>
+      </c>
+      <c r="V223">
+        <v>0.06540190937344501</v>
+      </c>
+      <c r="W223">
+        <v>0.046814722028883</v>
+      </c>
+      <c r="X223">
+        <v>0.044338872092449</v>
+      </c>
+      <c r="Y223">
+        <v>0.053933634625667</v>
+      </c>
+      <c r="Z223">
+        <v>0.054131186289087</v>
+      </c>
+      <c r="AA223">
+        <v>0.05470442484022</v>
+      </c>
+      <c r="AB223">
+        <v>0.071476856941772</v>
+      </c>
+      <c r="AC223">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="AD223">
+        <v>0.070418458535945</v>
+      </c>
+      <c r="AE223">
+        <v>0.06827130011422899</v>
+      </c>
+      <c r="AF223">
+        <v>0.055671087878886</v>
+      </c>
+      <c r="AG223">
+        <v>0.0746521851787</v>
+      </c>
+      <c r="AH223">
+        <v>0.085599096141524</v>
+      </c>
+      <c r="AI223">
+        <v>0.059580211976321</v>
+      </c>
+      <c r="AJ223">
+        <v>0.052608317022114</v>
+      </c>
+      <c r="AK223">
+        <v>0.051989302263832</v>
+      </c>
+      <c r="AL223">
+        <v>0.047567007410545</v>
+      </c>
+      <c r="AM223">
+        <v>0.05681831632375</v>
+      </c>
+      <c r="AN223">
+        <v>0.061177102746296</v>
+      </c>
+      <c r="AO223">
+        <v>0.065900106923635</v>
+      </c>
+      <c r="AP223">
+        <v>0.041494572592151</v>
+      </c>
+      <c r="AQ223">
+        <v>0.054911192163063</v>
+      </c>
+      <c r="AR223">
+        <v>0.065356939548303</v>
+      </c>
+      <c r="AS223">
+        <v>0.051009241524045</v>
+      </c>
+      <c r="AT223">
+        <v>0.060710762661969</v>
+      </c>
+      <c r="AU223">
+        <v>0.07792611923352299</v>
+      </c>
+      <c r="AV223">
+        <v>0.062398764557326</v>
+      </c>
+      <c r="AW223">
+        <v>0.057686366700999</v>
+      </c>
+      <c r="AX223">
+        <v>0.062039264807687</v>
+      </c>
+      <c r="AY223">
+        <v>0.052831348530397</v>
+      </c>
+      <c r="AZ223">
+        <v>0.06256067939188301</v>
+      </c>
+      <c r="BA223">
+        <v>0.053923497487543</v>
+      </c>
+      <c r="BB223">
+        <v>0.045992159899892</v>
+      </c>
+      <c r="BC223">
+        <v>0.064230531404093</v>
+      </c>
+      <c r="BD223">
+        <v>0.057844411081379</v>
+      </c>
+      <c r="BE223">
+        <v>0.06479847427334801</v>
+      </c>
+    </row>
+    <row r="224" spans="1:57">
+      <c r="A224" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/away6+hours.xlsx
+++ b/away6+hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Alaska</t>
   </si>
@@ -864,6 +864,30 @@
   <si>
     <t>14 09 2020</t>
   </si>
+  <si>
+    <t>15 09 2020</t>
+  </si>
+  <si>
+    <t>16 09 2020</t>
+  </si>
+  <si>
+    <t>17 09 2020</t>
+  </si>
+  <si>
+    <t>18 09 2020</t>
+  </si>
+  <si>
+    <t>19 09 2020</t>
+  </si>
+  <si>
+    <t>20 09 2020</t>
+  </si>
+  <si>
+    <t>21 09 2020</t>
+  </si>
+  <si>
+    <t>22 09 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1194,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE228"/>
+  <dimension ref="A1:BE236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23527,6 +23551,9 @@
       <c r="D130">
         <v>0.053471503760602</v>
       </c>
+      <c r="E130">
+        <v>0.04</v>
+      </c>
       <c r="F130">
         <v>0.048969514942726</v>
       </c>
@@ -23697,6 +23724,9 @@
       <c r="D131">
         <v>0.055428157129698</v>
       </c>
+      <c r="E131">
+        <v>0.045454545454545</v>
+      </c>
       <c r="F131">
         <v>0.05748631413948</v>
       </c>
@@ -23867,6 +23897,9 @@
       <c r="D132">
         <v>0.046274115551765</v>
       </c>
+      <c r="E132">
+        <v>0.052631578947368</v>
+      </c>
       <c r="F132">
         <v>0.037742365072021</v>
       </c>
@@ -24037,6 +24070,9 @@
       <c r="D133">
         <v>0.050569460006187</v>
       </c>
+      <c r="E133">
+        <v>0.038461538461538</v>
+      </c>
       <c r="F133">
         <v>0.046235110103995</v>
       </c>
@@ -24207,6 +24243,9 @@
       <c r="D134">
         <v>0.037385353904111</v>
       </c>
+      <c r="E134">
+        <v>0.045454545454545</v>
+      </c>
       <c r="F134">
         <v>0.034115334402686</v>
       </c>
@@ -24377,6 +24416,9 @@
       <c r="D135">
         <v>0.02771712448381</v>
       </c>
+      <c r="E135">
+        <v>0.041666666666667</v>
+      </c>
       <c r="F135">
         <v>0.037231278869109</v>
       </c>
@@ -24547,6 +24589,9 @@
       <c r="D136">
         <v>0.020474612484088</v>
       </c>
+      <c r="E136">
+        <v>0.045454545454545</v>
+      </c>
       <c r="F136">
         <v>0.026436417831557</v>
       </c>
@@ -24717,6 +24762,9 @@
       <c r="D137">
         <v>0.046171695152022</v>
       </c>
+      <c r="E137">
+        <v>0.047619047619048</v>
+      </c>
       <c r="F137">
         <v>0.039237190851252</v>
       </c>
@@ -39498,25 +39546,1385 @@
       <c r="A224" t="s">
         <v>278</v>
       </c>
+      <c r="B224">
+        <v>0.057050921064702</v>
+      </c>
+      <c r="C224">
+        <v>0.06877143754498601</v>
+      </c>
+      <c r="D224">
+        <v>0.073956478934325</v>
+      </c>
+      <c r="F224">
+        <v>0.051026404464092</v>
+      </c>
+      <c r="G224">
+        <v>0.055470799361202</v>
+      </c>
+      <c r="H224">
+        <v>0.062462238489104</v>
+      </c>
+      <c r="I224">
+        <v>0.057353280227658</v>
+      </c>
+      <c r="J224">
+        <v>0.042079774938215</v>
+      </c>
+      <c r="K224">
+        <v>0.049875536402275</v>
+      </c>
+      <c r="L224">
+        <v>0.056539657505971</v>
+      </c>
+      <c r="M224">
+        <v>0.06252219747959099</v>
+      </c>
+      <c r="N224">
+        <v>0.056207405645269</v>
+      </c>
+      <c r="O224">
+        <v>0.030566001093431</v>
+      </c>
+      <c r="P224">
+        <v>0.086106449163851</v>
+      </c>
+      <c r="Q224">
+        <v>0.064593836650344</v>
+      </c>
+      <c r="R224">
+        <v>0.053595223920523</v>
+      </c>
+      <c r="S224">
+        <v>0.061521517920152</v>
+      </c>
+      <c r="T224">
+        <v>0.07056562587093999</v>
+      </c>
+      <c r="U224">
+        <v>0.056533600474675</v>
+      </c>
+      <c r="V224">
+        <v>0.067704242164373</v>
+      </c>
+      <c r="W224">
+        <v>0.054844618326137</v>
+      </c>
+      <c r="X224">
+        <v>0.050469783309253</v>
+      </c>
+      <c r="Y224">
+        <v>0.061212480196961</v>
+      </c>
+      <c r="Z224">
+        <v>0.063196387492928</v>
+      </c>
+      <c r="AA224">
+        <v>0.065094371592332</v>
+      </c>
+      <c r="AB224">
+        <v>0.080139357294514</v>
+      </c>
+      <c r="AC224">
+        <v>0.026315789473684</v>
+      </c>
+      <c r="AD224">
+        <v>0.077821577615446</v>
+      </c>
+      <c r="AE224">
+        <v>0.07856427032626501</v>
+      </c>
+      <c r="AF224">
+        <v>0.053752658577096</v>
+      </c>
+      <c r="AG224">
+        <v>0.071258197982218</v>
+      </c>
+      <c r="AH224">
+        <v>0.093679744591408</v>
+      </c>
+      <c r="AI224">
+        <v>0.06609866026391099</v>
+      </c>
+      <c r="AJ224">
+        <v>0.057487581339471</v>
+      </c>
+      <c r="AK224">
+        <v>0.053777487010688</v>
+      </c>
+      <c r="AL224">
+        <v>0.055562459717516</v>
+      </c>
+      <c r="AM224">
+        <v>0.056177840425125</v>
+      </c>
+      <c r="AN224">
+        <v>0.060649359959794</v>
+      </c>
+      <c r="AO224">
+        <v>0.06730672326506899</v>
+      </c>
+      <c r="AP224">
+        <v>0.044521124006568</v>
+      </c>
+      <c r="AQ224">
+        <v>0.060136833896538</v>
+      </c>
+      <c r="AR224">
+        <v>0.06860594534195499</v>
+      </c>
+      <c r="AS224">
+        <v>0.057691079217082</v>
+      </c>
+      <c r="AT224">
+        <v>0.064885217984644</v>
+      </c>
+      <c r="AU224">
+        <v>0.08429977592262999</v>
+      </c>
+      <c r="AV224">
+        <v>0.06778077654897501</v>
+      </c>
+      <c r="AW224">
+        <v>0.061771838792506</v>
+      </c>
+      <c r="AX224">
+        <v>0.071242657455202</v>
+      </c>
+      <c r="AY224">
+        <v>0.058254512269694</v>
+      </c>
+      <c r="AZ224">
+        <v>0.064828545080028</v>
+      </c>
+      <c r="BA224">
+        <v>0.0660873564107</v>
+      </c>
+      <c r="BB224">
+        <v>0.052466981947306</v>
+      </c>
+      <c r="BC224">
+        <v>0.070084311005916</v>
+      </c>
+      <c r="BD224">
+        <v>0.064981155810898</v>
+      </c>
+      <c r="BE224">
+        <v>0.06931416636311601</v>
+      </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:57">
       <c r="A225" t="s">
         <v>279</v>
       </c>
+      <c r="B225">
+        <v>0.048738573056565</v>
+      </c>
+      <c r="C225">
+        <v>0.058587231497798</v>
+      </c>
+      <c r="D225">
+        <v>0.059171789915173</v>
+      </c>
+      <c r="F225">
+        <v>0.039725983741945</v>
+      </c>
+      <c r="G225">
+        <v>0.048597893215433</v>
+      </c>
+      <c r="H225">
+        <v>0.054173995034905</v>
+      </c>
+      <c r="I225">
+        <v>0.054528041180668</v>
+      </c>
+      <c r="J225">
+        <v>0.045462861309678</v>
+      </c>
+      <c r="K225">
+        <v>0.045583318352159</v>
+      </c>
+      <c r="L225">
+        <v>0.050890661947946</v>
+      </c>
+      <c r="M225">
+        <v>0.055252874219075</v>
+      </c>
+      <c r="N225">
+        <v>0.057026488151232</v>
+      </c>
+      <c r="O225">
+        <v>0.030074380526464</v>
+      </c>
+      <c r="P225">
+        <v>0.079112183532467</v>
+      </c>
+      <c r="Q225">
+        <v>0.054729534500675</v>
+      </c>
+      <c r="R225">
+        <v>0.050238672613729</v>
+      </c>
+      <c r="S225">
+        <v>0.057134419655262</v>
+      </c>
+      <c r="T225">
+        <v>0.064672930817191</v>
+      </c>
+      <c r="U225">
+        <v>0.0497113755778</v>
+      </c>
+      <c r="V225">
+        <v>0.05737882011742</v>
+      </c>
+      <c r="W225">
+        <v>0.048519575969466</v>
+      </c>
+      <c r="X225">
+        <v>0.042637790987656</v>
+      </c>
+      <c r="Y225">
+        <v>0.052735066587527</v>
+      </c>
+      <c r="Z225">
+        <v>0.054598133342847</v>
+      </c>
+      <c r="AA225">
+        <v>0.054248266416425</v>
+      </c>
+      <c r="AB225">
+        <v>0.06888823213487701</v>
+      </c>
+      <c r="AC225">
+        <v>0.096846846846847</v>
+      </c>
+      <c r="AD225">
+        <v>0.064379234620522</v>
+      </c>
+      <c r="AE225">
+        <v>0.065883966074021</v>
+      </c>
+      <c r="AF225">
+        <v>0.047752672023982</v>
+      </c>
+      <c r="AG225">
+        <v>0.063702891683215</v>
+      </c>
+      <c r="AH225">
+        <v>0.079625473939491</v>
+      </c>
+      <c r="AI225">
+        <v>0.057540654247281</v>
+      </c>
+      <c r="AJ225">
+        <v>0.051266859274132</v>
+      </c>
+      <c r="AK225">
+        <v>0.048690121504594</v>
+      </c>
+      <c r="AL225">
+        <v>0.047429601284078</v>
+      </c>
+      <c r="AM225">
+        <v>0.053259167594127</v>
+      </c>
+      <c r="AN225">
+        <v>0.057658252327976</v>
+      </c>
+      <c r="AO225">
+        <v>0.058581466278182</v>
+      </c>
+      <c r="AP225">
+        <v>0.039685338818654</v>
+      </c>
+      <c r="AQ225">
+        <v>0.052931834146464</v>
+      </c>
+      <c r="AR225">
+        <v>0.063364686391315</v>
+      </c>
+      <c r="AS225">
+        <v>0.051584961947213</v>
+      </c>
+      <c r="AT225">
+        <v>0.052652422535562</v>
+      </c>
+      <c r="AU225">
+        <v>0.071550281373351</v>
+      </c>
+      <c r="AV225">
+        <v>0.057193129044537</v>
+      </c>
+      <c r="AW225">
+        <v>0.052755530311367</v>
+      </c>
+      <c r="AX225">
+        <v>0.054858332444761</v>
+      </c>
+      <c r="AY225">
+        <v>0.048417152216941</v>
+      </c>
+      <c r="AZ225">
+        <v>0.062025317460495</v>
+      </c>
+      <c r="BA225">
+        <v>0.056604158342553</v>
+      </c>
+      <c r="BB225">
+        <v>0.043660455461509</v>
+      </c>
+      <c r="BC225">
+        <v>0.056000366605197</v>
+      </c>
+      <c r="BD225">
+        <v>0.052915189815507</v>
+      </c>
+      <c r="BE225">
+        <v>0.055674130874014</v>
+      </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:57">
       <c r="A226" t="s">
         <v>280</v>
       </c>
+      <c r="B226">
+        <v>0.039658480598443</v>
+      </c>
+      <c r="C226">
+        <v>0.022354969378437</v>
+      </c>
+      <c r="D226">
+        <v>0.024594779408764</v>
+      </c>
+      <c r="F226">
+        <v>0.028843178095214</v>
+      </c>
+      <c r="G226">
+        <v>0.035235101271312</v>
+      </c>
+      <c r="H226">
+        <v>0.029907632661197</v>
+      </c>
+      <c r="I226">
+        <v>0.025084037157174</v>
+      </c>
+      <c r="J226">
+        <v>0.035464613116732</v>
+      </c>
+      <c r="K226">
+        <v>0.023598437652912</v>
+      </c>
+      <c r="L226">
+        <v>0.021126630970187</v>
+      </c>
+      <c r="M226">
+        <v>0.020375619305381</v>
+      </c>
+      <c r="N226">
+        <v>0.054248292156255</v>
+      </c>
+      <c r="O226">
+        <v>0.021711622861302</v>
+      </c>
+      <c r="P226">
+        <v>0.024732387347302</v>
+      </c>
+      <c r="Q226">
+        <v>0.028364685468896</v>
+      </c>
+      <c r="R226">
+        <v>0.024688074567217</v>
+      </c>
+      <c r="S226">
+        <v>0.023311353466901</v>
+      </c>
+      <c r="T226">
+        <v>0.025710915949211</v>
+      </c>
+      <c r="U226">
+        <v>0.024905709774782</v>
+      </c>
+      <c r="V226">
+        <v>0.029382953355209</v>
+      </c>
+      <c r="W226">
+        <v>0.033518840782151</v>
+      </c>
+      <c r="X226">
+        <v>0.028176141702782</v>
+      </c>
+      <c r="Y226">
+        <v>0.0317850317666</v>
+      </c>
+      <c r="Z226">
+        <v>0.029848766096933</v>
+      </c>
+      <c r="AA226">
+        <v>0.026531780149527</v>
+      </c>
+      <c r="AB226">
+        <v>0.027697651806233</v>
+      </c>
+      <c r="AC226">
+        <v>0.038461538461538</v>
+      </c>
+      <c r="AD226">
+        <v>0.025082086444444</v>
+      </c>
+      <c r="AE226">
+        <v>0.039234734290045</v>
+      </c>
+      <c r="AF226">
+        <v>0.027117548633784</v>
+      </c>
+      <c r="AG226">
+        <v>0.029659972889888</v>
+      </c>
+      <c r="AH226">
+        <v>0.028924646533114</v>
+      </c>
+      <c r="AI226">
+        <v>0.027852960275459</v>
+      </c>
+      <c r="AJ226">
+        <v>0.030033085963557</v>
+      </c>
+      <c r="AK226">
+        <v>0.041110399418845</v>
+      </c>
+      <c r="AL226">
+        <v>0.033608924003653</v>
+      </c>
+      <c r="AM226">
+        <v>0.038819912056079</v>
+      </c>
+      <c r="AN226">
+        <v>0.030354532755303</v>
+      </c>
+      <c r="AO226">
+        <v>0.027762163451503</v>
+      </c>
+      <c r="AP226">
+        <v>0.033806017164449</v>
+      </c>
+      <c r="AQ226">
+        <v>0.033281558169869</v>
+      </c>
+      <c r="AR226">
+        <v>0.066387879983971</v>
+      </c>
+      <c r="AS226">
+        <v>0.037971752942533</v>
+      </c>
+      <c r="AT226">
+        <v>0.027949734476105</v>
+      </c>
+      <c r="AU226">
+        <v>0.032791154009858</v>
+      </c>
+      <c r="AV226">
+        <v>0.027018924474645</v>
+      </c>
+      <c r="AW226">
+        <v>0.026240204001726</v>
+      </c>
+      <c r="AX226">
+        <v>0.03184225386388</v>
+      </c>
+      <c r="AY226">
+        <v>0.025033129776156</v>
+      </c>
+      <c r="AZ226">
+        <v>0.067473432670368</v>
+      </c>
+      <c r="BA226">
+        <v>0.03295729463149</v>
+      </c>
+      <c r="BB226">
+        <v>0.027270150099184</v>
+      </c>
+      <c r="BC226">
+        <v>0.024045510140117</v>
+      </c>
+      <c r="BD226">
+        <v>0.026310409510792</v>
+      </c>
+      <c r="BE226">
+        <v>0.030000741865209</v>
+      </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:57">
       <c r="A227" t="s">
         <v>281</v>
       </c>
+      <c r="B227">
+        <v>0.041427716854542</v>
+      </c>
+      <c r="C227">
+        <v>0.019572432605234</v>
+      </c>
+      <c r="D227">
+        <v>0.02973163688929</v>
+      </c>
+      <c r="F227">
+        <v>0.034784672561435</v>
+      </c>
+      <c r="G227">
+        <v>0.033599292248746</v>
+      </c>
+      <c r="H227">
+        <v>0.027918964556606</v>
+      </c>
+      <c r="I227">
+        <v>0.024845985873583</v>
+      </c>
+      <c r="J227">
+        <v>0.038325898069262</v>
+      </c>
+      <c r="K227">
+        <v>0.023409107434951</v>
+      </c>
+      <c r="L227">
+        <v>0.020748738406462</v>
+      </c>
+      <c r="M227">
+        <v>0.0193047201491</v>
+      </c>
+      <c r="N227">
+        <v>0.054247304698288</v>
+      </c>
+      <c r="O227">
+        <v>0.023358989593246</v>
+      </c>
+      <c r="P227">
+        <v>0.023387921318117</v>
+      </c>
+      <c r="Q227">
+        <v>0.028049009209785</v>
+      </c>
+      <c r="R227">
+        <v>0.025227795623583</v>
+      </c>
+      <c r="S227">
+        <v>0.02289912474988</v>
+      </c>
+      <c r="T227">
+        <v>0.023820107939154</v>
+      </c>
+      <c r="U227">
+        <v>0.02355803341948</v>
+      </c>
+      <c r="V227">
+        <v>0.028900072724756</v>
+      </c>
+      <c r="W227">
+        <v>0.036672904809252</v>
+      </c>
+      <c r="X227">
+        <v>0.030319187688542</v>
+      </c>
+      <c r="Y227">
+        <v>0.032828587051855</v>
+      </c>
+      <c r="Z227">
+        <v>0.030969580198408</v>
+      </c>
+      <c r="AA227">
+        <v>0.026501506580744</v>
+      </c>
+      <c r="AB227">
+        <v>0.02332490676373</v>
+      </c>
+      <c r="AC227">
+        <v>0.03125</v>
+      </c>
+      <c r="AD227">
+        <v>0.021444596053235</v>
+      </c>
+      <c r="AE227">
+        <v>0.034328393990812</v>
+      </c>
+      <c r="AF227">
+        <v>0.025893547735875</v>
+      </c>
+      <c r="AG227">
+        <v>0.032845298770389</v>
+      </c>
+      <c r="AH227">
+        <v>0.02295031803756</v>
+      </c>
+      <c r="AI227">
+        <v>0.023722703572502</v>
+      </c>
+      <c r="AJ227">
+        <v>0.025488131210747</v>
+      </c>
+      <c r="AK227">
+        <v>0.03479605084806</v>
+      </c>
+      <c r="AL227">
+        <v>0.028305205904328</v>
+      </c>
+      <c r="AM227">
+        <v>0.036119486498932</v>
+      </c>
+      <c r="AN227">
+        <v>0.031668930248876</v>
+      </c>
+      <c r="AO227">
+        <v>0.025403003458719</v>
+      </c>
+      <c r="AP227">
+        <v>0.033275899905988</v>
+      </c>
+      <c r="AQ227">
+        <v>0.031192378857302</v>
+      </c>
+      <c r="AR227">
+        <v>0.066316133460728</v>
+      </c>
+      <c r="AS227">
+        <v>0.033347134780335</v>
+      </c>
+      <c r="AT227">
+        <v>0.023376482138622</v>
+      </c>
+      <c r="AU227">
+        <v>0.027571052618719</v>
+      </c>
+      <c r="AV227">
+        <v>0.021455602925158</v>
+      </c>
+      <c r="AW227">
+        <v>0.021914460033804</v>
+      </c>
+      <c r="AX227">
+        <v>0.027436545028094</v>
+      </c>
+      <c r="AY227">
+        <v>0.025205144152284</v>
+      </c>
+      <c r="AZ227">
+        <v>0.07057747565523401</v>
+      </c>
+      <c r="BA227">
+        <v>0.033940144873107</v>
+      </c>
+      <c r="BB227">
+        <v>0.027429385276904</v>
+      </c>
+      <c r="BC227">
+        <v>0.024588936027638</v>
+      </c>
+      <c r="BD227">
+        <v>0.026100300819244</v>
+      </c>
+      <c r="BE227">
+        <v>0.027541036459708</v>
+      </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:57">
       <c r="A228" t="s">
         <v>282</v>
+      </c>
+      <c r="B228">
+        <v>0.07171749569295301</v>
+      </c>
+      <c r="C228">
+        <v>0.076776852092913</v>
+      </c>
+      <c r="D228">
+        <v>0.068358168573402</v>
+      </c>
+      <c r="F228">
+        <v>0.053448715824358</v>
+      </c>
+      <c r="G228">
+        <v>0.052972310324827</v>
+      </c>
+      <c r="H228">
+        <v>0.068206377848676</v>
+      </c>
+      <c r="I228">
+        <v>0.068180167824406</v>
+      </c>
+      <c r="J228">
+        <v>0.051736482087608</v>
+      </c>
+      <c r="K228">
+        <v>0.057444107242153</v>
+      </c>
+      <c r="L228">
+        <v>0.058058771947913</v>
+      </c>
+      <c r="M228">
+        <v>0.062660755218376</v>
+      </c>
+      <c r="N228">
+        <v>0.057502039571792</v>
+      </c>
+      <c r="O228">
+        <v>0.031591832449421</v>
+      </c>
+      <c r="P228">
+        <v>0.083893369873041</v>
+      </c>
+      <c r="Q228">
+        <v>0.068944225388492</v>
+      </c>
+      <c r="R228">
+        <v>0.055469886304704</v>
+      </c>
+      <c r="S228">
+        <v>0.067464968851438</v>
+      </c>
+      <c r="T228">
+        <v>0.07377228934661099</v>
+      </c>
+      <c r="U228">
+        <v>0.060981540991408</v>
+      </c>
+      <c r="V228">
+        <v>0.061808051532675</v>
+      </c>
+      <c r="W228">
+        <v>0.055055771549458</v>
+      </c>
+      <c r="X228">
+        <v>0.049726418077549</v>
+      </c>
+      <c r="Y228">
+        <v>0.06425923684080601</v>
+      </c>
+      <c r="Z228">
+        <v>0.063024306376164</v>
+      </c>
+      <c r="AA228">
+        <v>0.06284417527663901</v>
+      </c>
+      <c r="AB228">
+        <v>0.073289183238505</v>
+      </c>
+      <c r="AC228">
+        <v>0.027777777777778</v>
+      </c>
+      <c r="AD228">
+        <v>0.07347133686401799</v>
+      </c>
+      <c r="AE228">
+        <v>0.07337737840766501</v>
+      </c>
+      <c r="AF228">
+        <v>0.058884505456333</v>
+      </c>
+      <c r="AG228">
+        <v>0.077113032373928</v>
+      </c>
+      <c r="AH228">
+        <v>0.084842111357841</v>
+      </c>
+      <c r="AI228">
+        <v>0.06311837085133699</v>
+      </c>
+      <c r="AJ228">
+        <v>0.055246661752539</v>
+      </c>
+      <c r="AK228">
+        <v>0.052662884498718</v>
+      </c>
+      <c r="AL228">
+        <v>0.049782590078408</v>
+      </c>
+      <c r="AM228">
+        <v>0.060695733882499</v>
+      </c>
+      <c r="AN228">
+        <v>0.066536679340557</v>
+      </c>
+      <c r="AO228">
+        <v>0.067363989717266</v>
+      </c>
+      <c r="AP228">
+        <v>0.04622042707333</v>
+      </c>
+      <c r="AQ228">
+        <v>0.058695001182302</v>
+      </c>
+      <c r="AR228">
+        <v>0.075255614290173</v>
+      </c>
+      <c r="AS228">
+        <v>0.055305635747352</v>
+      </c>
+      <c r="AT228">
+        <v>0.062988342493195</v>
+      </c>
+      <c r="AU228">
+        <v>0.078237437817754</v>
+      </c>
+      <c r="AV228">
+        <v>0.064198501623242</v>
+      </c>
+      <c r="AW228">
+        <v>0.058848661990417</v>
+      </c>
+      <c r="AX228">
+        <v>0.06835964953698501</v>
+      </c>
+      <c r="AY228">
+        <v>0.057525524650988</v>
+      </c>
+      <c r="AZ228">
+        <v>0.08722300344905499</v>
+      </c>
+      <c r="BA228">
+        <v>0.065724086476772</v>
+      </c>
+      <c r="BB228">
+        <v>0.050300040653581</v>
+      </c>
+      <c r="BC228">
+        <v>0.069310551833152</v>
+      </c>
+      <c r="BD228">
+        <v>0.066194129641924</v>
+      </c>
+      <c r="BE228">
+        <v>0.070166346778077</v>
+      </c>
+    </row>
+    <row r="229" spans="1:57">
+      <c r="A229" t="s">
+        <v>283</v>
+      </c>
+      <c r="B229">
+        <v>0.058863251967706</v>
+      </c>
+      <c r="C229">
+        <v>0.075021459741371</v>
+      </c>
+      <c r="D229">
+        <v>0.06924231830257099</v>
+      </c>
+      <c r="F229">
+        <v>0.0516689966583</v>
+      </c>
+      <c r="G229">
+        <v>0.063892887087453</v>
+      </c>
+      <c r="H229">
+        <v>0.065536304922252</v>
+      </c>
+      <c r="I229">
+        <v>0.06567142496754599</v>
+      </c>
+      <c r="J229">
+        <v>0.049863228174567</v>
+      </c>
+      <c r="K229">
+        <v>0.054479959953494</v>
+      </c>
+      <c r="L229">
+        <v>0.055705891864667</v>
+      </c>
+      <c r="M229">
+        <v>0.061368623073501</v>
+      </c>
+      <c r="N229">
+        <v>0.058172382368991</v>
+      </c>
+      <c r="O229">
+        <v>0.029869641473655</v>
+      </c>
+      <c r="P229">
+        <v>0.079409294561154</v>
+      </c>
+      <c r="Q229">
+        <v>0.064126850311468</v>
+      </c>
+      <c r="R229">
+        <v>0.050198325806195</v>
+      </c>
+      <c r="S229">
+        <v>0.061969906408837</v>
+      </c>
+      <c r="T229">
+        <v>0.068066826379376</v>
+      </c>
+      <c r="U229">
+        <v>0.056878840513622</v>
+      </c>
+      <c r="V229">
+        <v>0.055146778132182</v>
+      </c>
+      <c r="W229">
+        <v>0.05336951737477</v>
+      </c>
+      <c r="X229">
+        <v>0.048186740189032</v>
+      </c>
+      <c r="Y229">
+        <v>0.061153462129938</v>
+      </c>
+      <c r="Z229">
+        <v>0.058644721514911</v>
+      </c>
+      <c r="AA229">
+        <v>0.05680961071192</v>
+      </c>
+      <c r="AB229">
+        <v>0.072586718395106</v>
+      </c>
+      <c r="AC229">
+        <v>0.03448275862069</v>
+      </c>
+      <c r="AD229">
+        <v>0.063036554977416</v>
+      </c>
+      <c r="AE229">
+        <v>0.071535205882134</v>
+      </c>
+      <c r="AF229">
+        <v>0.057500353109579</v>
+      </c>
+      <c r="AG229">
+        <v>0.075558701115787</v>
+      </c>
+      <c r="AH229">
+        <v>0.082632573048032</v>
+      </c>
+      <c r="AI229">
+        <v>0.060783518177157</v>
+      </c>
+      <c r="AJ229">
+        <v>0.052561977707826</v>
+      </c>
+      <c r="AK229">
+        <v>0.050311576469954</v>
+      </c>
+      <c r="AL229">
+        <v>0.046855403427905</v>
+      </c>
+      <c r="AM229">
+        <v>0.057681049741187</v>
+      </c>
+      <c r="AN229">
+        <v>0.068627636832067</v>
+      </c>
+      <c r="AO229">
+        <v>0.07190335703001299</v>
+      </c>
+      <c r="AP229">
+        <v>0.052320455895931</v>
+      </c>
+      <c r="AQ229">
+        <v>0.064926959881712</v>
+      </c>
+      <c r="AR229">
+        <v>0.06991394596141499</v>
+      </c>
+      <c r="AS229">
+        <v>0.062534409789561</v>
+      </c>
+      <c r="AT229">
+        <v>0.066701782352491</v>
+      </c>
+      <c r="AU229">
+        <v>0.08364633957472301</v>
+      </c>
+      <c r="AV229">
+        <v>0.06814531210508</v>
+      </c>
+      <c r="AW229">
+        <v>0.05965860282823</v>
+      </c>
+      <c r="AX229">
+        <v>0.067120220807171</v>
+      </c>
+      <c r="AY229">
+        <v>0.057118823165895</v>
+      </c>
+      <c r="AZ229">
+        <v>0.061370822000185</v>
+      </c>
+      <c r="BA229">
+        <v>0.065558804073875</v>
+      </c>
+      <c r="BB229">
+        <v>0.050153454247147</v>
+      </c>
+      <c r="BC229">
+        <v>0.068829931674768</v>
+      </c>
+      <c r="BD229">
+        <v>0.06724747240804101</v>
+      </c>
+      <c r="BE229">
+        <v>0.0700128656278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:57">
+      <c r="A230" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230">
+        <v>0.072058281713482</v>
+      </c>
+      <c r="C230">
+        <v>0.059184295056242</v>
+      </c>
+      <c r="D230">
+        <v>0.066140566127177</v>
+      </c>
+      <c r="F230">
+        <v>0.056199444221023</v>
+      </c>
+      <c r="G230">
+        <v>0.052654589608885</v>
+      </c>
+      <c r="H230">
+        <v>0.054889378265066</v>
+      </c>
+      <c r="I230">
+        <v>0.051582112539626</v>
+      </c>
+      <c r="J230">
+        <v>0.041058026651306</v>
+      </c>
+      <c r="K230">
+        <v>0.049466351289037</v>
+      </c>
+      <c r="L230">
+        <v>0.054315956982397</v>
+      </c>
+      <c r="M230">
+        <v>0.06332230592435199</v>
+      </c>
+      <c r="N230">
+        <v>0.067683748262934</v>
+      </c>
+      <c r="O230">
+        <v>0.031974976851208</v>
+      </c>
+      <c r="P230">
+        <v>0.08348588609728499</v>
+      </c>
+      <c r="Q230">
+        <v>0.066893492981016</v>
+      </c>
+      <c r="R230">
+        <v>0.057426462978384</v>
+      </c>
+      <c r="S230">
+        <v>0.070019223085486</v>
+      </c>
+      <c r="T230">
+        <v>0.0775678412732</v>
+      </c>
+      <c r="U230">
+        <v>0.06350866767417999</v>
+      </c>
+      <c r="V230">
+        <v>0.071597281322082</v>
+      </c>
+      <c r="W230">
+        <v>0.049700801476302</v>
+      </c>
+      <c r="X230">
+        <v>0.048566524446521</v>
+      </c>
+      <c r="Y230">
+        <v>0.060650640726738</v>
+      </c>
+      <c r="Z230">
+        <v>0.053826027644483</v>
+      </c>
+      <c r="AA230">
+        <v>0.053780335778237</v>
+      </c>
+      <c r="AB230">
+        <v>0.070168454189829</v>
+      </c>
+      <c r="AC230">
+        <v>0.037037037037037</v>
+      </c>
+      <c r="AD230">
+        <v>0.064480858018319</v>
+      </c>
+      <c r="AE230">
+        <v>0.067701940253311</v>
+      </c>
+      <c r="AF230">
+        <v>0.060667428796788</v>
+      </c>
+      <c r="AG230">
+        <v>0.083343446996037</v>
+      </c>
+      <c r="AH230">
+        <v>0.080805988423579</v>
+      </c>
+      <c r="AI230">
+        <v>0.061669007691432</v>
+      </c>
+      <c r="AJ230">
+        <v>0.054774740000171</v>
+      </c>
+      <c r="AK230">
+        <v>0.05406140022287</v>
+      </c>
+      <c r="AL230">
+        <v>0.049915938161514</v>
+      </c>
+      <c r="AM230">
+        <v>0.063028547686862</v>
+      </c>
+      <c r="AN230">
+        <v>0.072001448537806</v>
+      </c>
+      <c r="AO230">
+        <v>0.07401568443710101</v>
+      </c>
+      <c r="AP230">
+        <v>0.056191250125855</v>
+      </c>
+      <c r="AQ230">
+        <v>0.067765289906971</v>
+      </c>
+      <c r="AR230">
+        <v>0.077303596533962</v>
+      </c>
+      <c r="AS230">
+        <v>0.064893482864281</v>
+      </c>
+      <c r="AT230">
+        <v>0.06744632098205</v>
+      </c>
+      <c r="AU230">
+        <v>0.089063918552211</v>
+      </c>
+      <c r="AV230">
+        <v>0.070758258211931</v>
+      </c>
+      <c r="AW230">
+        <v>0.064182368136411</v>
+      </c>
+      <c r="AX230">
+        <v>0.071760234418945</v>
+      </c>
+      <c r="AY230">
+        <v>0.059315121639276</v>
+      </c>
+      <c r="AZ230">
+        <v>0.080330931369062</v>
+      </c>
+      <c r="BA230">
+        <v>0.06544776040443</v>
+      </c>
+      <c r="BB230">
+        <v>0.055636133733229</v>
+      </c>
+      <c r="BC230">
+        <v>0.06667912963111999</v>
+      </c>
+      <c r="BD230">
+        <v>0.065433991204899</v>
+      </c>
+      <c r="BE230">
+        <v>0.073984656960925</v>
+      </c>
+    </row>
+    <row r="231" spans="1:57">
+      <c r="A231" t="s">
+        <v>285</v>
+      </c>
+      <c r="B231">
+        <v>0.06661757443687499</v>
+      </c>
+      <c r="C231">
+        <v>0.067229907453787</v>
+      </c>
+      <c r="D231">
+        <v>0.077456012927145</v>
+      </c>
+      <c r="F231">
+        <v>0.05938258327261</v>
+      </c>
+      <c r="G231">
+        <v>0.055414698838008</v>
+      </c>
+      <c r="H231">
+        <v>0.055997207837994</v>
+      </c>
+      <c r="I231">
+        <v>0.054861364525107</v>
+      </c>
+      <c r="J231">
+        <v>0.041120348724197</v>
+      </c>
+      <c r="K231">
+        <v>0.0478949383642</v>
+      </c>
+      <c r="L231">
+        <v>0.052130716878008</v>
+      </c>
+      <c r="M231">
+        <v>0.06252297316989799</v>
+      </c>
+      <c r="N231">
+        <v>0.065100581993287</v>
+      </c>
+      <c r="O231">
+        <v>0.033710321009834</v>
+      </c>
+      <c r="P231">
+        <v>0.087130458622482</v>
+      </c>
+      <c r="Q231">
+        <v>0.06993848105172</v>
+      </c>
+      <c r="R231">
+        <v>0.057972228814378</v>
+      </c>
+      <c r="S231">
+        <v>0.066797574033687</v>
+      </c>
+      <c r="T231">
+        <v>0.07364161659445199</v>
+      </c>
+      <c r="U231">
+        <v>0.059844649499434</v>
+      </c>
+      <c r="V231">
+        <v>0.070622303237154</v>
+      </c>
+      <c r="W231">
+        <v>0.053651303263627</v>
+      </c>
+      <c r="X231">
+        <v>0.047705199074622</v>
+      </c>
+      <c r="Y231">
+        <v>0.06174276235701</v>
+      </c>
+      <c r="Z231">
+        <v>0.056973277498444</v>
+      </c>
+      <c r="AA231">
+        <v>0.056821077796387</v>
+      </c>
+      <c r="AB231">
+        <v>0.072361909241602</v>
+      </c>
+      <c r="AC231">
+        <v>0.043478260869565</v>
+      </c>
+      <c r="AD231">
+        <v>0.071964039602643</v>
+      </c>
+      <c r="AE231">
+        <v>0.071867643483742</v>
+      </c>
+      <c r="AF231">
+        <v>0.062706235560565</v>
+      </c>
+      <c r="AG231">
+        <v>0.080260703965004</v>
+      </c>
+      <c r="AH231">
+        <v>0.08518986107438099</v>
+      </c>
+      <c r="AI231">
+        <v>0.064423119757667</v>
+      </c>
+      <c r="AJ231">
+        <v>0.058332770069141</v>
+      </c>
+      <c r="AK231">
+        <v>0.055286732453849</v>
+      </c>
+      <c r="AL231">
+        <v>0.050468059073459</v>
+      </c>
+      <c r="AM231">
+        <v>0.064818446282047</v>
+      </c>
+      <c r="AN231">
+        <v>0.068676878303139</v>
+      </c>
+      <c r="AO231">
+        <v>0.068878839869026</v>
+      </c>
+      <c r="AP231">
+        <v>0.050039479693208</v>
+      </c>
+      <c r="AQ231">
+        <v>0.061638688509703</v>
+      </c>
+      <c r="AR231">
+        <v>0.071426901127795</v>
+      </c>
+      <c r="AS231">
+        <v>0.05597506610507</v>
+      </c>
+      <c r="AT231">
+        <v>0.064649593462102</v>
+      </c>
+      <c r="AU231">
+        <v>0.08038782112340399</v>
+      </c>
+      <c r="AV231">
+        <v>0.06521623492779199</v>
+      </c>
+      <c r="AW231">
+        <v>0.058351728414608</v>
+      </c>
+      <c r="AX231">
+        <v>0.06611100776374999</v>
+      </c>
+      <c r="AY231">
+        <v>0.057196488620132</v>
+      </c>
+      <c r="AZ231">
+        <v>0.066439109690347</v>
+      </c>
+      <c r="BA231">
+        <v>0.064589901605087</v>
+      </c>
+      <c r="BB231">
+        <v>0.049688329172927</v>
+      </c>
+      <c r="BC231">
+        <v>0.066807894469988</v>
+      </c>
+      <c r="BD231">
+        <v>0.065659966525121</v>
+      </c>
+      <c r="BE231">
+        <v>0.06752628796151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:57">
+      <c r="A232" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="233" spans="1:57">
+      <c r="A233" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="234" spans="1:57">
+      <c r="A234" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="235" spans="1:57">
+      <c r="A235" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="236" spans="1:57">
+      <c r="A236" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
